--- a/output_xlsx/metadata_deaths.xlsx
+++ b/output_xlsx/metadata_deaths.xlsx
@@ -1181,7 +1181,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/output_xlsx/metadata_deaths.xlsx
+++ b/output_xlsx/metadata_deaths.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t xml:space="preserve">Country.Province</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t xml:space="preserve">China/Tibet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China/Unknown</t>
   </si>
   <si>
     <t xml:space="preserve">China/Xinjiang</t>
@@ -1181,7 +1184,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1214,13 +1217,13 @@
         <v>67.709953</v>
       </c>
       <c r="D2" t="n">
-        <v>32117.8355263158</v>
+        <v>32175.1531728665</v>
       </c>
       <c r="E2" t="n">
-        <v>32117.8355263158</v>
+        <v>32175.1531728665</v>
       </c>
       <c r="F2" t="n">
-        <v>14645733</v>
+        <v>14704045</v>
       </c>
     </row>
     <row r="3">
@@ -1234,13 +1237,13 @@
         <v>20.1683</v>
       </c>
       <c r="D3" t="n">
-        <v>32387.5964912281</v>
+        <v>32601.4398249453</v>
       </c>
       <c r="E3" t="n">
-        <v>32387.5964912281</v>
+        <v>32601.4398249453</v>
       </c>
       <c r="F3" t="n">
-        <v>14768744</v>
+        <v>14898858</v>
       </c>
     </row>
     <row r="4">
@@ -1254,13 +1257,13 @@
         <v>1.6596</v>
       </c>
       <c r="D4" t="n">
-        <v>50353.0701754386</v>
+        <v>50506.2647702407</v>
       </c>
       <c r="E4" t="n">
-        <v>50353.0701754386</v>
+        <v>50506.2647702407</v>
       </c>
       <c r="F4" t="n">
-        <v>22961000</v>
+        <v>23081363</v>
       </c>
     </row>
     <row r="5">
@@ -1274,13 +1277,13 @@
         <v>1.5218</v>
       </c>
       <c r="D5" t="n">
-        <v>4102.30921052632</v>
+        <v>4121.65207877462</v>
       </c>
       <c r="E5" t="n">
-        <v>4102.30921052632</v>
+        <v>4121.65207877462</v>
       </c>
       <c r="F5" t="n">
-        <v>1870653</v>
+        <v>1883595</v>
       </c>
     </row>
     <row r="6">
@@ -1294,13 +1297,13 @@
         <v>17.8739</v>
       </c>
       <c r="D6" t="n">
-        <v>8011.48903508772</v>
+        <v>8048.77461706783</v>
       </c>
       <c r="E6" t="n">
-        <v>8011.48903508772</v>
+        <v>8048.77461706783</v>
       </c>
       <c r="F6" t="n">
-        <v>3653239</v>
+        <v>3678290</v>
       </c>
     </row>
     <row r="7">
@@ -1314,13 +1317,13 @@
         <v>-61.7964</v>
       </c>
       <c r="D7" t="n">
-        <v>212.120614035088</v>
+        <v>214.319474835886</v>
       </c>
       <c r="E7" t="n">
-        <v>212.120614035088</v>
+        <v>214.319474835886</v>
       </c>
       <c r="F7" t="n">
-        <v>96727</v>
+        <v>97944</v>
       </c>
     </row>
     <row r="8">
@@ -1334,13 +1337,13 @@
         <v>-63.6167</v>
       </c>
       <c r="D8" t="n">
-        <v>838901.36622807</v>
+        <v>843185.538293217</v>
       </c>
       <c r="E8" t="n">
-        <v>838901.36622807</v>
+        <v>843185.538293217</v>
       </c>
       <c r="F8" t="n">
-        <v>382539023</v>
+        <v>385335791</v>
       </c>
     </row>
     <row r="9">
@@ -1354,13 +1357,13 @@
         <v>45.0382</v>
       </c>
       <c r="D9" t="n">
-        <v>75056.8421052632</v>
+        <v>75355.1838074398</v>
       </c>
       <c r="E9" t="n">
-        <v>75056.8421052632</v>
+        <v>75355.1838074398</v>
       </c>
       <c r="F9" t="n">
-        <v>34225920</v>
+        <v>34437319</v>
       </c>
     </row>
     <row r="10">
@@ -1374,13 +1377,13 @@
         <v>149.0124</v>
       </c>
       <c r="D10" t="n">
-        <v>97.484649122807</v>
+        <v>97.5404814004376</v>
       </c>
       <c r="E10" t="n">
-        <v>97.484649122807</v>
+        <v>97.5404814004376</v>
       </c>
       <c r="F10" t="n">
-        <v>44453</v>
+        <v>44576</v>
       </c>
     </row>
     <row r="11">
@@ -1394,13 +1397,13 @@
         <v>151.2093</v>
       </c>
       <c r="D11" t="n">
-        <v>3591.18421052632</v>
+        <v>3595.18161925602</v>
       </c>
       <c r="E11" t="n">
-        <v>3591.18421052632</v>
+        <v>3595.18161925602</v>
       </c>
       <c r="F11" t="n">
-        <v>1637580</v>
+        <v>1642998</v>
       </c>
     </row>
     <row r="12">
@@ -1414,13 +1417,13 @@
         <v>130.8456</v>
       </c>
       <c r="D12" t="n">
-        <v>47.2631578947368</v>
+        <v>47.4857768052516</v>
       </c>
       <c r="E12" t="n">
-        <v>47.2631578947368</v>
+        <v>47.4857768052516</v>
       </c>
       <c r="F12" t="n">
-        <v>21552</v>
+        <v>21701</v>
       </c>
     </row>
     <row r="13">
@@ -1434,13 +1437,13 @@
         <v>153.0251</v>
       </c>
       <c r="D13" t="n">
-        <v>1016.58114035088</v>
+        <v>1017.69146608315</v>
       </c>
       <c r="E13" t="n">
-        <v>1016.58114035088</v>
+        <v>1017.69146608315</v>
       </c>
       <c r="F13" t="n">
-        <v>463561</v>
+        <v>465085</v>
       </c>
     </row>
     <row r="14">
@@ -1454,13 +1457,13 @@
         <v>138.6007</v>
       </c>
       <c r="D14" t="n">
-        <v>442.820175438596</v>
+        <v>443.387308533917</v>
       </c>
       <c r="E14" t="n">
-        <v>442.820175438596</v>
+        <v>443.387308533917</v>
       </c>
       <c r="F14" t="n">
-        <v>201926</v>
+        <v>202628</v>
       </c>
     </row>
     <row r="15">
@@ -1474,13 +1477,13 @@
         <v>147.3272</v>
       </c>
       <c r="D15" t="n">
-        <v>191.728070175439</v>
+        <v>191.82056892779</v>
       </c>
       <c r="E15" t="n">
-        <v>191.728070175439</v>
+        <v>191.82056892779</v>
       </c>
       <c r="F15" t="n">
-        <v>87428</v>
+        <v>87662</v>
       </c>
     </row>
     <row r="16">
@@ -1494,13 +1497,13 @@
         <v>144.9631</v>
       </c>
       <c r="D16" t="n">
-        <v>12209.4122807018</v>
+        <v>12227.5667396061</v>
       </c>
       <c r="E16" t="n">
-        <v>12209.4122807018</v>
+        <v>12227.5667396061</v>
       </c>
       <c r="F16" t="n">
-        <v>5567492</v>
+        <v>5587998</v>
       </c>
     </row>
     <row r="17">
@@ -1514,13 +1517,13 @@
         <v>115.8605</v>
       </c>
       <c r="D17" t="n">
-        <v>630.065789473684</v>
+        <v>630.835886214442</v>
       </c>
       <c r="E17" t="n">
-        <v>630.065789473684</v>
+        <v>630.835886214442</v>
       </c>
       <c r="F17" t="n">
-        <v>287310</v>
+        <v>288292</v>
       </c>
     </row>
     <row r="18">
@@ -1534,13 +1537,13 @@
         <v>14.5501</v>
       </c>
       <c r="D18" t="n">
-        <v>162408.833333333</v>
+        <v>163371.820568928</v>
       </c>
       <c r="E18" t="n">
-        <v>162408.833333333</v>
+        <v>163371.820568928</v>
       </c>
       <c r="F18" t="n">
-        <v>74058428</v>
+        <v>74660922</v>
       </c>
     </row>
     <row r="19">
@@ -1554,13 +1557,13 @@
         <v>47.5769</v>
       </c>
       <c r="D19" t="n">
-        <v>87741.4802631579</v>
+        <v>88223.4026258206</v>
       </c>
       <c r="E19" t="n">
-        <v>87741.4802631579</v>
+        <v>88223.4026258206</v>
       </c>
       <c r="F19" t="n">
-        <v>40010115</v>
+        <v>40318095</v>
       </c>
     </row>
     <row r="20">
@@ -1574,13 +1577,13 @@
         <v>-78.035889</v>
       </c>
       <c r="D20" t="n">
-        <v>3786.61842105263</v>
+        <v>3799.92560175055</v>
       </c>
       <c r="E20" t="n">
-        <v>3786.61842105263</v>
+        <v>3799.92560175055</v>
       </c>
       <c r="F20" t="n">
-        <v>1726698</v>
+        <v>1736566</v>
       </c>
     </row>
     <row r="21">
@@ -1594,13 +1597,13 @@
         <v>50.55</v>
       </c>
       <c r="D21" t="n">
-        <v>58162.951754386</v>
+        <v>58403.7352297593</v>
       </c>
       <c r="E21" t="n">
-        <v>58162.951754386</v>
+        <v>58403.7352297593</v>
       </c>
       <c r="F21" t="n">
-        <v>26522306</v>
+        <v>26690507</v>
       </c>
     </row>
     <row r="22">
@@ -1614,13 +1617,13 @@
         <v>90.3563</v>
       </c>
       <c r="D22" t="n">
-        <v>289798.543859649</v>
+        <v>290775.076586433</v>
       </c>
       <c r="E22" t="n">
-        <v>289798.543859649</v>
+        <v>290775.076586433</v>
       </c>
       <c r="F22" t="n">
-        <v>132148136</v>
+        <v>132884210</v>
       </c>
     </row>
     <row r="23">
@@ -1634,13 +1637,13 @@
         <v>-59.5432</v>
       </c>
       <c r="D23" t="n">
-        <v>713.989035087719</v>
+        <v>720.754923413567</v>
       </c>
       <c r="E23" t="n">
-        <v>713.989035087719</v>
+        <v>720.754923413567</v>
       </c>
       <c r="F23" t="n">
-        <v>325579</v>
+        <v>329385</v>
       </c>
     </row>
     <row r="24">
@@ -1654,13 +1657,13 @@
         <v>27.9534</v>
       </c>
       <c r="D24" t="n">
-        <v>112625.412280702</v>
+        <v>113141.518599562</v>
       </c>
       <c r="E24" t="n">
-        <v>112625.412280702</v>
+        <v>113141.518599562</v>
       </c>
       <c r="F24" t="n">
-        <v>51357188</v>
+        <v>51705674</v>
       </c>
     </row>
     <row r="25">
@@ -1674,13 +1677,13 @@
         <v>4.469936</v>
       </c>
       <c r="D25" t="n">
-        <v>307860.118421053</v>
+        <v>309297.024070022</v>
       </c>
       <c r="E25" t="n">
-        <v>307860.118421053</v>
+        <v>309297.024070022</v>
       </c>
       <c r="F25" t="n">
-        <v>140384214</v>
+        <v>141348740</v>
       </c>
     </row>
     <row r="26">
@@ -1694,13 +1697,13 @@
         <v>-88.4976</v>
       </c>
       <c r="D26" t="n">
-        <v>4203.27850877193</v>
+        <v>4221.64332603939</v>
       </c>
       <c r="E26" t="n">
-        <v>4203.27850877193</v>
+        <v>4221.64332603939</v>
       </c>
       <c r="F26" t="n">
-        <v>1916695</v>
+        <v>1929291</v>
       </c>
     </row>
     <row r="27">
@@ -1714,13 +1717,13 @@
         <v>2.3158</v>
       </c>
       <c r="D27" t="n">
-        <v>2334.57894736842</v>
+        <v>2346.36323851203</v>
       </c>
       <c r="E27" t="n">
-        <v>2334.57894736842</v>
+        <v>2346.36323851203</v>
       </c>
       <c r="F27" t="n">
-        <v>1064568</v>
+        <v>1072288</v>
       </c>
     </row>
     <row r="28">
@@ -1734,13 +1737,13 @@
         <v>90.4336</v>
       </c>
       <c r="D28" t="n">
-        <v>327.197368421053</v>
+        <v>328.652078774617</v>
       </c>
       <c r="E28" t="n">
-        <v>327.197368421053</v>
+        <v>328.652078774617</v>
       </c>
       <c r="F28" t="n">
-        <v>149202</v>
+        <v>150194</v>
       </c>
     </row>
     <row r="29">
@@ -1754,13 +1757,13 @@
         <v>-63.5887</v>
       </c>
       <c r="D29" t="n">
-        <v>107526.00877193</v>
+        <v>107934.903719912</v>
       </c>
       <c r="E29" t="n">
-        <v>107526.00877193</v>
+        <v>107934.903719912</v>
       </c>
       <c r="F29" t="n">
-        <v>49031860</v>
+        <v>49326251</v>
       </c>
     </row>
     <row r="30">
@@ -1774,13 +1777,13 @@
         <v>17.6791</v>
       </c>
       <c r="D30" t="n">
-        <v>51840.9100877193</v>
+        <v>52152.7921225383</v>
       </c>
       <c r="E30" t="n">
-        <v>51840.9100877193</v>
+        <v>52152.7921225383</v>
       </c>
       <c r="F30" t="n">
-        <v>23639455</v>
+        <v>23833826</v>
       </c>
     </row>
     <row r="31">
@@ -1794,13 +1797,13 @@
         <v>24.6849</v>
       </c>
       <c r="D31" t="n">
-        <v>9193.1447368421</v>
+        <v>9273.36761487965</v>
       </c>
       <c r="E31" t="n">
-        <v>9193.1447368421</v>
+        <v>9273.36761487965</v>
       </c>
       <c r="F31" t="n">
-        <v>4192074</v>
+        <v>4237929</v>
       </c>
     </row>
     <row r="32">
@@ -1814,13 +1817,13 @@
         <v>-51.9253</v>
       </c>
       <c r="D32" t="n">
-        <v>4544972.73903509</v>
+        <v>4566029.63238512</v>
       </c>
       <c r="E32" t="n">
-        <v>4544972.73903509</v>
+        <v>4566029.63238512</v>
       </c>
       <c r="F32" t="n">
-        <v>2072507569</v>
+        <v>2086675542</v>
       </c>
     </row>
     <row r="33">
@@ -1834,13 +1837,13 @@
         <v>114.7277</v>
       </c>
       <c r="D33" t="n">
-        <v>137</v>
+        <v>137.18818380744</v>
       </c>
       <c r="E33" t="n">
-        <v>137</v>
+        <v>137.18818380744</v>
       </c>
       <c r="F33" t="n">
-        <v>62472</v>
+        <v>62695</v>
       </c>
     </row>
     <row r="34">
@@ -1854,13 +1857,13 @@
         <v>25.4858</v>
       </c>
       <c r="D34" t="n">
-        <v>89821.5065789474</v>
+        <v>90484.7264770241</v>
       </c>
       <c r="E34" t="n">
-        <v>89821.5065789474</v>
+        <v>90484.7264770241</v>
       </c>
       <c r="F34" t="n">
-        <v>40958607</v>
+        <v>41351520</v>
       </c>
     </row>
     <row r="35">
@@ -1874,13 +1877,13 @@
         <v>-1.5616</v>
       </c>
       <c r="D35" t="n">
-        <v>3819.59210526316</v>
+        <v>3840.14442013129</v>
       </c>
       <c r="E35" t="n">
-        <v>3819.59210526316</v>
+        <v>3840.14442013129</v>
       </c>
       <c r="F35" t="n">
-        <v>1741734</v>
+        <v>1754946</v>
       </c>
     </row>
     <row r="36">
@@ -1894,13 +1897,13 @@
         <v>95.956</v>
       </c>
       <c r="D36" t="n">
-        <v>48867.2368421053</v>
+        <v>49072.5032822757</v>
       </c>
       <c r="E36" t="n">
-        <v>48867.2368421053</v>
+        <v>49072.5032822757</v>
       </c>
       <c r="F36" t="n">
-        <v>22283460</v>
+        <v>22426134</v>
       </c>
     </row>
     <row r="37">
@@ -1914,13 +1917,13 @@
         <v>29.9189</v>
       </c>
       <c r="D37" t="n">
-        <v>729.469298245614</v>
+        <v>736.039387308534</v>
       </c>
       <c r="E37" t="n">
-        <v>729.469298245614</v>
+        <v>736.039387308534</v>
       </c>
       <c r="F37" t="n">
-        <v>332638</v>
+        <v>336370</v>
       </c>
     </row>
     <row r="38">
@@ -1934,13 +1937,13 @@
         <v>-23.0418</v>
       </c>
       <c r="D38" t="n">
-        <v>6443.24780701754</v>
+        <v>6476.19474835886</v>
       </c>
       <c r="E38" t="n">
-        <v>6443.24780701754</v>
+        <v>6476.19474835886</v>
       </c>
       <c r="F38" t="n">
-        <v>2938121</v>
+        <v>2959621</v>
       </c>
     </row>
     <row r="39">
@@ -1954,13 +1957,13 @@
         <v>104.9167</v>
       </c>
       <c r="D39" t="n">
-        <v>508.535087719298</v>
+        <v>525.35010940919</v>
       </c>
       <c r="E39" t="n">
-        <v>508.535087719298</v>
+        <v>525.35010940919</v>
       </c>
       <c r="F39" t="n">
-        <v>231892</v>
+        <v>240085</v>
       </c>
     </row>
     <row r="40">
@@ -1974,13 +1977,13 @@
         <v>11.5021</v>
       </c>
       <c r="D40" t="n">
-        <v>18743.1206140351</v>
+        <v>18843.9212253829</v>
       </c>
       <c r="E40" t="n">
-        <v>18743.1206140351</v>
+        <v>18843.9212253829</v>
       </c>
       <c r="F40" t="n">
-        <v>8546863</v>
+        <v>8611672</v>
       </c>
     </row>
     <row r="41">
@@ -1994,13 +1997,13 @@
         <v>-116.5765</v>
       </c>
       <c r="D41" t="n">
-        <v>46115.2938596491</v>
+        <v>46401.8840262582</v>
       </c>
       <c r="E41" t="n">
-        <v>46115.2938596491</v>
+        <v>46401.8840262582</v>
       </c>
       <c r="F41" t="n">
-        <v>21028574</v>
+        <v>21205661</v>
       </c>
     </row>
     <row r="42">
@@ -2014,13 +2017,13 @@
         <v>-127.6476</v>
       </c>
       <c r="D42" t="n">
-        <v>26476.2346491228</v>
+        <v>26686.9146608315</v>
       </c>
       <c r="E42" t="n">
-        <v>26476.2346491228</v>
+        <v>26686.9146608315</v>
       </c>
       <c r="F42" t="n">
-        <v>12073163</v>
+        <v>12195920</v>
       </c>
     </row>
     <row r="43">
@@ -2034,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0701754385964912</v>
+        <v>0.0700218818380744</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0701754385964912</v>
+        <v>0.0700218818380744</v>
       </c>
       <c r="F43" t="n">
         <v>32</v>
@@ -2054,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>11.4078947368421</v>
+        <v>11.4113785557987</v>
       </c>
       <c r="E44" t="n">
-        <v>11.4078947368421</v>
+        <v>11.4113785557987</v>
       </c>
       <c r="F44" t="n">
-        <v>5202</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="45">
@@ -2074,13 +2077,13 @@
         <v>-98.8139</v>
       </c>
       <c r="D45" t="n">
-        <v>10256.1447368421</v>
+        <v>10314.4245076586</v>
       </c>
       <c r="E45" t="n">
-        <v>10256.1447368421</v>
+        <v>10314.4245076586</v>
       </c>
       <c r="F45" t="n">
-        <v>4676802</v>
+        <v>4713692</v>
       </c>
     </row>
     <row r="46">
@@ -2094,13 +2097,13 @@
         <v>-66.4619</v>
       </c>
       <c r="D46" t="n">
-        <v>475.032894736842</v>
+        <v>477.98249452954</v>
       </c>
       <c r="E46" t="n">
-        <v>475.032894736842</v>
+        <v>477.98249452954</v>
       </c>
       <c r="F46" t="n">
-        <v>216615</v>
+        <v>218438</v>
       </c>
     </row>
     <row r="47">
@@ -2114,13 +2117,13 @@
         <v>-57.6604</v>
       </c>
       <c r="D47" t="n">
-        <v>356.478070175439</v>
+        <v>358</v>
       </c>
       <c r="E47" t="n">
-        <v>356.478070175439</v>
+        <v>358</v>
       </c>
       <c r="F47" t="n">
-        <v>162554</v>
+        <v>163606</v>
       </c>
     </row>
     <row r="48">
@@ -2134,13 +2137,13 @@
         <v>-124.8457</v>
       </c>
       <c r="D48" t="n">
-        <v>14.5855263157895</v>
+        <v>14.6673960612691</v>
       </c>
       <c r="E48" t="n">
-        <v>14.5855263157895</v>
+        <v>14.6673960612691</v>
       </c>
       <c r="F48" t="n">
-        <v>6651</v>
+        <v>6703</v>
       </c>
     </row>
     <row r="49">
@@ -2154,13 +2157,13 @@
         <v>-63.7443</v>
       </c>
       <c r="D49" t="n">
-        <v>1042.66666666667</v>
+        <v>1044.5295404814</v>
       </c>
       <c r="E49" t="n">
-        <v>1042.66666666667</v>
+        <v>1044.5295404814</v>
       </c>
       <c r="F49" t="n">
-        <v>475456</v>
+        <v>477350</v>
       </c>
     </row>
     <row r="50">
@@ -2174,13 +2177,13 @@
         <v>-83.1076</v>
       </c>
       <c r="D50" t="n">
-        <v>103.392543859649</v>
+        <v>104.111597374179</v>
       </c>
       <c r="E50" t="n">
-        <v>103.392543859649</v>
+        <v>104.111597374179</v>
       </c>
       <c r="F50" t="n">
-        <v>47147</v>
+        <v>47579</v>
       </c>
     </row>
     <row r="51">
@@ -2194,13 +2197,13 @@
         <v>-85.3232</v>
       </c>
       <c r="D51" t="n">
-        <v>108833.921052632</v>
+        <v>109560.89059081</v>
       </c>
       <c r="E51" t="n">
-        <v>108833.921052632</v>
+        <v>109560.89059081</v>
       </c>
       <c r="F51" t="n">
-        <v>49628268</v>
+        <v>50069327</v>
       </c>
     </row>
     <row r="52">
@@ -2214,13 +2217,13 @@
         <v>-63.4168</v>
       </c>
       <c r="D52" t="n">
-        <v>60.2039473684211</v>
+        <v>60.45295404814</v>
       </c>
       <c r="E52" t="n">
-        <v>60.2039473684211</v>
+        <v>60.45295404814</v>
       </c>
       <c r="F52" t="n">
-        <v>27453</v>
+        <v>27627</v>
       </c>
     </row>
     <row r="53">
@@ -2234,13 +2237,13 @@
         <v>-73.5491</v>
       </c>
       <c r="D53" t="n">
-        <v>114309.114035088</v>
+        <v>114806.566739606</v>
       </c>
       <c r="E53" t="n">
-        <v>114309.114035088</v>
+        <v>114806.566739606</v>
       </c>
       <c r="F53" t="n">
-        <v>52124956</v>
+        <v>52466601</v>
       </c>
     </row>
     <row r="54">
@@ -2250,13 +2253,13 @@
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54" t="n">
-        <v>4.24780701754386</v>
+        <v>4.26695842450766</v>
       </c>
       <c r="E54" t="n">
-        <v>4.24780701754386</v>
+        <v>4.26695842450766</v>
       </c>
       <c r="F54" t="n">
-        <v>1937</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="55">
@@ -2270,13 +2273,13 @@
         <v>-106.4509</v>
       </c>
       <c r="D55" t="n">
-        <v>8500.05263157895</v>
+        <v>8567.09190371991</v>
       </c>
       <c r="E55" t="n">
-        <v>8500.05263157895</v>
+        <v>8567.09190371991</v>
       </c>
       <c r="F55" t="n">
-        <v>3876024</v>
+        <v>3915161</v>
       </c>
     </row>
     <row r="56">
@@ -2290,13 +2293,13 @@
         <v>-135</v>
       </c>
       <c r="D56" t="n">
-        <v>29.3092105263158</v>
+        <v>29.4201312910284</v>
       </c>
       <c r="E56" t="n">
-        <v>29.3092105263158</v>
+        <v>29.4201312910284</v>
       </c>
       <c r="F56" t="n">
-        <v>13365</v>
+        <v>13445</v>
       </c>
     </row>
     <row r="57">
@@ -2310,13 +2313,13 @@
         <v>20.9394</v>
       </c>
       <c r="D57" t="n">
-        <v>3337.88596491228</v>
+        <v>3344.09409190372</v>
       </c>
       <c r="E57" t="n">
-        <v>3337.88596491228</v>
+        <v>3344.09409190372</v>
       </c>
       <c r="F57" t="n">
-        <v>1522076</v>
+        <v>1528251</v>
       </c>
     </row>
     <row r="58">
@@ -2330,13 +2333,13 @@
         <v>18.7322</v>
       </c>
       <c r="D58" t="n">
-        <v>1532.69298245614</v>
+        <v>1539.70021881838</v>
       </c>
       <c r="E58" t="n">
-        <v>1532.69298245614</v>
+        <v>1539.70021881838</v>
       </c>
       <c r="F58" t="n">
-        <v>698908</v>
+        <v>703643</v>
       </c>
     </row>
     <row r="59">
@@ -2350,13 +2353,13 @@
         <v>-71.543</v>
       </c>
       <c r="D59" t="n">
-        <v>406764.85745614</v>
+        <v>408387.516411379</v>
       </c>
       <c r="E59" t="n">
-        <v>406764.85745614</v>
+        <v>408387.516411379</v>
       </c>
       <c r="F59" t="n">
-        <v>185484775</v>
+        <v>186633095</v>
       </c>
     </row>
     <row r="60">
@@ -2370,13 +2373,13 @@
         <v>117.2264</v>
       </c>
       <c r="D60" t="n">
-        <v>961.526315789474</v>
+        <v>961.597374179431</v>
       </c>
       <c r="E60" t="n">
-        <v>961.526315789474</v>
+        <v>961.597374179431</v>
       </c>
       <c r="F60" t="n">
-        <v>438456</v>
+        <v>439450</v>
       </c>
     </row>
     <row r="61">
@@ -2390,13 +2393,13 @@
         <v>116.4142</v>
       </c>
       <c r="D61" t="n">
-        <v>815.357456140351</v>
+        <v>815.886214442013</v>
       </c>
       <c r="E61" t="n">
-        <v>815.357456140351</v>
+        <v>815.886214442013</v>
       </c>
       <c r="F61" t="n">
-        <v>371803</v>
+        <v>372860</v>
       </c>
     </row>
     <row r="62">
@@ -2410,13 +2413,13 @@
         <v>107.874</v>
       </c>
       <c r="D62" t="n">
-        <v>568.905701754386</v>
+        <v>568.958424507659</v>
       </c>
       <c r="E62" t="n">
-        <v>568.905701754386</v>
+        <v>568.958424507659</v>
       </c>
       <c r="F62" t="n">
-        <v>259421</v>
+        <v>260014</v>
       </c>
     </row>
     <row r="63">
@@ -2430,13 +2433,13 @@
         <v>117.9874</v>
       </c>
       <c r="D63" t="n">
-        <v>412.837719298246</v>
+        <v>413.216630196937</v>
       </c>
       <c r="E63" t="n">
-        <v>412.837719298246</v>
+        <v>413.216630196937</v>
       </c>
       <c r="F63" t="n">
-        <v>188254</v>
+        <v>188840</v>
       </c>
     </row>
     <row r="64">
@@ -2450,13 +2453,13 @@
         <v>104.2861</v>
       </c>
       <c r="D64" t="n">
-        <v>157.75</v>
+        <v>157.827133479212</v>
       </c>
       <c r="E64" t="n">
-        <v>157.75</v>
+        <v>157.827133479212</v>
       </c>
       <c r="F64" t="n">
-        <v>71934</v>
+        <v>72127</v>
       </c>
     </row>
     <row r="65">
@@ -2470,13 +2473,13 @@
         <v>113.4244</v>
       </c>
       <c r="D65" t="n">
-        <v>1764.74342105263</v>
+        <v>1765.97374179431</v>
       </c>
       <c r="E65" t="n">
-        <v>1764.74342105263</v>
+        <v>1765.97374179431</v>
       </c>
       <c r="F65" t="n">
-        <v>804723</v>
+        <v>807050</v>
       </c>
     </row>
     <row r="66">
@@ -2490,13 +2493,13 @@
         <v>108.7881</v>
       </c>
       <c r="D66" t="n">
-        <v>251.592105263158</v>
+        <v>251.63238512035</v>
       </c>
       <c r="E66" t="n">
-        <v>251.592105263158</v>
+        <v>251.63238512035</v>
       </c>
       <c r="F66" t="n">
-        <v>114726</v>
+        <v>114996</v>
       </c>
     </row>
     <row r="67">
@@ -2510,13 +2513,13 @@
         <v>106.8748</v>
       </c>
       <c r="D67" t="n">
-        <v>141.967105263158</v>
+        <v>141.978118161926</v>
       </c>
       <c r="E67" t="n">
-        <v>141.967105263158</v>
+        <v>141.978118161926</v>
       </c>
       <c r="F67" t="n">
-        <v>64737</v>
+        <v>64884</v>
       </c>
     </row>
     <row r="68">
@@ -2530,13 +2533,13 @@
         <v>109.7453</v>
       </c>
       <c r="D68" t="n">
-        <v>165.464912280702</v>
+        <v>165.512035010941</v>
       </c>
       <c r="E68" t="n">
-        <v>165.464912280702</v>
+        <v>165.512035010941</v>
       </c>
       <c r="F68" t="n">
-        <v>75452</v>
+        <v>75639</v>
       </c>
     </row>
     <row r="69">
@@ -2550,13 +2553,13 @@
         <v>116.1306</v>
       </c>
       <c r="D69" t="n">
-        <v>545.348684210526</v>
+        <v>547.037199124726</v>
       </c>
       <c r="E69" t="n">
-        <v>545.348684210526</v>
+        <v>547.037199124726</v>
       </c>
       <c r="F69" t="n">
-        <v>248679</v>
+        <v>249996</v>
       </c>
     </row>
     <row r="70">
@@ -2570,13 +2573,13 @@
         <v>127.7615</v>
       </c>
       <c r="D70" t="n">
-        <v>979.048245614035</v>
+        <v>980.428884026258</v>
       </c>
       <c r="E70" t="n">
-        <v>979.048245614035</v>
+        <v>980.428884026258</v>
       </c>
       <c r="F70" t="n">
-        <v>446446</v>
+        <v>448056</v>
       </c>
     </row>
     <row r="71">
@@ -2590,13 +2593,13 @@
         <v>114.9042</v>
       </c>
       <c r="D71" t="n">
-        <v>1247.94298245614</v>
+        <v>1248.08315098468</v>
       </c>
       <c r="E71" t="n">
-        <v>1247.94298245614</v>
+        <v>1248.08315098468</v>
       </c>
       <c r="F71" t="n">
-        <v>569062</v>
+        <v>570374</v>
       </c>
     </row>
     <row r="72">
@@ -2610,13 +2613,13 @@
         <v>114.2</v>
       </c>
       <c r="D72" t="n">
-        <v>4842.83114035088</v>
+        <v>4857.87527352298</v>
       </c>
       <c r="E72" t="n">
-        <v>4842.83114035088</v>
+        <v>4857.87527352298</v>
       </c>
       <c r="F72" t="n">
-        <v>2208331</v>
+        <v>2220049</v>
       </c>
     </row>
     <row r="73">
@@ -2630,13 +2633,13 @@
         <v>112.2707</v>
       </c>
       <c r="D73" t="n">
-        <v>65207.9912280702</v>
+        <v>65214.4442013129</v>
       </c>
       <c r="E73" t="n">
-        <v>65207.9912280702</v>
+        <v>65214.4442013129</v>
       </c>
       <c r="F73" t="n">
-        <v>29734844</v>
+        <v>29803001</v>
       </c>
     </row>
     <row r="74">
@@ -2650,13 +2653,13 @@
         <v>111.7088</v>
       </c>
       <c r="D74" t="n">
-        <v>994.559210526316</v>
+        <v>994.667396061269</v>
       </c>
       <c r="E74" t="n">
-        <v>994.559210526316</v>
+        <v>994.667396061269</v>
       </c>
       <c r="F74" t="n">
-        <v>453519</v>
+        <v>454563</v>
       </c>
     </row>
     <row r="75">
@@ -2670,13 +2673,13 @@
         <v>113.9448</v>
       </c>
       <c r="D75" t="n">
-        <v>254.625</v>
+        <v>254.89715536105</v>
       </c>
       <c r="E75" t="n">
-        <v>254.625</v>
+        <v>254.89715536105</v>
       </c>
       <c r="F75" t="n">
-        <v>116109</v>
+        <v>116488</v>
       </c>
     </row>
     <row r="76">
@@ -2690,13 +2693,13 @@
         <v>119.455</v>
       </c>
       <c r="D76" t="n">
-        <v>648.405701754386</v>
+        <v>648.553610503282</v>
       </c>
       <c r="E76" t="n">
-        <v>648.405701754386</v>
+        <v>648.553610503282</v>
       </c>
       <c r="F76" t="n">
-        <v>295673</v>
+        <v>296389</v>
       </c>
     </row>
     <row r="77">
@@ -2710,13 +2713,13 @@
         <v>115.7221</v>
       </c>
       <c r="D77" t="n">
-        <v>906.879385964912</v>
+        <v>906.945295404814</v>
       </c>
       <c r="E77" t="n">
-        <v>906.879385964912</v>
+        <v>906.945295404814</v>
       </c>
       <c r="F77" t="n">
-        <v>413537</v>
+        <v>414474</v>
       </c>
     </row>
     <row r="78">
@@ -2730,13 +2733,13 @@
         <v>126.1923</v>
       </c>
       <c r="D78" t="n">
-        <v>219.894736842105</v>
+        <v>220.667396061269</v>
       </c>
       <c r="E78" t="n">
-        <v>219.894736842105</v>
+        <v>220.667396061269</v>
       </c>
       <c r="F78" t="n">
-        <v>100272</v>
+        <v>100845</v>
       </c>
     </row>
     <row r="79">
@@ -2750,13 +2753,13 @@
         <v>122.6085</v>
       </c>
       <c r="D79" t="n">
-        <v>248.541666666667</v>
+        <v>248.890590809628</v>
       </c>
       <c r="E79" t="n">
-        <v>248.541666666667</v>
+        <v>248.890590809628</v>
       </c>
       <c r="F79" t="n">
-        <v>113335</v>
+        <v>113743</v>
       </c>
     </row>
     <row r="80">
@@ -2770,13 +2773,13 @@
         <v>113.55</v>
       </c>
       <c r="D80" t="n">
-        <v>41.0679824561403</v>
+        <v>41.0853391684902</v>
       </c>
       <c r="E80" t="n">
-        <v>41.0679824561403</v>
+        <v>41.0853391684902</v>
       </c>
       <c r="F80" t="n">
-        <v>18727</v>
+        <v>18776</v>
       </c>
     </row>
     <row r="81">
@@ -2790,13 +2793,13 @@
         <v>106.1655</v>
       </c>
       <c r="D81" t="n">
-        <v>72.4385964912281</v>
+        <v>72.4442013129103</v>
       </c>
       <c r="E81" t="n">
-        <v>72.4385964912281</v>
+        <v>72.4442013129103</v>
       </c>
       <c r="F81" t="n">
-        <v>33032</v>
+        <v>33107</v>
       </c>
     </row>
     <row r="82">
@@ -2810,13 +2813,13 @@
         <v>95.9956</v>
       </c>
       <c r="D82" t="n">
-        <v>17.6293859649123</v>
+        <v>17.6301969365427</v>
       </c>
       <c r="E82" t="n">
-        <v>17.6293859649123</v>
+        <v>17.6301969365427</v>
       </c>
       <c r="F82" t="n">
-        <v>8039</v>
+        <v>8057</v>
       </c>
     </row>
     <row r="83">
@@ -2830,13 +2833,13 @@
         <v>108.8701</v>
       </c>
       <c r="D83" t="n">
-        <v>390.793859649123</v>
+        <v>391.223194748359</v>
       </c>
       <c r="E83" t="n">
-        <v>390.793859649123</v>
+        <v>391.223194748359</v>
       </c>
       <c r="F83" t="n">
-        <v>178202</v>
+        <v>178789</v>
       </c>
     </row>
     <row r="84">
@@ -2850,13 +2853,13 @@
         <v>118.1498</v>
       </c>
       <c r="D84" t="n">
-        <v>791.684210526316</v>
+        <v>791.868708971554</v>
       </c>
       <c r="E84" t="n">
-        <v>791.684210526316</v>
+        <v>791.868708971554</v>
       </c>
       <c r="F84" t="n">
-        <v>361008</v>
+        <v>361884</v>
       </c>
     </row>
     <row r="85">
@@ -2870,13 +2873,13 @@
         <v>121.4491</v>
       </c>
       <c r="D85" t="n">
-        <v>1030.38377192982</v>
+        <v>1032.40700218818</v>
       </c>
       <c r="E85" t="n">
-        <v>1030.38377192982</v>
+        <v>1032.40700218818</v>
       </c>
       <c r="F85" t="n">
-        <v>469855</v>
+        <v>471810</v>
       </c>
     </row>
     <row r="86">
@@ -2890,13 +2893,13 @@
         <v>112.2922</v>
       </c>
       <c r="D86" t="n">
-        <v>197.296052631579</v>
+        <v>197.409190371991</v>
       </c>
       <c r="E86" t="n">
-        <v>197.296052631579</v>
+        <v>197.409190371991</v>
       </c>
       <c r="F86" t="n">
-        <v>89967</v>
+        <v>90216</v>
       </c>
     </row>
     <row r="87">
@@ -2910,13 +2913,13 @@
         <v>102.7103</v>
       </c>
       <c r="D87" t="n">
-        <v>684.504385964912</v>
+        <v>685.122538293217</v>
       </c>
       <c r="E87" t="n">
-        <v>684.504385964912</v>
+        <v>685.122538293217</v>
       </c>
       <c r="F87" t="n">
-        <v>312134</v>
+        <v>313101</v>
       </c>
     </row>
     <row r="88">
@@ -2930,13 +2933,13 @@
         <v>117.323</v>
       </c>
       <c r="D88" t="n">
-        <v>241.210526315789</v>
+        <v>241.520787746171</v>
       </c>
       <c r="E88" t="n">
-        <v>241.210526315789</v>
+        <v>241.520787746171</v>
       </c>
       <c r="F88" t="n">
-        <v>109992</v>
+        <v>110375</v>
       </c>
     </row>
     <row r="89">
@@ -2950,33 +2953,29 @@
         <v>88.0924</v>
       </c>
       <c r="D89" t="n">
-        <v>0.982456140350877</v>
+        <v>0.982494529540481</v>
       </c>
       <c r="E89" t="n">
-        <v>0.982456140350877</v>
+        <v>0.982494529540481</v>
       </c>
       <c r="F89" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>94</v>
       </c>
-      <c r="B90" t="n">
-        <v>41.1129</v>
-      </c>
-      <c r="C90" t="n">
-        <v>85.2401</v>
-      </c>
+      <c r="B90"/>
+      <c r="C90"/>
       <c r="D90" t="n">
-        <v>584.899122807018</v>
+        <v>2.30853391684902</v>
       </c>
       <c r="E90" t="n">
-        <v>584.899122807018</v>
+        <v>2.30853391684902</v>
       </c>
       <c r="F90" t="n">
-        <v>266714</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="91">
@@ -2984,19 +2983,19 @@
         <v>95</v>
       </c>
       <c r="B91" t="n">
-        <v>24.974</v>
+        <v>41.1129</v>
       </c>
       <c r="C91" t="n">
-        <v>101.487</v>
+        <v>85.2401</v>
       </c>
       <c r="D91" t="n">
-        <v>202.791666666667</v>
+        <v>585.763676148797</v>
       </c>
       <c r="E91" t="n">
-        <v>202.791666666667</v>
+        <v>585.763676148797</v>
       </c>
       <c r="F91" t="n">
-        <v>92473</v>
+        <v>267694</v>
       </c>
     </row>
     <row r="92">
@@ -3004,19 +3003,19 @@
         <v>96</v>
       </c>
       <c r="B92" t="n">
-        <v>29.1832</v>
+        <v>24.974</v>
       </c>
       <c r="C92" t="n">
-        <v>120.0934</v>
+        <v>101.487</v>
       </c>
       <c r="D92" t="n">
-        <v>1247.80921052632</v>
+        <v>203.08533916849</v>
       </c>
       <c r="E92" t="n">
-        <v>1247.80921052632</v>
+        <v>203.08533916849</v>
       </c>
       <c r="F92" t="n">
-        <v>569001</v>
+        <v>92810</v>
       </c>
     </row>
     <row r="93">
@@ -3024,19 +3023,19 @@
         <v>97</v>
       </c>
       <c r="B93" t="n">
-        <v>4.5709</v>
+        <v>29.1832</v>
       </c>
       <c r="C93" t="n">
-        <v>-74.2973</v>
+        <v>120.0934</v>
       </c>
       <c r="D93" t="n">
-        <v>878051.831140351</v>
+        <v>1247.99124726477</v>
       </c>
       <c r="E93" t="n">
-        <v>878051.831140351</v>
+        <v>1247.99124726477</v>
       </c>
       <c r="F93" t="n">
-        <v>400391635</v>
+        <v>570332</v>
       </c>
     </row>
     <row r="94">
@@ -3044,19 +3043,19 @@
         <v>98</v>
       </c>
       <c r="B94" t="n">
-        <v>-11.6455</v>
+        <v>4.5709</v>
       </c>
       <c r="C94" t="n">
-        <v>43.3333</v>
+        <v>-74.2973</v>
       </c>
       <c r="D94" t="n">
-        <v>950.127192982456</v>
+        <v>882083.70678337</v>
       </c>
       <c r="E94" t="n">
-        <v>950.127192982456</v>
+        <v>882083.70678337</v>
       </c>
       <c r="F94" t="n">
-        <v>433258</v>
+        <v>403112254</v>
       </c>
     </row>
     <row r="95">
@@ -3064,19 +3063,19 @@
         <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.228</v>
+        <v>-11.6455</v>
       </c>
       <c r="C95" t="n">
-        <v>15.8277</v>
+        <v>43.3333</v>
       </c>
       <c r="D95" t="n">
-        <v>4088.45614035088</v>
+        <v>956.415754923414</v>
       </c>
       <c r="E95" t="n">
-        <v>4088.45614035088</v>
+        <v>956.415754923414</v>
       </c>
       <c r="F95" t="n">
-        <v>1864336</v>
+        <v>437082</v>
       </c>
     </row>
     <row r="96">
@@ -3084,19 +3083,19 @@
         <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>-4.0383</v>
+        <v>-0.228</v>
       </c>
       <c r="C96" t="n">
-        <v>21.7587</v>
+        <v>15.8277</v>
       </c>
       <c r="D96" t="n">
-        <v>10953.8706140351</v>
+        <v>4101.57549234136</v>
       </c>
       <c r="E96" t="n">
-        <v>10953.8706140351</v>
+        <v>4101.57549234136</v>
       </c>
       <c r="F96" t="n">
-        <v>4994965</v>
+        <v>1874420</v>
       </c>
     </row>
     <row r="97">
@@ -3104,19 +3103,19 @@
         <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>9.7489</v>
+        <v>-4.0383</v>
       </c>
       <c r="C97" t="n">
-        <v>-83.7534</v>
+        <v>21.7587</v>
       </c>
       <c r="D97" t="n">
-        <v>81142.7302631579</v>
+        <v>10994.124726477</v>
       </c>
       <c r="E97" t="n">
-        <v>81142.7302631579</v>
+        <v>10994.124726477</v>
       </c>
       <c r="F97" t="n">
-        <v>37001085</v>
+        <v>5024315</v>
       </c>
     </row>
     <row r="98">
@@ -3124,19 +3123,19 @@
         <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>7.54</v>
+        <v>9.7489</v>
       </c>
       <c r="C98" t="n">
-        <v>-5.5471</v>
+        <v>-83.7534</v>
       </c>
       <c r="D98" t="n">
-        <v>16420.4583333333</v>
+        <v>81479.9978118162</v>
       </c>
       <c r="E98" t="n">
-        <v>16420.4583333333</v>
+        <v>81479.9978118162</v>
       </c>
       <c r="F98" t="n">
-        <v>7487729</v>
+        <v>37236359</v>
       </c>
     </row>
     <row r="99">
@@ -3144,19 +3143,19 @@
         <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>45.1</v>
+        <v>7.54</v>
       </c>
       <c r="C99" t="n">
-        <v>15.2</v>
+        <v>-5.5471</v>
       </c>
       <c r="D99" t="n">
-        <v>82299.4605263158</v>
+        <v>16484.5601750547</v>
       </c>
       <c r="E99" t="n">
-        <v>82299.4605263158</v>
+        <v>16484.5601750547</v>
       </c>
       <c r="F99" t="n">
-        <v>37528554</v>
+        <v>7533444</v>
       </c>
     </row>
     <row r="100">
@@ -3164,19 +3163,19 @@
         <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>21.521757</v>
+        <v>45.1</v>
       </c>
       <c r="C100" t="n">
-        <v>-77.781167</v>
+        <v>15.2</v>
       </c>
       <c r="D100" t="n">
-        <v>14494.8245614035</v>
+        <v>82811.5142231948</v>
       </c>
       <c r="E100" t="n">
-        <v>14494.8245614035</v>
+        <v>82811.5142231948</v>
       </c>
       <c r="F100" t="n">
-        <v>6609640</v>
+        <v>37844862</v>
       </c>
     </row>
     <row r="101">
@@ -3184,19 +3183,19 @@
         <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>35.1264</v>
+        <v>21.521757</v>
       </c>
       <c r="C101" t="n">
-        <v>33.4299</v>
+        <v>-77.781167</v>
       </c>
       <c r="D101" t="n">
-        <v>11253.7543859649</v>
+        <v>14677.47702407</v>
       </c>
       <c r="E101" t="n">
-        <v>11253.7543859649</v>
+        <v>14677.47702407</v>
       </c>
       <c r="F101" t="n">
-        <v>5131712</v>
+        <v>6707607</v>
       </c>
     </row>
     <row r="102">
@@ -3204,19 +3203,19 @@
         <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>49.8175</v>
+        <v>35.1264</v>
       </c>
       <c r="C102" t="n">
-        <v>15.473</v>
+        <v>33.4299</v>
       </c>
       <c r="D102" t="n">
-        <v>384695.828947368</v>
+        <v>11359.9649890591</v>
       </c>
       <c r="E102" t="n">
-        <v>384695.828947368</v>
+        <v>11359.9649890591</v>
       </c>
       <c r="F102" t="n">
-        <v>175421298</v>
+        <v>5191504</v>
       </c>
     </row>
     <row r="103">
@@ -3224,19 +3223,19 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>61.8926</v>
+        <v>49.8175</v>
       </c>
       <c r="C103" t="n">
-        <v>-6.9118</v>
+        <v>15.473</v>
       </c>
       <c r="D103" t="n">
-        <v>367.962719298246</v>
+        <v>387383.216630197</v>
       </c>
       <c r="E103" t="n">
-        <v>367.962719298246</v>
+        <v>387383.216630197</v>
       </c>
       <c r="F103" t="n">
-        <v>167791</v>
+        <v>177034130</v>
       </c>
     </row>
     <row r="104">
@@ -3244,19 +3243,19 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>71.7069</v>
+        <v>61.8926</v>
       </c>
       <c r="C104" t="n">
-        <v>-42.6043</v>
+        <v>-6.9118</v>
       </c>
       <c r="D104" t="n">
-        <v>16.3355263157895</v>
+        <v>368.608315098468</v>
       </c>
       <c r="E104" t="n">
-        <v>16.3355263157895</v>
+        <v>368.608315098468</v>
       </c>
       <c r="F104" t="n">
-        <v>7449</v>
+        <v>168454</v>
       </c>
     </row>
     <row r="105">
@@ -3264,19 +3263,19 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>56.2639</v>
+        <v>71.7069</v>
       </c>
       <c r="C105" t="n">
-        <v>9.5018</v>
+        <v>-42.6043</v>
       </c>
       <c r="D105" t="n">
-        <v>71418.2719298246</v>
+        <v>16.3676148796499</v>
       </c>
       <c r="E105" t="n">
-        <v>71418.2719298246</v>
+        <v>16.3676148796499</v>
       </c>
       <c r="F105" t="n">
-        <v>32566732</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="106">
@@ -3284,19 +3283,19 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>56.2639</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>9.5018</v>
       </c>
       <c r="D106" t="n">
-        <v>672.973684210526</v>
+        <v>71799.7658643326</v>
       </c>
       <c r="E106" t="n">
-        <v>672.973684210526</v>
+        <v>71799.7658643326</v>
       </c>
       <c r="F106" t="n">
-        <v>306876</v>
+        <v>32812493</v>
       </c>
     </row>
     <row r="107">
@@ -3304,19 +3303,19 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>11.8251</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>42.5903</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>4295.32675438596</v>
+        <v>673.059080962801</v>
       </c>
       <c r="E107" t="n">
-        <v>4295.32675438596</v>
+        <v>673.059080962801</v>
       </c>
       <c r="F107" t="n">
-        <v>1958669</v>
+        <v>307588</v>
       </c>
     </row>
     <row r="108">
@@ -3324,19 +3323,19 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>15.415</v>
+        <v>11.8251</v>
       </c>
       <c r="C108" t="n">
-        <v>-61.371</v>
+        <v>42.5903</v>
       </c>
       <c r="D108" t="n">
-        <v>53.4736842105263</v>
+        <v>4309.33479212254</v>
       </c>
       <c r="E108" t="n">
-        <v>53.4736842105263</v>
+        <v>4309.33479212254</v>
       </c>
       <c r="F108" t="n">
-        <v>24384</v>
+        <v>1969366</v>
       </c>
     </row>
     <row r="109">
@@ -3344,19 +3343,19 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>18.7357</v>
+        <v>15.415</v>
       </c>
       <c r="C109" t="n">
-        <v>-70.1627</v>
+        <v>-61.371</v>
       </c>
       <c r="D109" t="n">
-        <v>102160.504385965</v>
+        <v>53.7330415754923</v>
       </c>
       <c r="E109" t="n">
-        <v>102160.504385965</v>
+        <v>53.7330415754923</v>
       </c>
       <c r="F109" t="n">
-        <v>46585190</v>
+        <v>24556</v>
       </c>
     </row>
     <row r="110">
@@ -3364,19 +3363,19 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>-1.8312</v>
+        <v>18.7357</v>
       </c>
       <c r="C110" t="n">
-        <v>-78.1834</v>
+        <v>-70.1627</v>
       </c>
       <c r="D110" t="n">
-        <v>130713.565789474</v>
+        <v>102512.308533917</v>
       </c>
       <c r="E110" t="n">
-        <v>130713.565789474</v>
+        <v>102512.308533917</v>
       </c>
       <c r="F110" t="n">
-        <v>59605386</v>
+        <v>46848125</v>
       </c>
     </row>
     <row r="111">
@@ -3384,19 +3383,19 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>26.820553</v>
+        <v>-1.8312</v>
       </c>
       <c r="C111" t="n">
-        <v>30.802498</v>
+        <v>-78.1834</v>
       </c>
       <c r="D111" t="n">
-        <v>90054.7127192982</v>
+        <v>131227.087527352</v>
       </c>
       <c r="E111" t="n">
-        <v>90054.7127192982</v>
+        <v>131227.087527352</v>
       </c>
       <c r="F111" t="n">
-        <v>41064949</v>
+        <v>59970779</v>
       </c>
     </row>
     <row r="112">
@@ -3404,19 +3403,19 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>13.7942</v>
+        <v>26.820553</v>
       </c>
       <c r="C112" t="n">
-        <v>-88.8965</v>
+        <v>30.802498</v>
       </c>
       <c r="D112" t="n">
-        <v>26176.5635964912</v>
+        <v>90338.5623632385</v>
       </c>
       <c r="E112" t="n">
-        <v>26176.5635964912</v>
+        <v>90338.5623632385</v>
       </c>
       <c r="F112" t="n">
-        <v>11936513</v>
+        <v>41284723</v>
       </c>
     </row>
     <row r="113">
@@ -3424,19 +3423,19 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>1.6508</v>
+        <v>13.7942</v>
       </c>
       <c r="C113" t="n">
-        <v>10.2679</v>
+        <v>-88.8965</v>
       </c>
       <c r="D113" t="n">
-        <v>3554.15570175439</v>
+        <v>26268.4332603939</v>
       </c>
       <c r="E113" t="n">
-        <v>3554.15570175439</v>
+        <v>26268.4332603939</v>
       </c>
       <c r="F113" t="n">
-        <v>1620695</v>
+        <v>12004674</v>
       </c>
     </row>
     <row r="114">
@@ -3444,19 +3443,19 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>15.1794</v>
+        <v>1.6508</v>
       </c>
       <c r="C114" t="n">
-        <v>39.7823</v>
+        <v>10.2679</v>
       </c>
       <c r="D114" t="n">
-        <v>830.870614035088</v>
+        <v>3562.80087527352</v>
       </c>
       <c r="E114" t="n">
-        <v>830.870614035088</v>
+        <v>3562.80087527352</v>
       </c>
       <c r="F114" t="n">
-        <v>378877</v>
+        <v>1628200</v>
       </c>
     </row>
     <row r="115">
@@ -3464,19 +3463,19 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>58.5953</v>
+        <v>15.1794</v>
       </c>
       <c r="C115" t="n">
-        <v>25.0136</v>
+        <v>39.7823</v>
       </c>
       <c r="D115" t="n">
-        <v>19914.8969298246</v>
+        <v>836.92341356674</v>
       </c>
       <c r="E115" t="n">
-        <v>19914.8969298246</v>
+        <v>836.92341356674</v>
       </c>
       <c r="F115" t="n">
-        <v>9081193</v>
+        <v>382474</v>
       </c>
     </row>
     <row r="116">
@@ -3484,19 +3483,19 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>-26.5225</v>
+        <v>58.5953</v>
       </c>
       <c r="C116" t="n">
-        <v>31.4659</v>
+        <v>25.0136</v>
       </c>
       <c r="D116" t="n">
-        <v>5917.40789473684</v>
+        <v>20132.1903719912</v>
       </c>
       <c r="E116" t="n">
-        <v>5917.40789473684</v>
+        <v>20132.1903719912</v>
       </c>
       <c r="F116" t="n">
-        <v>2698338</v>
+        <v>9200411</v>
       </c>
     </row>
     <row r="117">
@@ -3504,19 +3503,19 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>9.145</v>
+        <v>-26.5225</v>
       </c>
       <c r="C117" t="n">
-        <v>40.4897</v>
+        <v>31.4659</v>
       </c>
       <c r="D117" t="n">
-        <v>68897.8684210526</v>
+        <v>5944.77899343545</v>
       </c>
       <c r="E117" t="n">
-        <v>68897.8684210526</v>
+        <v>5944.77899343545</v>
       </c>
       <c r="F117" t="n">
-        <v>31417428</v>
+        <v>2716764</v>
       </c>
     </row>
     <row r="118">
@@ -3524,19 +3523,19 @@
         <v>122</v>
       </c>
       <c r="B118" t="n">
-        <v>-17.7134</v>
+        <v>9.145</v>
       </c>
       <c r="C118" t="n">
-        <v>178.065</v>
+        <v>40.4897</v>
       </c>
       <c r="D118" t="n">
-        <v>31.5087719298246</v>
+        <v>69289.7527352298</v>
       </c>
       <c r="E118" t="n">
-        <v>31.5087719298246</v>
+        <v>69289.7527352298</v>
       </c>
       <c r="F118" t="n">
-        <v>14368</v>
+        <v>31665417</v>
       </c>
     </row>
     <row r="119">
@@ -3544,19 +3543,19 @@
         <v>123</v>
       </c>
       <c r="B119" t="n">
-        <v>61.92411</v>
+        <v>-17.7134</v>
       </c>
       <c r="C119" t="n">
-        <v>25.748151</v>
+        <v>178.065</v>
       </c>
       <c r="D119" t="n">
-        <v>21325.4802631579</v>
+        <v>31.6280087527352</v>
       </c>
       <c r="E119" t="n">
-        <v>21325.4802631579</v>
+        <v>31.6280087527352</v>
       </c>
       <c r="F119" t="n">
-        <v>9724419</v>
+        <v>14454</v>
       </c>
     </row>
     <row r="120">
@@ -3564,19 +3563,19 @@
         <v>124</v>
       </c>
       <c r="B120" t="n">
-        <v>3.9339</v>
+        <v>61.92411</v>
       </c>
       <c r="C120" t="n">
-        <v>-53.1258</v>
+        <v>25.748151</v>
       </c>
       <c r="D120" t="n">
-        <v>7957.66885964912</v>
+        <v>21464.9803063457</v>
       </c>
       <c r="E120" t="n">
-        <v>7957.66885964912</v>
+        <v>21464.9803063457</v>
       </c>
       <c r="F120" t="n">
-        <v>3628697</v>
+        <v>9809496</v>
       </c>
     </row>
     <row r="121">
@@ -3584,19 +3583,19 @@
         <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>-17.6797</v>
+        <v>3.9339</v>
       </c>
       <c r="C121" t="n">
-        <v>149.4068</v>
+        <v>-53.1258</v>
       </c>
       <c r="D121" t="n">
-        <v>6678.08114035088</v>
+        <v>7980.21444201313</v>
       </c>
       <c r="E121" t="n">
-        <v>6678.08114035088</v>
+        <v>7980.21444201313</v>
       </c>
       <c r="F121" t="n">
-        <v>3045205</v>
+        <v>3646958</v>
       </c>
     </row>
     <row r="122">
@@ -3604,19 +3603,19 @@
         <v>126</v>
       </c>
       <c r="B122" t="n">
-        <v>16.265</v>
+        <v>-17.6797</v>
       </c>
       <c r="C122" t="n">
-        <v>-61.551</v>
+        <v>149.4068</v>
       </c>
       <c r="D122" t="n">
-        <v>4329.34429824561</v>
+        <v>6704.4420131291</v>
       </c>
       <c r="E122" t="n">
-        <v>4329.34429824561</v>
+        <v>6704.4420131291</v>
       </c>
       <c r="F122" t="n">
-        <v>1974181</v>
+        <v>3063930</v>
       </c>
     </row>
     <row r="123">
@@ -3624,19 +3623,19 @@
         <v>127</v>
       </c>
       <c r="B123" t="n">
-        <v>14.6415</v>
+        <v>16.265</v>
       </c>
       <c r="C123" t="n">
-        <v>-61.0242</v>
+        <v>-61.551</v>
       </c>
       <c r="D123" t="n">
-        <v>2705.81359649123</v>
+        <v>4348.15754923414</v>
       </c>
       <c r="E123" t="n">
-        <v>2705.81359649123</v>
+        <v>4348.15754923414</v>
       </c>
       <c r="F123" t="n">
-        <v>1233851</v>
+        <v>1987108</v>
       </c>
     </row>
     <row r="124">
@@ -3644,19 +3643,19 @@
         <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>-12.8275</v>
+        <v>14.6415</v>
       </c>
       <c r="C124" t="n">
-        <v>45.166244</v>
+        <v>-61.0242</v>
       </c>
       <c r="D124" t="n">
-        <v>5298.19298245614</v>
+        <v>2721.24507658643</v>
       </c>
       <c r="E124" t="n">
-        <v>5298.19298245614</v>
+        <v>2721.24507658643</v>
       </c>
       <c r="F124" t="n">
-        <v>2415976</v>
+        <v>1243609</v>
       </c>
     </row>
     <row r="125">
@@ -3664,19 +3663,19 @@
         <v>129</v>
       </c>
       <c r="B125" t="n">
-        <v>-20.904305</v>
+        <v>-12.8275</v>
       </c>
       <c r="C125" t="n">
-        <v>165.618042</v>
+        <v>45.166244</v>
       </c>
       <c r="D125" t="n">
-        <v>33.1622807017544</v>
+        <v>5330.03282275711</v>
       </c>
       <c r="E125" t="n">
-        <v>33.1622807017544</v>
+        <v>5330.03282275711</v>
       </c>
       <c r="F125" t="n">
-        <v>15122</v>
+        <v>2435825</v>
       </c>
     </row>
     <row r="126">
@@ -3684,19 +3683,19 @@
         <v>130</v>
       </c>
       <c r="B126" t="n">
-        <v>-21.1151</v>
+        <v>-20.904305</v>
       </c>
       <c r="C126" t="n">
-        <v>55.5364</v>
+        <v>165.618042</v>
       </c>
       <c r="D126" t="n">
-        <v>4861.75657894737</v>
+        <v>33.3610503282276</v>
       </c>
       <c r="E126" t="n">
-        <v>4861.75657894737</v>
+        <v>33.3610503282276</v>
       </c>
       <c r="F126" t="n">
-        <v>2216961</v>
+        <v>15246</v>
       </c>
     </row>
     <row r="127">
@@ -3704,19 +3703,19 @@
         <v>131</v>
       </c>
       <c r="B127" t="n">
-        <v>17.9</v>
+        <v>-21.1151</v>
       </c>
       <c r="C127" t="n">
-        <v>-62.8333</v>
+        <v>55.5364</v>
       </c>
       <c r="D127" t="n">
-        <v>162.010964912281</v>
+        <v>4893.44420131291</v>
       </c>
       <c r="E127" t="n">
-        <v>162.010964912281</v>
+        <v>4893.44420131291</v>
       </c>
       <c r="F127" t="n">
-        <v>73877</v>
+        <v>2236304</v>
       </c>
     </row>
     <row r="128">
@@ -3724,19 +3723,19 @@
         <v>132</v>
       </c>
       <c r="B128" t="n">
-        <v>46.8852</v>
+        <v>17.9</v>
       </c>
       <c r="C128" t="n">
-        <v>-56.3159</v>
+        <v>-62.8333</v>
       </c>
       <c r="D128" t="n">
-        <v>9.94956140350877</v>
+        <v>163.752735229759</v>
       </c>
       <c r="E128" t="n">
-        <v>9.94956140350877</v>
+        <v>163.752735229759</v>
       </c>
       <c r="F128" t="n">
-        <v>4537</v>
+        <v>74835</v>
       </c>
     </row>
     <row r="129">
@@ -3744,19 +3743,19 @@
         <v>133</v>
       </c>
       <c r="B129" t="n">
-        <v>18.0708</v>
+        <v>46.8852</v>
       </c>
       <c r="C129" t="n">
-        <v>-63.0501</v>
+        <v>-56.3159</v>
       </c>
       <c r="D129" t="n">
-        <v>519.458333333333</v>
+        <v>9.98249452954048</v>
       </c>
       <c r="E129" t="n">
-        <v>519.458333333333</v>
+        <v>9.98249452954048</v>
       </c>
       <c r="F129" t="n">
-        <v>236873</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="130">
@@ -3764,19 +3763,19 @@
         <v>134</v>
       </c>
       <c r="B130" t="n">
-        <v>-14.2938</v>
+        <v>18.0708</v>
       </c>
       <c r="C130" t="n">
-        <v>-178.1165</v>
+        <v>-63.0501</v>
       </c>
       <c r="D130" t="n">
-        <v>34.2390350877193</v>
+        <v>522.08533916849</v>
       </c>
       <c r="E130" t="n">
-        <v>34.2390350877193</v>
+        <v>522.08533916849</v>
       </c>
       <c r="F130" t="n">
-        <v>15613</v>
+        <v>238593</v>
       </c>
     </row>
     <row r="131">
@@ -3784,19 +3783,19 @@
         <v>135</v>
       </c>
       <c r="B131" t="n">
-        <v>46.2276</v>
+        <v>-14.2938</v>
       </c>
       <c r="C131" t="n">
-        <v>2.2137</v>
+        <v>-178.1165</v>
       </c>
       <c r="D131" t="n">
-        <v>1364454.85964912</v>
+        <v>35.1269146608315</v>
       </c>
       <c r="E131" t="n">
-        <v>1364454.85964912</v>
+        <v>35.1269146608315</v>
       </c>
       <c r="F131" t="n">
-        <v>622191416</v>
+        <v>16053</v>
       </c>
     </row>
     <row r="132">
@@ -3804,19 +3803,19 @@
         <v>136</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.8037</v>
+        <v>46.2276</v>
       </c>
       <c r="C132" t="n">
-        <v>11.6094</v>
+        <v>2.2137</v>
       </c>
       <c r="D132" t="n">
-        <v>7336.85087719298</v>
+        <v>1373214.35448578</v>
       </c>
       <c r="E132" t="n">
-        <v>7336.85087719298</v>
+        <v>1373214.35448578</v>
       </c>
       <c r="F132" t="n">
-        <v>3345604</v>
+        <v>627558960</v>
       </c>
     </row>
     <row r="133">
@@ -3824,19 +3823,19 @@
         <v>137</v>
       </c>
       <c r="B133" t="n">
-        <v>13.4432</v>
+        <v>-0.8037</v>
       </c>
       <c r="C133" t="n">
-        <v>-15.3101</v>
+        <v>11.6094</v>
       </c>
       <c r="D133" t="n">
-        <v>2248.85964912281</v>
+        <v>7369.43544857768</v>
       </c>
       <c r="E133" t="n">
-        <v>2248.85964912281</v>
+        <v>7369.43544857768</v>
       </c>
       <c r="F133" t="n">
-        <v>1025480</v>
+        <v>3367832</v>
       </c>
     </row>
     <row r="134">
@@ -3844,19 +3843,19 @@
         <v>138</v>
       </c>
       <c r="B134" t="n">
-        <v>42.3154</v>
+        <v>13.4432</v>
       </c>
       <c r="C134" t="n">
-        <v>43.3569</v>
+        <v>-15.3101</v>
       </c>
       <c r="D134" t="n">
-        <v>85353.1315789474</v>
+        <v>2256.67396061269</v>
       </c>
       <c r="E134" t="n">
-        <v>85353.1315789474</v>
+        <v>2256.67396061269</v>
       </c>
       <c r="F134" t="n">
-        <v>38921028</v>
+        <v>1031300</v>
       </c>
     </row>
     <row r="135">
@@ -3864,19 +3863,19 @@
         <v>139</v>
       </c>
       <c r="B135" t="n">
-        <v>51.165691</v>
+        <v>42.3154</v>
       </c>
       <c r="C135" t="n">
-        <v>10.451526</v>
+        <v>43.3569</v>
       </c>
       <c r="D135" t="n">
-        <v>856065.442982456</v>
+        <v>85823.3960612691</v>
       </c>
       <c r="E135" t="n">
-        <v>856065.442982456</v>
+        <v>85823.3960612691</v>
       </c>
       <c r="F135" t="n">
-        <v>390365842</v>
+        <v>39221292</v>
       </c>
     </row>
     <row r="136">
@@ -3884,19 +3883,19 @@
         <v>140</v>
       </c>
       <c r="B136" t="n">
-        <v>7.9465</v>
+        <v>51.165691</v>
       </c>
       <c r="C136" t="n">
-        <v>-1.0232</v>
+        <v>10.451526</v>
       </c>
       <c r="D136" t="n">
-        <v>37830.4451754386</v>
+        <v>861313.897155361</v>
       </c>
       <c r="E136" t="n">
-        <v>37830.4451754386</v>
+        <v>861313.897155361</v>
       </c>
       <c r="F136" t="n">
-        <v>17250683</v>
+        <v>393620451</v>
       </c>
     </row>
     <row r="137">
@@ -3904,19 +3903,19 @@
         <v>141</v>
       </c>
       <c r="B137" t="n">
-        <v>39.0742</v>
+        <v>7.9465</v>
       </c>
       <c r="C137" t="n">
-        <v>21.8243</v>
+        <v>-1.0232</v>
       </c>
       <c r="D137" t="n">
-        <v>67175.524122807</v>
+        <v>37948.8205689278</v>
       </c>
       <c r="E137" t="n">
-        <v>67175.524122807</v>
+        <v>37948.8205689278</v>
       </c>
       <c r="F137" t="n">
-        <v>30632039</v>
+        <v>17342611</v>
       </c>
     </row>
     <row r="138">
@@ -3924,19 +3923,19 @@
         <v>142</v>
       </c>
       <c r="B138" t="n">
-        <v>12.1165</v>
+        <v>39.0742</v>
       </c>
       <c r="C138" t="n">
-        <v>-61.679</v>
+        <v>21.8243</v>
       </c>
       <c r="D138" t="n">
-        <v>54.0504385964912</v>
+        <v>67742.7439824945</v>
       </c>
       <c r="E138" t="n">
-        <v>54.0504385964912</v>
+        <v>67742.7439824945</v>
       </c>
       <c r="F138" t="n">
-        <v>24647</v>
+        <v>30958434</v>
       </c>
     </row>
     <row r="139">
@@ -3944,19 +3943,19 @@
         <v>143</v>
       </c>
       <c r="B139" t="n">
-        <v>15.7835</v>
+        <v>12.1165</v>
       </c>
       <c r="C139" t="n">
-        <v>-90.2308</v>
+        <v>-61.679</v>
       </c>
       <c r="D139" t="n">
-        <v>78502.3442982456</v>
+        <v>54.2800875273523</v>
       </c>
       <c r="E139" t="n">
-        <v>78502.3442982456</v>
+        <v>54.2800875273523</v>
       </c>
       <c r="F139" t="n">
-        <v>35797069</v>
+        <v>24806</v>
       </c>
     </row>
     <row r="140">
@@ -3964,19 +3963,19 @@
         <v>144</v>
       </c>
       <c r="B140" t="n">
-        <v>9.9456</v>
+        <v>15.7835</v>
       </c>
       <c r="C140" t="n">
-        <v>-9.6966</v>
+        <v>-90.2308</v>
       </c>
       <c r="D140" t="n">
-        <v>8778.12719298246</v>
+        <v>78807.9080962801</v>
       </c>
       <c r="E140" t="n">
-        <v>8778.12719298246</v>
+        <v>78807.9080962801</v>
       </c>
       <c r="F140" t="n">
-        <v>4002826</v>
+        <v>36015214</v>
       </c>
     </row>
     <row r="141">
@@ -3984,19 +3983,19 @@
         <v>145</v>
       </c>
       <c r="B141" t="n">
-        <v>11.8037</v>
+        <v>9.9456</v>
       </c>
       <c r="C141" t="n">
-        <v>-15.1804</v>
+        <v>-9.6966</v>
       </c>
       <c r="D141" t="n">
-        <v>1823.54605263158</v>
+        <v>8806.5010940919</v>
       </c>
       <c r="E141" t="n">
-        <v>1823.54605263158</v>
+        <v>8806.5010940919</v>
       </c>
       <c r="F141" t="n">
-        <v>831537</v>
+        <v>4024571</v>
       </c>
     </row>
     <row r="142">
@@ -4004,19 +4003,19 @@
         <v>146</v>
       </c>
       <c r="B142" t="n">
-        <v>4.860416</v>
+        <v>11.8037</v>
       </c>
       <c r="C142" t="n">
-        <v>-58.93018</v>
+        <v>-15.1804</v>
       </c>
       <c r="D142" t="n">
-        <v>3323.96929824561</v>
+        <v>1827.69803063457</v>
       </c>
       <c r="E142" t="n">
-        <v>3323.96929824561</v>
+        <v>1827.69803063457</v>
       </c>
       <c r="F142" t="n">
-        <v>1515730</v>
+        <v>835258</v>
       </c>
     </row>
     <row r="143">
@@ -4024,19 +4023,19 @@
         <v>147</v>
       </c>
       <c r="B143" t="n">
-        <v>18.9712</v>
+        <v>4.860416</v>
       </c>
       <c r="C143" t="n">
-        <v>-72.2852</v>
+        <v>-58.93018</v>
       </c>
       <c r="D143" t="n">
-        <v>6635.35964912281</v>
+        <v>3343.46608315098</v>
       </c>
       <c r="E143" t="n">
-        <v>6635.35964912281</v>
+        <v>3343.46608315098</v>
       </c>
       <c r="F143" t="n">
-        <v>3025724</v>
+        <v>1527964</v>
       </c>
     </row>
     <row r="144">
@@ -4044,19 +4043,19 @@
         <v>148</v>
       </c>
       <c r="B144" t="n">
-        <v>41.9029</v>
+        <v>18.9712</v>
       </c>
       <c r="C144" t="n">
-        <v>12.4534</v>
+        <v>-72.2852</v>
       </c>
       <c r="D144" t="n">
-        <v>16.2850877192982</v>
+        <v>6649.16411378556</v>
       </c>
       <c r="E144" t="n">
-        <v>16.2850877192982</v>
+        <v>6649.16411378556</v>
       </c>
       <c r="F144" t="n">
-        <v>7426</v>
+        <v>3038668</v>
       </c>
     </row>
     <row r="145">
@@ -4064,19 +4063,19 @@
         <v>149</v>
       </c>
       <c r="B145" t="n">
-        <v>15.2</v>
+        <v>41.9029</v>
       </c>
       <c r="C145" t="n">
-        <v>-86.2419</v>
+        <v>12.4534</v>
       </c>
       <c r="D145" t="n">
-        <v>71784.7127192982</v>
+        <v>16.308533916849</v>
       </c>
       <c r="E145" t="n">
-        <v>71784.7127192982</v>
+        <v>16.308533916849</v>
       </c>
       <c r="F145" t="n">
-        <v>32733829</v>
+        <v>7453</v>
       </c>
     </row>
     <row r="146">
@@ -4084,19 +4083,19 @@
         <v>150</v>
       </c>
       <c r="B146" t="n">
-        <v>47.1625</v>
+        <v>15.2</v>
       </c>
       <c r="C146" t="n">
-        <v>19.5033</v>
+        <v>-86.2419</v>
       </c>
       <c r="D146" t="n">
-        <v>151099.285087719</v>
+        <v>72075.8358862144</v>
       </c>
       <c r="E146" t="n">
-        <v>151099.285087719</v>
+        <v>72075.8358862144</v>
       </c>
       <c r="F146" t="n">
-        <v>68901274</v>
+        <v>32938657</v>
       </c>
     </row>
     <row r="147">
@@ -4104,19 +4103,19 @@
         <v>151</v>
       </c>
       <c r="B147" t="n">
-        <v>64.9631</v>
+        <v>47.1625</v>
       </c>
       <c r="C147" t="n">
-        <v>-19.0208</v>
+        <v>19.5033</v>
       </c>
       <c r="D147" t="n">
-        <v>3248.08114035088</v>
+        <v>152433.787746171</v>
       </c>
       <c r="E147" t="n">
-        <v>3248.08114035088</v>
+        <v>152433.787746171</v>
       </c>
       <c r="F147" t="n">
-        <v>1481125</v>
+        <v>69662241</v>
       </c>
     </row>
     <row r="148">
@@ -4124,19 +4123,19 @@
         <v>152</v>
       </c>
       <c r="B148" t="n">
-        <v>20.593684</v>
+        <v>64.9631</v>
       </c>
       <c r="C148" t="n">
-        <v>78.96288</v>
+        <v>-19.0208</v>
       </c>
       <c r="D148" t="n">
-        <v>5182355.30701754</v>
+        <v>3254.93216630197</v>
       </c>
       <c r="E148" t="n">
-        <v>5182355.30701754</v>
+        <v>3254.93216630197</v>
       </c>
       <c r="F148" t="n">
-        <v>2363154020</v>
+        <v>1487504</v>
       </c>
     </row>
     <row r="149">
@@ -4144,19 +4143,19 @@
         <v>153</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.7893</v>
+        <v>20.593684</v>
       </c>
       <c r="C149" t="n">
-        <v>113.9213</v>
+        <v>78.96288</v>
       </c>
       <c r="D149" t="n">
-        <v>438445.390350877</v>
+        <v>5206603.31509847</v>
       </c>
       <c r="E149" t="n">
-        <v>438445.390350877</v>
+        <v>5206603.31509847</v>
       </c>
       <c r="F149" t="n">
-        <v>199931098</v>
+        <v>2379417715</v>
       </c>
     </row>
     <row r="150">
@@ -4164,19 +4163,19 @@
         <v>154</v>
       </c>
       <c r="B150" t="n">
-        <v>32.427908</v>
+        <v>-0.7893</v>
       </c>
       <c r="C150" t="n">
-        <v>53.688046</v>
+        <v>113.9213</v>
       </c>
       <c r="D150" t="n">
-        <v>657871.813596491</v>
+        <v>441045.754923414</v>
       </c>
       <c r="E150" t="n">
-        <v>657871.813596491</v>
+        <v>441045.754923414</v>
       </c>
       <c r="F150" t="n">
-        <v>299989547</v>
+        <v>201557910</v>
       </c>
     </row>
     <row r="151">
@@ -4184,19 +4183,19 @@
         <v>155</v>
       </c>
       <c r="B151" t="n">
-        <v>33.223191</v>
+        <v>32.427908</v>
       </c>
       <c r="C151" t="n">
-        <v>43.679291</v>
+        <v>53.688046</v>
       </c>
       <c r="D151" t="n">
-        <v>318064.407894737</v>
+        <v>661543.658643326</v>
       </c>
       <c r="E151" t="n">
-        <v>318064.407894737</v>
+        <v>661543.658643326</v>
       </c>
       <c r="F151" t="n">
-        <v>145037370</v>
+        <v>302325452</v>
       </c>
     </row>
     <row r="152">
@@ -4204,19 +4203,19 @@
         <v>156</v>
       </c>
       <c r="B152" t="n">
-        <v>53.1424</v>
+        <v>33.223191</v>
       </c>
       <c r="C152" t="n">
-        <v>-7.6921</v>
+        <v>43.679291</v>
       </c>
       <c r="D152" t="n">
-        <v>73240.5043859649</v>
+        <v>319579.15536105</v>
       </c>
       <c r="E152" t="n">
-        <v>73240.5043859649</v>
+        <v>319579.15536105</v>
       </c>
       <c r="F152" t="n">
-        <v>33397670</v>
+        <v>146047674</v>
       </c>
     </row>
     <row r="153">
@@ -4224,19 +4223,19 @@
         <v>157</v>
       </c>
       <c r="B153" t="n">
-        <v>31.046051</v>
+        <v>53.1424</v>
       </c>
       <c r="C153" t="n">
-        <v>34.851612</v>
+        <v>-7.6921</v>
       </c>
       <c r="D153" t="n">
-        <v>266194.453947368</v>
+        <v>73617.0240700219</v>
       </c>
       <c r="E153" t="n">
-        <v>266194.453947368</v>
+        <v>73617.0240700219</v>
       </c>
       <c r="F153" t="n">
-        <v>121384671</v>
+        <v>33642980</v>
       </c>
     </row>
     <row r="154">
@@ -4244,19 +4243,19 @@
         <v>158</v>
       </c>
       <c r="B154" t="n">
-        <v>41.87194</v>
+        <v>31.046051</v>
       </c>
       <c r="C154" t="n">
-        <v>12.56738</v>
+        <v>34.851612</v>
       </c>
       <c r="D154" t="n">
-        <v>1054521.97368421</v>
+        <v>267445.24726477</v>
       </c>
       <c r="E154" t="n">
-        <v>1054521.97368421</v>
+        <v>267445.24726477</v>
       </c>
       <c r="F154" t="n">
-        <v>480862020</v>
+        <v>122222478</v>
       </c>
     </row>
     <row r="155">
@@ -4264,19 +4263,19 @@
         <v>159</v>
       </c>
       <c r="B155" t="n">
-        <v>18.1096</v>
+        <v>41.87194</v>
       </c>
       <c r="C155" t="n">
-        <v>-77.2975</v>
+        <v>12.56738</v>
       </c>
       <c r="D155" t="n">
-        <v>8774.23245614035</v>
+        <v>1060794.23413567</v>
       </c>
       <c r="E155" t="n">
-        <v>8774.23245614035</v>
+        <v>1060794.23413567</v>
       </c>
       <c r="F155" t="n">
-        <v>4001050</v>
+        <v>484782965</v>
       </c>
     </row>
     <row r="156">
@@ -4284,19 +4283,19 @@
         <v>160</v>
       </c>
       <c r="B156" t="n">
-        <v>36.204824</v>
+        <v>18.1096</v>
       </c>
       <c r="C156" t="n">
-        <v>138.252924</v>
+        <v>-77.2975</v>
       </c>
       <c r="D156" t="n">
-        <v>141803.721491228</v>
+        <v>8852.4113785558</v>
       </c>
       <c r="E156" t="n">
-        <v>141803.721491228</v>
+        <v>8852.4113785558</v>
       </c>
       <c r="F156" t="n">
-        <v>64662497</v>
+        <v>4045552</v>
       </c>
     </row>
     <row r="157">
@@ -4304,19 +4303,19 @@
         <v>161</v>
       </c>
       <c r="B157" t="n">
-        <v>31.24</v>
+        <v>36.204824</v>
       </c>
       <c r="C157" t="n">
-        <v>36.51</v>
+        <v>138.252924</v>
       </c>
       <c r="D157" t="n">
-        <v>138200.177631579</v>
+        <v>142704.286652079</v>
       </c>
       <c r="E157" t="n">
-        <v>138200.177631579</v>
+        <v>142704.286652079</v>
       </c>
       <c r="F157" t="n">
-        <v>63019281</v>
+        <v>65215859</v>
       </c>
     </row>
     <row r="158">
@@ -4324,19 +4323,19 @@
         <v>162</v>
       </c>
       <c r="B158" t="n">
-        <v>48.0196</v>
+        <v>31.24</v>
       </c>
       <c r="C158" t="n">
-        <v>66.9237</v>
+        <v>36.51</v>
       </c>
       <c r="D158" t="n">
-        <v>120319.603070175</v>
+        <v>139424</v>
       </c>
       <c r="E158" t="n">
-        <v>120319.603070175</v>
+        <v>139424</v>
       </c>
       <c r="F158" t="n">
-        <v>54865739</v>
+        <v>63716768</v>
       </c>
     </row>
     <row r="159">
@@ -4344,19 +4343,19 @@
         <v>163</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.0236</v>
+        <v>48.0196</v>
       </c>
       <c r="C159" t="n">
-        <v>37.9062</v>
+        <v>66.9237</v>
       </c>
       <c r="D159" t="n">
-        <v>47196.4473684211</v>
+        <v>120828.72428884</v>
       </c>
       <c r="E159" t="n">
-        <v>47196.4473684211</v>
+        <v>120828.72428884</v>
       </c>
       <c r="F159" t="n">
-        <v>21521580</v>
+        <v>55218727</v>
       </c>
     </row>
     <row r="160">
@@ -4364,19 +4363,19 @@
         <v>164</v>
       </c>
       <c r="B160" t="n">
-        <v>35.907757</v>
+        <v>-0.0236</v>
       </c>
       <c r="C160" t="n">
-        <v>127.766922</v>
+        <v>37.9062</v>
       </c>
       <c r="D160" t="n">
-        <v>34908.2521929825</v>
+        <v>47431.010940919</v>
       </c>
       <c r="E160" t="n">
-        <v>34908.2521929825</v>
+        <v>47431.010940919</v>
       </c>
       <c r="F160" t="n">
-        <v>15918163</v>
+        <v>21675972</v>
       </c>
     </row>
     <row r="161">
@@ -4384,19 +4383,19 @@
         <v>165</v>
       </c>
       <c r="B161" t="n">
-        <v>42.602636</v>
+        <v>35.907757</v>
       </c>
       <c r="C161" t="n">
-        <v>20.902977</v>
+        <v>127.766922</v>
       </c>
       <c r="D161" t="n">
-        <v>26057.9934210526</v>
+        <v>35088.886214442</v>
       </c>
       <c r="E161" t="n">
-        <v>26057.9934210526</v>
+        <v>35088.886214442</v>
       </c>
       <c r="F161" t="n">
-        <v>11882445</v>
+        <v>16035621</v>
       </c>
     </row>
     <row r="162">
@@ -4404,19 +4403,19 @@
         <v>166</v>
       </c>
       <c r="B162" t="n">
-        <v>29.31166</v>
+        <v>42.602636</v>
       </c>
       <c r="C162" t="n">
-        <v>47.481766</v>
+        <v>20.902977</v>
       </c>
       <c r="D162" t="n">
-        <v>93173.0175438596</v>
+        <v>26225.7439824945</v>
       </c>
       <c r="E162" t="n">
-        <v>93173.0175438596</v>
+        <v>26225.7439824945</v>
       </c>
       <c r="F162" t="n">
-        <v>42486896</v>
+        <v>11985165</v>
       </c>
     </row>
     <row r="163">
@@ -4424,19 +4423,19 @@
         <v>167</v>
       </c>
       <c r="B163" t="n">
-        <v>41.20438</v>
+        <v>29.31166</v>
       </c>
       <c r="C163" t="n">
-        <v>74.766098</v>
+        <v>47.481766</v>
       </c>
       <c r="D163" t="n">
-        <v>41540.2039473684</v>
+        <v>93544.1181619256</v>
       </c>
       <c r="E163" t="n">
-        <v>41540.2039473684</v>
+        <v>93544.1181619256</v>
       </c>
       <c r="F163" t="n">
-        <v>18942333</v>
+        <v>42749662</v>
       </c>
     </row>
     <row r="164">
@@ -4444,19 +4443,19 @@
         <v>168</v>
       </c>
       <c r="B164" t="n">
-        <v>19.85627</v>
+        <v>41.20438</v>
       </c>
       <c r="C164" t="n">
-        <v>102.495496</v>
+        <v>74.766098</v>
       </c>
       <c r="D164" t="n">
-        <v>25.5175438596491</v>
+        <v>41652.8205689278</v>
       </c>
       <c r="E164" t="n">
-        <v>25.5175438596491</v>
+        <v>41652.8205689278</v>
       </c>
       <c r="F164" t="n">
-        <v>11636</v>
+        <v>19035339</v>
       </c>
     </row>
     <row r="165">
@@ -4464,19 +4463,19 @@
         <v>169</v>
       </c>
       <c r="B165" t="n">
-        <v>56.8796</v>
+        <v>19.85627</v>
       </c>
       <c r="C165" t="n">
-        <v>24.6032</v>
+        <v>102.495496</v>
       </c>
       <c r="D165" t="n">
-        <v>23130.0877192982</v>
+        <v>25.6673960612691</v>
       </c>
       <c r="E165" t="n">
-        <v>23130.0877192982</v>
+        <v>25.6673960612691</v>
       </c>
       <c r="F165" t="n">
-        <v>10547320</v>
+        <v>11730</v>
       </c>
     </row>
     <row r="166">
@@ -4484,19 +4483,19 @@
         <v>170</v>
       </c>
       <c r="B166" t="n">
-        <v>33.8547</v>
+        <v>56.8796</v>
       </c>
       <c r="C166" t="n">
-        <v>35.8623</v>
+        <v>24.6032</v>
       </c>
       <c r="D166" t="n">
-        <v>113328.375</v>
+        <v>23327.9671772429</v>
       </c>
       <c r="E166" t="n">
-        <v>113328.375</v>
+        <v>23327.9671772429</v>
       </c>
       <c r="F166" t="n">
-        <v>51677739</v>
+        <v>10660881</v>
       </c>
     </row>
     <row r="167">
@@ -4504,19 +4503,19 @@
         <v>171</v>
       </c>
       <c r="B167" t="n">
-        <v>-29.61</v>
+        <v>33.8547</v>
       </c>
       <c r="C167" t="n">
-        <v>28.2336</v>
+        <v>35.8623</v>
       </c>
       <c r="D167" t="n">
-        <v>2841.90789473684</v>
+        <v>114210.807439825</v>
       </c>
       <c r="E167" t="n">
-        <v>2841.90789473684</v>
+        <v>114210.807439825</v>
       </c>
       <c r="F167" t="n">
-        <v>1295910</v>
+        <v>52194339</v>
       </c>
     </row>
     <row r="168">
@@ -4524,19 +4523,19 @@
         <v>172</v>
       </c>
       <c r="B168" t="n">
-        <v>6.428055</v>
+        <v>-29.61</v>
       </c>
       <c r="C168" t="n">
-        <v>-9.429499</v>
+        <v>28.2336</v>
       </c>
       <c r="D168" t="n">
-        <v>1087.12280701754</v>
+        <v>2859.15317286652</v>
       </c>
       <c r="E168" t="n">
-        <v>1087.12280701754</v>
+        <v>2859.15317286652</v>
       </c>
       <c r="F168" t="n">
-        <v>495728</v>
+        <v>1306633</v>
       </c>
     </row>
     <row r="169">
@@ -4544,19 +4543,19 @@
         <v>173</v>
       </c>
       <c r="B169" t="n">
-        <v>26.3351</v>
+        <v>6.428055</v>
       </c>
       <c r="C169" t="n">
-        <v>17.228331</v>
+        <v>-9.429499</v>
       </c>
       <c r="D169" t="n">
-        <v>49595.3442982456</v>
+        <v>1089.31947483589</v>
       </c>
       <c r="E169" t="n">
-        <v>49595.3442982456</v>
+        <v>1089.31947483589</v>
       </c>
       <c r="F169" t="n">
-        <v>22615477</v>
+        <v>497819</v>
       </c>
     </row>
     <row r="170">
@@ -4564,19 +4563,19 @@
         <v>174</v>
       </c>
       <c r="B170" t="n">
-        <v>47.14</v>
+        <v>26.3351</v>
       </c>
       <c r="C170" t="n">
-        <v>9.55</v>
+        <v>17.228331</v>
       </c>
       <c r="D170" t="n">
-        <v>851.392543859649</v>
+        <v>49868.0371991247</v>
       </c>
       <c r="E170" t="n">
-        <v>851.392543859649</v>
+        <v>49868.0371991247</v>
       </c>
       <c r="F170" t="n">
-        <v>388235</v>
+        <v>22789693</v>
       </c>
     </row>
     <row r="171">
@@ -4584,19 +4583,19 @@
         <v>175</v>
       </c>
       <c r="B171" t="n">
-        <v>55.1694</v>
+        <v>47.14</v>
       </c>
       <c r="C171" t="n">
-        <v>23.8813</v>
+        <v>9.55</v>
       </c>
       <c r="D171" t="n">
-        <v>58181.4276315789</v>
+        <v>855.768052516411</v>
       </c>
       <c r="E171" t="n">
-        <v>58181.4276315789</v>
+        <v>855.768052516411</v>
       </c>
       <c r="F171" t="n">
-        <v>26530731</v>
+        <v>391086</v>
       </c>
     </row>
     <row r="172">
@@ -4604,19 +4603,19 @@
         <v>176</v>
       </c>
       <c r="B172" t="n">
-        <v>49.8153</v>
+        <v>55.1694</v>
       </c>
       <c r="C172" t="n">
-        <v>6.1296</v>
+        <v>23.8813</v>
       </c>
       <c r="D172" t="n">
-        <v>20967.3135964912</v>
+        <v>58574.7943107221</v>
       </c>
       <c r="E172" t="n">
-        <v>20967.3135964912</v>
+        <v>58574.7943107221</v>
       </c>
       <c r="F172" t="n">
-        <v>9561095</v>
+        <v>26768681</v>
       </c>
     </row>
     <row r="173">
@@ -4624,19 +4623,19 @@
         <v>177</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>49.8153</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>6.1296</v>
       </c>
       <c r="D173" t="n">
-        <v>7.6359649122807</v>
+        <v>21065.4442013129</v>
       </c>
       <c r="E173" t="n">
-        <v>7.6359649122807</v>
+        <v>21065.4442013129</v>
       </c>
       <c r="F173" t="n">
-        <v>3482</v>
+        <v>9626908</v>
       </c>
     </row>
     <row r="174">
@@ -4644,19 +4643,19 @@
         <v>178</v>
       </c>
       <c r="B174" t="n">
-        <v>-18.766947</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>46.869107</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>11195.6820175439</v>
+        <v>7.63894967177243</v>
       </c>
       <c r="E174" t="n">
-        <v>11195.6820175439</v>
+        <v>7.63894967177243</v>
       </c>
       <c r="F174" t="n">
-        <v>5105231</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="175">
@@ -4664,19 +4663,19 @@
         <v>179</v>
       </c>
       <c r="B175" t="n">
-        <v>-13.2543</v>
+        <v>-18.766947</v>
       </c>
       <c r="C175" t="n">
-        <v>34.3015</v>
+        <v>46.869107</v>
       </c>
       <c r="D175" t="n">
-        <v>8633.23684210526</v>
+        <v>11245.7330415755</v>
       </c>
       <c r="E175" t="n">
-        <v>8633.23684210526</v>
+        <v>11245.7330415755</v>
       </c>
       <c r="F175" t="n">
-        <v>3936756</v>
+        <v>5139300</v>
       </c>
     </row>
     <row r="176">
@@ -4684,19 +4683,19 @@
         <v>180</v>
       </c>
       <c r="B176" t="n">
-        <v>4.210484</v>
+        <v>-13.2543</v>
       </c>
       <c r="C176" t="n">
-        <v>101.975766</v>
+        <v>34.3015</v>
       </c>
       <c r="D176" t="n">
-        <v>79555.3114035088</v>
+        <v>8688.71991247265</v>
       </c>
       <c r="E176" t="n">
-        <v>79555.3114035088</v>
+        <v>8688.71991247265</v>
       </c>
       <c r="F176" t="n">
-        <v>36277222</v>
+        <v>3970745</v>
       </c>
     </row>
     <row r="177">
@@ -4704,19 +4703,19 @@
         <v>181</v>
       </c>
       <c r="B177" t="n">
-        <v>3.2028</v>
+        <v>4.210484</v>
       </c>
       <c r="C177" t="n">
-        <v>73.2207</v>
+        <v>101.975766</v>
       </c>
       <c r="D177" t="n">
-        <v>8657.46052631579</v>
+        <v>80222.9978118162</v>
       </c>
       <c r="E177" t="n">
-        <v>8657.46052631579</v>
+        <v>80222.9978118162</v>
       </c>
       <c r="F177" t="n">
-        <v>3947802</v>
+        <v>36661910</v>
       </c>
     </row>
     <row r="178">
@@ -4724,19 +4723,19 @@
         <v>182</v>
       </c>
       <c r="B178" t="n">
-        <v>17.570692</v>
+        <v>3.2028</v>
       </c>
       <c r="C178" t="n">
-        <v>-3.996166</v>
+        <v>73.2207</v>
       </c>
       <c r="D178" t="n">
-        <v>3816.74342105263</v>
+        <v>8697.78118161926</v>
       </c>
       <c r="E178" t="n">
-        <v>3816.74342105263</v>
+        <v>8697.78118161926</v>
       </c>
       <c r="F178" t="n">
-        <v>1740435</v>
+        <v>3974886</v>
       </c>
     </row>
     <row r="179">
@@ -4744,19 +4743,19 @@
         <v>183</v>
       </c>
       <c r="B179" t="n">
-        <v>35.9375</v>
+        <v>17.570692</v>
       </c>
       <c r="C179" t="n">
-        <v>14.3754</v>
+        <v>-3.996166</v>
       </c>
       <c r="D179" t="n">
-        <v>7458.46710526316</v>
+        <v>3837.75711159737</v>
       </c>
       <c r="E179" t="n">
-        <v>7458.46710526316</v>
+        <v>3837.75711159737</v>
       </c>
       <c r="F179" t="n">
-        <v>3401061</v>
+        <v>1753855</v>
       </c>
     </row>
     <row r="180">
@@ -4764,19 +4763,19 @@
         <v>184</v>
       </c>
       <c r="B180" t="n">
-        <v>7.1315</v>
+        <v>35.9375</v>
       </c>
       <c r="C180" t="n">
-        <v>171.1845</v>
+        <v>14.3754</v>
       </c>
       <c r="D180" t="n">
-        <v>1.42982456140351</v>
+        <v>7508.00218818381</v>
       </c>
       <c r="E180" t="n">
-        <v>1.42982456140351</v>
+        <v>7508.00218818381</v>
       </c>
       <c r="F180" t="n">
-        <v>652</v>
+        <v>3431157</v>
       </c>
     </row>
     <row r="181">
@@ -4784,19 +4783,19 @@
         <v>185</v>
       </c>
       <c r="B181" t="n">
-        <v>21.0079</v>
+        <v>7.1315</v>
       </c>
       <c r="C181" t="n">
-        <v>-10.9408</v>
+        <v>171.1845</v>
       </c>
       <c r="D181" t="n">
-        <v>7440.92324561404</v>
+        <v>1.43544857768053</v>
       </c>
       <c r="E181" t="n">
-        <v>7440.92324561404</v>
+        <v>1.43544857768053</v>
       </c>
       <c r="F181" t="n">
-        <v>3393061</v>
+        <v>656</v>
       </c>
     </row>
     <row r="182">
@@ -4804,19 +4803,19 @@
         <v>186</v>
       </c>
       <c r="B182" t="n">
-        <v>-20.348404</v>
+        <v>21.0079</v>
       </c>
       <c r="C182" t="n">
-        <v>57.552152</v>
+        <v>-10.9408</v>
       </c>
       <c r="D182" t="n">
-        <v>411.280701754386</v>
+        <v>7464.44857768052</v>
       </c>
       <c r="E182" t="n">
-        <v>411.280701754386</v>
+        <v>7464.44857768052</v>
       </c>
       <c r="F182" t="n">
-        <v>187544</v>
+        <v>3411253</v>
       </c>
     </row>
     <row r="183">
@@ -4824,19 +4823,19 @@
         <v>187</v>
       </c>
       <c r="B183" t="n">
-        <v>23.6345</v>
+        <v>-20.348404</v>
       </c>
       <c r="C183" t="n">
-        <v>-102.5528</v>
+        <v>57.552152</v>
       </c>
       <c r="D183" t="n">
-        <v>812512.432017544</v>
+        <v>413.01750547046</v>
       </c>
       <c r="E183" t="n">
-        <v>812512.432017544</v>
+        <v>413.01750547046</v>
       </c>
       <c r="F183" t="n">
-        <v>370505669</v>
+        <v>188749</v>
       </c>
     </row>
     <row r="184">
@@ -4844,19 +4843,19 @@
         <v>188</v>
       </c>
       <c r="B184" t="n">
-        <v>7.4256</v>
+        <v>23.6345</v>
       </c>
       <c r="C184" t="n">
-        <v>150.5508</v>
+        <v>-102.5528</v>
       </c>
       <c r="D184" t="n">
-        <v>0.199561403508772</v>
+        <v>815810.207877462</v>
       </c>
       <c r="E184" t="n">
-        <v>0.199561403508772</v>
+        <v>815810.207877462</v>
       </c>
       <c r="F184" t="n">
-        <v>91</v>
+        <v>372825265</v>
       </c>
     </row>
     <row r="185">
@@ -4864,19 +4863,19 @@
         <v>189</v>
       </c>
       <c r="B185" t="n">
-        <v>47.4116</v>
+        <v>7.4256</v>
       </c>
       <c r="C185" t="n">
-        <v>28.3699</v>
+        <v>150.5508</v>
       </c>
       <c r="D185" t="n">
-        <v>73052.8004385965</v>
+        <v>0.201312910284464</v>
       </c>
       <c r="E185" t="n">
-        <v>73052.8004385965</v>
+        <v>0.201312910284464</v>
       </c>
       <c r="F185" t="n">
-        <v>33312077</v>
+        <v>92</v>
       </c>
     </row>
     <row r="186">
@@ -4884,19 +4883,19 @@
         <v>190</v>
       </c>
       <c r="B186" t="n">
-        <v>43.7333</v>
+        <v>47.4116</v>
       </c>
       <c r="C186" t="n">
-        <v>7.4167</v>
+        <v>28.3699</v>
       </c>
       <c r="D186" t="n">
-        <v>592.916666666667</v>
+        <v>73435.636761488</v>
       </c>
       <c r="E186" t="n">
-        <v>592.916666666667</v>
+        <v>73435.636761488</v>
       </c>
       <c r="F186" t="n">
-        <v>270370</v>
+        <v>33560086</v>
       </c>
     </row>
     <row r="187">
@@ -4904,19 +4903,19 @@
         <v>191</v>
       </c>
       <c r="B187" t="n">
-        <v>46.8625</v>
+        <v>43.7333</v>
       </c>
       <c r="C187" t="n">
-        <v>103.8467</v>
+        <v>7.4167</v>
       </c>
       <c r="D187" t="n">
-        <v>1532.45175438596</v>
+        <v>596.921225382932</v>
       </c>
       <c r="E187" t="n">
-        <v>1532.45175438596</v>
+        <v>596.921225382932</v>
       </c>
       <c r="F187" t="n">
-        <v>698798</v>
+        <v>272793</v>
       </c>
     </row>
     <row r="188">
@@ -4924,19 +4923,19 @@
         <v>192</v>
       </c>
       <c r="B188" t="n">
-        <v>42.708678</v>
+        <v>46.8625</v>
       </c>
       <c r="C188" t="n">
-        <v>19.37439</v>
+        <v>103.8467</v>
       </c>
       <c r="D188" t="n">
-        <v>24686.6030701754</v>
+        <v>1587.50547045952</v>
       </c>
       <c r="E188" t="n">
-        <v>24686.6030701754</v>
+        <v>1587.50547045952</v>
       </c>
       <c r="F188" t="n">
-        <v>11257091</v>
+        <v>725490</v>
       </c>
     </row>
     <row r="189">
@@ -4944,19 +4943,19 @@
         <v>193</v>
       </c>
       <c r="B189" t="n">
-        <v>31.7917</v>
+        <v>42.708678</v>
       </c>
       <c r="C189" t="n">
-        <v>-7.0926</v>
+        <v>19.37439</v>
       </c>
       <c r="D189" t="n">
-        <v>186478.322368421</v>
+        <v>24843.0590809628</v>
       </c>
       <c r="E189" t="n">
-        <v>186478.322368421</v>
+        <v>24843.0590809628</v>
       </c>
       <c r="F189" t="n">
-        <v>85034115</v>
+        <v>11353278</v>
       </c>
     </row>
     <row r="190">
@@ -4964,19 +4963,19 @@
         <v>194</v>
       </c>
       <c r="B190" t="n">
-        <v>-18.665695</v>
+        <v>31.7917</v>
       </c>
       <c r="C190" t="n">
-        <v>35.529562</v>
+        <v>-7.0926</v>
       </c>
       <c r="D190" t="n">
-        <v>16032.475877193</v>
+        <v>187181.735229759</v>
       </c>
       <c r="E190" t="n">
-        <v>16032.475877193</v>
+        <v>187181.735229759</v>
       </c>
       <c r="F190" t="n">
-        <v>7310809</v>
+        <v>85542053</v>
       </c>
     </row>
     <row r="191">
@@ -4984,19 +4983,19 @@
         <v>195</v>
       </c>
       <c r="B191" t="n">
-        <v>-22.9576</v>
+        <v>-18.665695</v>
       </c>
       <c r="C191" t="n">
-        <v>18.4904</v>
+        <v>35.529562</v>
       </c>
       <c r="D191" t="n">
-        <v>13150.3464912281</v>
+        <v>16149.52297593</v>
       </c>
       <c r="E191" t="n">
-        <v>13150.3464912281</v>
+        <v>16149.52297593</v>
       </c>
       <c r="F191" t="n">
-        <v>5996558</v>
+        <v>7380332</v>
       </c>
     </row>
     <row r="192">
@@ -5004,19 +5003,19 @@
         <v>196</v>
       </c>
       <c r="B192" t="n">
-        <v>28.1667</v>
+        <v>-22.9576</v>
       </c>
       <c r="C192" t="n">
-        <v>84.25</v>
+        <v>18.4904</v>
       </c>
       <c r="D192" t="n">
-        <v>113144</v>
+        <v>13224.7921225383</v>
       </c>
       <c r="E192" t="n">
-        <v>113144</v>
+        <v>13224.7921225383</v>
       </c>
       <c r="F192" t="n">
-        <v>51593664</v>
+        <v>6043730</v>
       </c>
     </row>
     <row r="193">
@@ -5024,19 +5023,19 @@
         <v>197</v>
       </c>
       <c r="B193" t="n">
-        <v>12.5211</v>
+        <v>28.1667</v>
       </c>
       <c r="C193" t="n">
-        <v>-69.9683</v>
+        <v>84.25</v>
       </c>
       <c r="D193" t="n">
-        <v>3184.625</v>
+        <v>113535.702407002</v>
       </c>
       <c r="E193" t="n">
-        <v>3184.625</v>
+        <v>113535.702407002</v>
       </c>
       <c r="F193" t="n">
-        <v>1452189</v>
+        <v>51885816</v>
       </c>
     </row>
     <row r="194">
@@ -5044,19 +5043,19 @@
         <v>198</v>
       </c>
       <c r="B194" t="n">
-        <v>12.1784</v>
+        <v>12.5211</v>
       </c>
       <c r="C194" t="n">
-        <v>-68.2385</v>
+        <v>-69.9683</v>
       </c>
       <c r="D194" t="n">
-        <v>85.1622807017544</v>
+        <v>3200.56455142232</v>
       </c>
       <c r="E194" t="n">
-        <v>85.1622807017544</v>
+        <v>3200.56455142232</v>
       </c>
       <c r="F194" t="n">
-        <v>38834</v>
+        <v>1462658</v>
       </c>
     </row>
     <row r="195">
@@ -5064,19 +5063,19 @@
         <v>199</v>
       </c>
       <c r="B195" t="n">
-        <v>12.1696</v>
+        <v>12.1784</v>
       </c>
       <c r="C195" t="n">
-        <v>-68.99</v>
+        <v>-68.2385</v>
       </c>
       <c r="D195" t="n">
-        <v>1896.55701754386</v>
+        <v>85.4048140043764</v>
       </c>
       <c r="E195" t="n">
-        <v>1896.55701754386</v>
+        <v>85.4048140043764</v>
       </c>
       <c r="F195" t="n">
-        <v>864830</v>
+        <v>39030</v>
       </c>
     </row>
     <row r="196">
@@ -5084,19 +5083,19 @@
         <v>200</v>
       </c>
       <c r="B196" t="n">
-        <v>18.0425</v>
+        <v>12.1696</v>
       </c>
       <c r="C196" t="n">
-        <v>-63.0548</v>
+        <v>-68.99</v>
       </c>
       <c r="D196" t="n">
-        <v>753.618421052632</v>
+        <v>1918.71334792123</v>
       </c>
       <c r="E196" t="n">
-        <v>753.618421052632</v>
+        <v>1918.71334792123</v>
       </c>
       <c r="F196" t="n">
-        <v>343650</v>
+        <v>876852</v>
       </c>
     </row>
     <row r="197">
@@ -5104,19 +5103,19 @@
         <v>201</v>
       </c>
       <c r="B197" t="n">
-        <v>52.1326</v>
+        <v>18.0425</v>
       </c>
       <c r="C197" t="n">
-        <v>5.2913</v>
+        <v>-63.0548</v>
       </c>
       <c r="D197" t="n">
-        <v>377336.653508772</v>
+        <v>756.809628008753</v>
       </c>
       <c r="E197" t="n">
-        <v>377336.653508772</v>
+        <v>756.809628008753</v>
       </c>
       <c r="F197" t="n">
-        <v>172065514</v>
+        <v>345862</v>
       </c>
     </row>
     <row r="198">
@@ -5124,19 +5123,19 @@
         <v>202</v>
       </c>
       <c r="B198" t="n">
-        <v>-40.9006</v>
+        <v>52.1326</v>
       </c>
       <c r="C198" t="n">
-        <v>174.886</v>
+        <v>5.2913</v>
       </c>
       <c r="D198" t="n">
-        <v>1613.97807017544</v>
+        <v>379652.884026258</v>
       </c>
       <c r="E198" t="n">
-        <v>1613.97807017544</v>
+        <v>379652.884026258</v>
       </c>
       <c r="F198" t="n">
-        <v>735974</v>
+        <v>173501368</v>
       </c>
     </row>
     <row r="199">
@@ -5144,19 +5143,19 @@
         <v>203</v>
       </c>
       <c r="B199" t="n">
-        <v>12.865416</v>
+        <v>-40.9006</v>
       </c>
       <c r="C199" t="n">
-        <v>-85.207229</v>
+        <v>174.886</v>
       </c>
       <c r="D199" t="n">
-        <v>3644.13377192982</v>
+        <v>1616.13566739606</v>
       </c>
       <c r="E199" t="n">
-        <v>3644.13377192982</v>
+        <v>1616.13566739606</v>
       </c>
       <c r="F199" t="n">
-        <v>1661725</v>
+        <v>738574</v>
       </c>
     </row>
     <row r="200">
@@ -5164,19 +5163,19 @@
         <v>204</v>
       </c>
       <c r="B200" t="n">
-        <v>17.607789</v>
+        <v>12.865416</v>
       </c>
       <c r="C200" t="n">
-        <v>8.081666</v>
+        <v>-85.207229</v>
       </c>
       <c r="D200" t="n">
-        <v>1854.30921052632</v>
+        <v>3651.11597374179</v>
       </c>
       <c r="E200" t="n">
-        <v>1854.30921052632</v>
+        <v>3651.11597374179</v>
       </c>
       <c r="F200" t="n">
-        <v>845565</v>
+        <v>1668560</v>
       </c>
     </row>
     <row r="201">
@@ -5184,19 +5183,19 @@
         <v>205</v>
       </c>
       <c r="B201" t="n">
-        <v>9.082</v>
+        <v>17.607789</v>
       </c>
       <c r="C201" t="n">
-        <v>8.6753</v>
+        <v>8.081666</v>
       </c>
       <c r="D201" t="n">
-        <v>59472.8179824561</v>
+        <v>1861.50547045952</v>
       </c>
       <c r="E201" t="n">
-        <v>59472.8179824561</v>
+        <v>1861.50547045952</v>
       </c>
       <c r="F201" t="n">
-        <v>27119605</v>
+        <v>850708</v>
       </c>
     </row>
     <row r="202">
@@ -5204,19 +5203,19 @@
         <v>206</v>
       </c>
       <c r="B202" t="n">
-        <v>41.6086</v>
+        <v>9.082</v>
       </c>
       <c r="C202" t="n">
-        <v>21.7453</v>
+        <v>8.6753</v>
       </c>
       <c r="D202" t="n">
-        <v>39072.7324561404</v>
+        <v>59702.829321663</v>
       </c>
       <c r="E202" t="n">
-        <v>39072.7324561404</v>
+        <v>59702.829321663</v>
       </c>
       <c r="F202" t="n">
-        <v>17817166</v>
+        <v>27284193</v>
       </c>
     </row>
     <row r="203">
@@ -5224,19 +5223,19 @@
         <v>207</v>
       </c>
       <c r="B203" t="n">
-        <v>60.472</v>
+        <v>41.6086</v>
       </c>
       <c r="C203" t="n">
-        <v>8.4689</v>
+        <v>21.7453</v>
       </c>
       <c r="D203" t="n">
-        <v>28139.8442982456</v>
+        <v>39313.7571115974</v>
       </c>
       <c r="E203" t="n">
-        <v>28139.8442982456</v>
+        <v>39313.7571115974</v>
       </c>
       <c r="F203" t="n">
-        <v>12831769</v>
+        <v>17966387</v>
       </c>
     </row>
     <row r="204">
@@ -5244,19 +5243,19 @@
         <v>208</v>
       </c>
       <c r="B204" t="n">
-        <v>21.512583</v>
+        <v>60.472</v>
       </c>
       <c r="C204" t="n">
-        <v>55.923255</v>
+        <v>8.4689</v>
       </c>
       <c r="D204" t="n">
-        <v>77166.8399122807</v>
+        <v>28318.0525164114</v>
       </c>
       <c r="E204" t="n">
-        <v>77166.8399122807</v>
+        <v>28318.0525164114</v>
       </c>
       <c r="F204" t="n">
-        <v>35188079</v>
+        <v>12941350</v>
       </c>
     </row>
     <row r="205">
@@ -5264,19 +5263,19 @@
         <v>209</v>
       </c>
       <c r="B205" t="n">
-        <v>30.3753</v>
+        <v>21.512583</v>
       </c>
       <c r="C205" t="n">
-        <v>69.3451</v>
+        <v>55.923255</v>
       </c>
       <c r="D205" t="n">
-        <v>291648.372807018</v>
+        <v>77403.4070021882</v>
       </c>
       <c r="E205" t="n">
-        <v>291648.372807018</v>
+        <v>77403.4070021882</v>
       </c>
       <c r="F205" t="n">
-        <v>132991658</v>
+        <v>35373357</v>
       </c>
     </row>
     <row r="206">
@@ -5284,19 +5283,19 @@
         <v>210</v>
       </c>
       <c r="B206" t="n">
-        <v>8.538</v>
+        <v>30.3753</v>
       </c>
       <c r="C206" t="n">
-        <v>-80.7821</v>
+        <v>69.3451</v>
       </c>
       <c r="D206" t="n">
-        <v>130329.907894737</v>
+        <v>292725.964989059</v>
       </c>
       <c r="E206" t="n">
-        <v>130329.907894737</v>
+        <v>292725.964989059</v>
       </c>
       <c r="F206" t="n">
-        <v>59430438</v>
+        <v>133775766</v>
       </c>
     </row>
     <row r="207">
@@ -5304,19 +5303,19 @@
         <v>211</v>
       </c>
       <c r="B207" t="n">
-        <v>-6.314993</v>
+        <v>8.538</v>
       </c>
       <c r="C207" t="n">
-        <v>143.95555</v>
+        <v>-80.7821</v>
       </c>
       <c r="D207" t="n">
-        <v>878.30701754386</v>
+        <v>130836.827133479</v>
       </c>
       <c r="E207" t="n">
-        <v>878.30701754386</v>
+        <v>130836.827133479</v>
       </c>
       <c r="F207" t="n">
-        <v>400508</v>
+        <v>59792430</v>
       </c>
     </row>
     <row r="208">
@@ -5324,19 +5323,19 @@
         <v>212</v>
       </c>
       <c r="B208" t="n">
-        <v>-23.4425</v>
+        <v>-6.314993</v>
       </c>
       <c r="C208" t="n">
-        <v>-58.4438</v>
+        <v>143.95555</v>
       </c>
       <c r="D208" t="n">
-        <v>58586.8333333333</v>
+        <v>899.006564551422</v>
       </c>
       <c r="E208" t="n">
-        <v>58586.8333333333</v>
+        <v>899.006564551422</v>
       </c>
       <c r="F208" t="n">
-        <v>26715596</v>
+        <v>410846</v>
       </c>
     </row>
     <row r="209">
@@ -5344,19 +5343,19 @@
         <v>213</v>
       </c>
       <c r="B209" t="n">
-        <v>-9.19</v>
+        <v>-23.4425</v>
       </c>
       <c r="C209" t="n">
-        <v>-75.0152</v>
+        <v>-58.4438</v>
       </c>
       <c r="D209" t="n">
-        <v>637711.802631579</v>
+        <v>59028.398249453</v>
       </c>
       <c r="E209" t="n">
-        <v>637711.802631579</v>
+        <v>59028.398249453</v>
       </c>
       <c r="F209" t="n">
-        <v>290796582</v>
+        <v>26975978</v>
       </c>
     </row>
     <row r="210">
@@ -5364,19 +5363,19 @@
         <v>214</v>
       </c>
       <c r="B210" t="n">
-        <v>12.879721</v>
+        <v>-9.19</v>
       </c>
       <c r="C210" t="n">
-        <v>121.774017</v>
+        <v>-75.0152</v>
       </c>
       <c r="D210" t="n">
-        <v>268586.11622807</v>
+        <v>640112.008752735</v>
       </c>
       <c r="E210" t="n">
-        <v>268586.11622807</v>
+        <v>640112.008752735</v>
       </c>
       <c r="F210" t="n">
-        <v>122475269</v>
+        <v>292531188</v>
       </c>
     </row>
     <row r="211">
@@ -5384,19 +5383,19 @@
         <v>215</v>
       </c>
       <c r="B211" t="n">
-        <v>51.9194</v>
+        <v>12.879721</v>
       </c>
       <c r="C211" t="n">
-        <v>19.1451</v>
+        <v>121.774017</v>
       </c>
       <c r="D211" t="n">
-        <v>599394.302631579</v>
+        <v>270123.234135667</v>
       </c>
       <c r="E211" t="n">
-        <v>599394.302631579</v>
+        <v>270123.234135667</v>
       </c>
       <c r="F211" t="n">
-        <v>273323802</v>
+        <v>123446318</v>
       </c>
     </row>
     <row r="212">
@@ -5404,19 +5403,19 @@
         <v>216</v>
       </c>
       <c r="B212" t="n">
-        <v>39.3999</v>
+        <v>51.9194</v>
       </c>
       <c r="C212" t="n">
-        <v>-8.2245</v>
+        <v>19.1451</v>
       </c>
       <c r="D212" t="n">
-        <v>241300.298245614</v>
+        <v>604059.207877462</v>
       </c>
       <c r="E212" t="n">
-        <v>241300.298245614</v>
+        <v>604059.207877462</v>
       </c>
       <c r="F212" t="n">
-        <v>110032936</v>
+        <v>276055058</v>
       </c>
     </row>
     <row r="213">
@@ -5424,19 +5423,19 @@
         <v>217</v>
       </c>
       <c r="B213" t="n">
-        <v>25.3548</v>
+        <v>39.3999</v>
       </c>
       <c r="C213" t="n">
-        <v>51.1839</v>
+        <v>-8.2245</v>
       </c>
       <c r="D213" t="n">
-        <v>98245.5219298246</v>
+        <v>242594.807439825</v>
       </c>
       <c r="E213" t="n">
-        <v>98245.5219298246</v>
+        <v>242594.807439825</v>
       </c>
       <c r="F213" t="n">
-        <v>44799958</v>
+        <v>110865827</v>
       </c>
     </row>
     <row r="214">
@@ -5444,19 +5443,19 @@
         <v>218</v>
       </c>
       <c r="B214" t="n">
-        <v>45.9432</v>
+        <v>25.3548</v>
       </c>
       <c r="C214" t="n">
-        <v>24.9668</v>
+        <v>51.1839</v>
       </c>
       <c r="D214" t="n">
-        <v>290866.668859649</v>
+        <v>98468.1356673961</v>
       </c>
       <c r="E214" t="n">
-        <v>290866.668859649</v>
+        <v>98468.1356673961</v>
       </c>
       <c r="F214" t="n">
-        <v>132635201</v>
+        <v>44999938</v>
       </c>
     </row>
     <row r="215">
@@ -5464,19 +5463,19 @@
         <v>219</v>
       </c>
       <c r="B215" t="n">
-        <v>61.52401</v>
+        <v>45.9432</v>
       </c>
       <c r="C215" t="n">
-        <v>105.318756</v>
+        <v>24.9668</v>
       </c>
       <c r="D215" t="n">
-        <v>1637486.31359649</v>
+        <v>292505.905908096</v>
       </c>
       <c r="E215" t="n">
-        <v>1637486.31359649</v>
+        <v>292505.905908096</v>
       </c>
       <c r="F215" t="n">
-        <v>746693759</v>
+        <v>133675199</v>
       </c>
     </row>
     <row r="216">
@@ -5484,19 +5483,19 @@
         <v>220</v>
       </c>
       <c r="B216" t="n">
-        <v>-1.9403</v>
+        <v>61.52401</v>
       </c>
       <c r="C216" t="n">
-        <v>29.8739</v>
+        <v>105.318756</v>
       </c>
       <c r="D216" t="n">
-        <v>6120.56578947368</v>
+        <v>1644149.52297593</v>
       </c>
       <c r="E216" t="n">
-        <v>6120.56578947368</v>
+        <v>1644149.52297593</v>
       </c>
       <c r="F216" t="n">
-        <v>2790978</v>
+        <v>751376332</v>
       </c>
     </row>
     <row r="217">
@@ -5504,19 +5503,19 @@
         <v>221</v>
       </c>
       <c r="B217" t="n">
-        <v>17.357822</v>
+        <v>-1.9403</v>
       </c>
       <c r="C217" t="n">
-        <v>-62.782998</v>
+        <v>29.8739</v>
       </c>
       <c r="D217" t="n">
-        <v>20.5964912280702</v>
+        <v>6160.26258205689</v>
       </c>
       <c r="E217" t="n">
-        <v>20.5964912280702</v>
+        <v>6160.26258205689</v>
       </c>
       <c r="F217" t="n">
-        <v>9392</v>
+        <v>2815240</v>
       </c>
     </row>
     <row r="218">
@@ -5524,19 +5523,19 @@
         <v>222</v>
       </c>
       <c r="B218" t="n">
-        <v>13.9094</v>
+        <v>17.357822</v>
       </c>
       <c r="C218" t="n">
-        <v>-60.9789</v>
+        <v>-62.782998</v>
       </c>
       <c r="D218" t="n">
-        <v>709.666666666667</v>
+        <v>20.6477024070022</v>
       </c>
       <c r="E218" t="n">
-        <v>709.666666666667</v>
+        <v>20.6477024070022</v>
       </c>
       <c r="F218" t="n">
-        <v>323608</v>
+        <v>9436</v>
       </c>
     </row>
     <row r="219">
@@ -5544,19 +5543,19 @@
         <v>223</v>
       </c>
       <c r="B219" t="n">
-        <v>12.9843</v>
+        <v>13.9094</v>
       </c>
       <c r="C219" t="n">
-        <v>-61.2872</v>
+        <v>-60.9789</v>
       </c>
       <c r="D219" t="n">
-        <v>343.736842105263</v>
+        <v>717.862144420131</v>
       </c>
       <c r="E219" t="n">
-        <v>343.736842105263</v>
+        <v>717.862144420131</v>
       </c>
       <c r="F219" t="n">
-        <v>156744</v>
+        <v>328063</v>
       </c>
     </row>
     <row r="220">
@@ -5564,19 +5563,19 @@
         <v>224</v>
       </c>
       <c r="B220" t="n">
-        <v>-13.759</v>
+        <v>12.9843</v>
       </c>
       <c r="C220" t="n">
-        <v>-172.1046</v>
+        <v>-61.2872</v>
       </c>
       <c r="D220" t="n">
-        <v>0.804824561403509</v>
+        <v>346.98249452954</v>
       </c>
       <c r="E220" t="n">
-        <v>0.804824561403509</v>
+        <v>346.98249452954</v>
       </c>
       <c r="F220" t="n">
-        <v>367</v>
+        <v>158571</v>
       </c>
     </row>
     <row r="221">
@@ -5584,19 +5583,19 @@
         <v>225</v>
       </c>
       <c r="B221" t="n">
-        <v>43.9424</v>
+        <v>-13.759</v>
       </c>
       <c r="C221" t="n">
-        <v>12.4578</v>
+        <v>-172.1046</v>
       </c>
       <c r="D221" t="n">
-        <v>1445.38815789474</v>
+        <v>0.809628008752735</v>
       </c>
       <c r="E221" t="n">
-        <v>1445.38815789474</v>
+        <v>0.809628008752735</v>
       </c>
       <c r="F221" t="n">
-        <v>659097</v>
+        <v>370</v>
       </c>
     </row>
     <row r="222">
@@ -5604,19 +5603,19 @@
         <v>226</v>
       </c>
       <c r="B222" t="n">
-        <v>0.1864</v>
+        <v>43.9424</v>
       </c>
       <c r="C222" t="n">
-        <v>6.6131</v>
+        <v>12.4578</v>
       </c>
       <c r="D222" t="n">
-        <v>839.427631578947</v>
+        <v>1453.2647702407</v>
       </c>
       <c r="E222" t="n">
-        <v>839.427631578947</v>
+        <v>1453.2647702407</v>
       </c>
       <c r="F222" t="n">
-        <v>382779</v>
+        <v>664142</v>
       </c>
     </row>
     <row r="223">
@@ -5624,19 +5623,19 @@
         <v>227</v>
       </c>
       <c r="B223" t="n">
-        <v>23.885942</v>
+        <v>0.1864</v>
       </c>
       <c r="C223" t="n">
-        <v>45.079162</v>
+        <v>6.6131</v>
       </c>
       <c r="D223" t="n">
-        <v>234307.594298246</v>
+        <v>842.606126914661</v>
       </c>
       <c r="E223" t="n">
-        <v>234307.594298246</v>
+        <v>842.606126914661</v>
       </c>
       <c r="F223" t="n">
-        <v>106844263</v>
+        <v>385071</v>
       </c>
     </row>
     <row r="224">
@@ -5644,19 +5643,19 @@
         <v>228</v>
       </c>
       <c r="B224" t="n">
-        <v>14.4974</v>
+        <v>23.885942</v>
       </c>
       <c r="C224" t="n">
-        <v>-14.4524</v>
+        <v>45.079162</v>
       </c>
       <c r="D224" t="n">
-        <v>13919.9671052632</v>
+        <v>234690.056892779</v>
       </c>
       <c r="E224" t="n">
-        <v>13919.9671052632</v>
+        <v>234690.056892779</v>
       </c>
       <c r="F224" t="n">
-        <v>6347505</v>
+        <v>107253356</v>
       </c>
     </row>
     <row r="225">
@@ -5664,19 +5663,19 @@
         <v>229</v>
       </c>
       <c r="B225" t="n">
-        <v>44.0165</v>
+        <v>14.4974</v>
       </c>
       <c r="C225" t="n">
-        <v>21.0059</v>
+        <v>-14.4524</v>
       </c>
       <c r="D225" t="n">
-        <v>151494.054824561</v>
+        <v>13976.9803063457</v>
       </c>
       <c r="E225" t="n">
-        <v>151494.054824561</v>
+        <v>13976.9803063457</v>
       </c>
       <c r="F225" t="n">
-        <v>69081289</v>
+        <v>6387480</v>
       </c>
     </row>
     <row r="226">
@@ -5684,19 +5683,19 @@
         <v>230</v>
       </c>
       <c r="B226" t="n">
-        <v>-4.6796</v>
+        <v>44.0165</v>
       </c>
       <c r="C226" t="n">
-        <v>55.492</v>
+        <v>21.0059</v>
       </c>
       <c r="D226" t="n">
-        <v>675.706140350877</v>
+        <v>152636.343544858</v>
       </c>
       <c r="E226" t="n">
-        <v>675.706140350877</v>
+        <v>152636.343544858</v>
       </c>
       <c r="F226" t="n">
-        <v>308122</v>
+        <v>69754809</v>
       </c>
     </row>
     <row r="227">
@@ -5704,19 +5703,19 @@
         <v>231</v>
       </c>
       <c r="B227" t="n">
-        <v>8.460555</v>
+        <v>-4.6796</v>
       </c>
       <c r="C227" t="n">
-        <v>-11.779889</v>
+        <v>55.492</v>
       </c>
       <c r="D227" t="n">
-        <v>1870.81359649123</v>
+        <v>685.540481400438</v>
       </c>
       <c r="E227" t="n">
-        <v>1870.81359649123</v>
+        <v>685.540481400438</v>
       </c>
       <c r="F227" t="n">
-        <v>853091</v>
+        <v>313292</v>
       </c>
     </row>
     <row r="228">
@@ -5724,19 +5723,19 @@
         <v>232</v>
       </c>
       <c r="B228" t="n">
-        <v>1.2833</v>
+        <v>8.460555</v>
       </c>
       <c r="C228" t="n">
-        <v>103.8333</v>
+        <v>-11.779889</v>
       </c>
       <c r="D228" t="n">
-        <v>41977.8530701754</v>
+        <v>1875.56892778993</v>
       </c>
       <c r="E228" t="n">
-        <v>41977.8530701754</v>
+        <v>1875.56892778993</v>
       </c>
       <c r="F228" t="n">
-        <v>19141901</v>
+        <v>857135</v>
       </c>
     </row>
     <row r="229">
@@ -5744,19 +5743,19 @@
         <v>233</v>
       </c>
       <c r="B229" t="n">
-        <v>48.669</v>
+        <v>1.2833</v>
       </c>
       <c r="C229" t="n">
-        <v>19.699</v>
+        <v>103.8333</v>
       </c>
       <c r="D229" t="n">
-        <v>90240.5570175439</v>
+        <v>42019.2669584245</v>
       </c>
       <c r="E229" t="n">
-        <v>90240.5570175439</v>
+        <v>42019.2669584245</v>
       </c>
       <c r="F229" t="n">
-        <v>41149694</v>
+        <v>19202805</v>
       </c>
     </row>
     <row r="230">
@@ -5764,19 +5763,19 @@
         <v>234</v>
       </c>
       <c r="B230" t="n">
-        <v>46.1512</v>
+        <v>48.669</v>
       </c>
       <c r="C230" t="n">
-        <v>14.9955</v>
+        <v>19.699</v>
       </c>
       <c r="D230" t="n">
-        <v>57460.8442982456</v>
+        <v>90870.5557986871</v>
       </c>
       <c r="E230" t="n">
-        <v>57460.8442982456</v>
+        <v>90870.5557986871</v>
       </c>
       <c r="F230" t="n">
-        <v>26202145</v>
+        <v>41527844</v>
       </c>
     </row>
     <row r="231">
@@ -5784,19 +5783,19 @@
         <v>235</v>
       </c>
       <c r="B231" t="n">
-        <v>-9.6457</v>
+        <v>46.1512</v>
       </c>
       <c r="C231" t="n">
-        <v>160.1562</v>
+        <v>14.9955</v>
       </c>
       <c r="D231" t="n">
-        <v>6.70614035087719</v>
+        <v>57848.9190371991</v>
       </c>
       <c r="E231" t="n">
-        <v>6.70614035087719</v>
+        <v>57848.9190371991</v>
       </c>
       <c r="F231" t="n">
-        <v>3058</v>
+        <v>26436956</v>
       </c>
     </row>
     <row r="232">
@@ -5804,19 +5803,19 @@
         <v>236</v>
       </c>
       <c r="B232" t="n">
-        <v>5.152149</v>
+        <v>-9.6457</v>
       </c>
       <c r="C232" t="n">
-        <v>46.199616</v>
+        <v>160.1562</v>
       </c>
       <c r="D232" t="n">
-        <v>3661.10745614035</v>
+        <v>6.73522975929978</v>
       </c>
       <c r="E232" t="n">
-        <v>3661.10745614035</v>
+        <v>6.73522975929978</v>
       </c>
       <c r="F232" t="n">
-        <v>1669465</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="233">
@@ -5824,19 +5823,19 @@
         <v>237</v>
       </c>
       <c r="B233" t="n">
-        <v>-30.5595</v>
+        <v>5.152149</v>
       </c>
       <c r="C233" t="n">
-        <v>22.9375</v>
+        <v>46.199616</v>
       </c>
       <c r="D233" t="n">
-        <v>624904.041666667</v>
+        <v>3682.54704595186</v>
       </c>
       <c r="E233" t="n">
-        <v>624904.041666667</v>
+        <v>3682.54704595186</v>
       </c>
       <c r="F233" t="n">
-        <v>284956243</v>
+        <v>1682924</v>
       </c>
     </row>
     <row r="234">
@@ -5844,19 +5843,19 @@
         <v>238</v>
       </c>
       <c r="B234" t="n">
-        <v>6.877</v>
+        <v>-30.5595</v>
       </c>
       <c r="C234" t="n">
-        <v>31.307</v>
+        <v>22.9375</v>
       </c>
       <c r="D234" t="n">
-        <v>2949.69736842105</v>
+        <v>626975.035010941</v>
       </c>
       <c r="E234" t="n">
-        <v>2949.69736842105</v>
+        <v>626975.035010941</v>
       </c>
       <c r="F234" t="n">
-        <v>1345062</v>
+        <v>286527591</v>
       </c>
     </row>
     <row r="235">
@@ -5864,19 +5863,19 @@
         <v>239</v>
       </c>
       <c r="B235" t="n">
-        <v>40.463667</v>
+        <v>6.877</v>
       </c>
       <c r="C235" t="n">
-        <v>-3.74922</v>
+        <v>31.307</v>
       </c>
       <c r="D235" t="n">
-        <v>1125268.94517544</v>
+        <v>2966.22757111597</v>
       </c>
       <c r="E235" t="n">
-        <v>1125268.94517544</v>
+        <v>2966.22757111597</v>
       </c>
       <c r="F235" t="n">
-        <v>513122639</v>
+        <v>1355566</v>
       </c>
     </row>
     <row r="236">
@@ -5884,19 +5883,19 @@
         <v>240</v>
       </c>
       <c r="B236" t="n">
-        <v>7.873054</v>
+        <v>40.463667</v>
       </c>
       <c r="C236" t="n">
-        <v>80.771797</v>
+        <v>-3.74922</v>
       </c>
       <c r="D236" t="n">
-        <v>23281.6885964912</v>
+        <v>1130370.95185996</v>
       </c>
       <c r="E236" t="n">
-        <v>23281.6885964912</v>
+        <v>1130370.95185996</v>
       </c>
       <c r="F236" t="n">
-        <v>10616450</v>
+        <v>516579525</v>
       </c>
     </row>
     <row r="237">
@@ -5904,19 +5903,19 @@
         <v>241</v>
       </c>
       <c r="B237" t="n">
-        <v>12.8628</v>
+        <v>7.873054</v>
       </c>
       <c r="C237" t="n">
-        <v>30.2176</v>
+        <v>80.771797</v>
       </c>
       <c r="D237" t="n">
-        <v>13864.3837719298</v>
+        <v>23446.7658643326</v>
       </c>
       <c r="E237" t="n">
-        <v>13864.3837719298</v>
+        <v>23446.7658643326</v>
       </c>
       <c r="F237" t="n">
-        <v>6322159</v>
+        <v>10715172</v>
       </c>
     </row>
     <row r="238">
@@ -5924,19 +5923,19 @@
         <v>242</v>
       </c>
       <c r="B238" t="n">
-        <v>3.9193</v>
+        <v>12.8628</v>
       </c>
       <c r="C238" t="n">
-        <v>-56.0278</v>
+        <v>30.2176</v>
       </c>
       <c r="D238" t="n">
-        <v>3747.41666666667</v>
+        <v>13907.5667396061</v>
       </c>
       <c r="E238" t="n">
-        <v>3747.41666666667</v>
+        <v>13907.5667396061</v>
       </c>
       <c r="F238" t="n">
-        <v>1708822</v>
+        <v>6355758</v>
       </c>
     </row>
     <row r="239">
@@ -5944,19 +5943,19 @@
         <v>243</v>
       </c>
       <c r="B239" t="n">
-        <v>60.128161</v>
+        <v>3.9193</v>
       </c>
       <c r="C239" t="n">
-        <v>18.643501</v>
+        <v>-56.0278</v>
       </c>
       <c r="D239" t="n">
-        <v>227495.49122807</v>
+        <v>3760.80306345733</v>
       </c>
       <c r="E239" t="n">
-        <v>227495.49122807</v>
+        <v>3760.80306345733</v>
       </c>
       <c r="F239" t="n">
-        <v>103737944</v>
+        <v>1718687</v>
       </c>
     </row>
     <row r="240">
@@ -5964,19 +5963,19 @@
         <v>244</v>
       </c>
       <c r="B240" t="n">
-        <v>46.8182</v>
+        <v>60.128161</v>
       </c>
       <c r="C240" t="n">
-        <v>8.2275</v>
+        <v>18.643501</v>
       </c>
       <c r="D240" t="n">
-        <v>198144.605263158</v>
+        <v>229037.242888403</v>
       </c>
       <c r="E240" t="n">
-        <v>198144.605263158</v>
+        <v>229037.242888403</v>
       </c>
       <c r="F240" t="n">
-        <v>90353940</v>
+        <v>104670020</v>
       </c>
     </row>
     <row r="241">
@@ -5984,19 +5983,19 @@
         <v>245</v>
       </c>
       <c r="B241" t="n">
-        <v>34.802075</v>
+        <v>46.8182</v>
       </c>
       <c r="C241" t="n">
-        <v>38.996815</v>
+        <v>8.2275</v>
       </c>
       <c r="D241" t="n">
-        <v>5718.87719298246</v>
+        <v>199121.085339168</v>
       </c>
       <c r="E241" t="n">
-        <v>5718.87719298246</v>
+        <v>199121.085339168</v>
       </c>
       <c r="F241" t="n">
-        <v>2607808</v>
+        <v>90998336</v>
       </c>
     </row>
     <row r="242">
@@ -6004,19 +6003,19 @@
         <v>246</v>
       </c>
       <c r="B242" t="n">
-        <v>23.7</v>
+        <v>34.802075</v>
       </c>
       <c r="C242" t="n">
-        <v>121</v>
+        <v>38.996815</v>
       </c>
       <c r="D242" t="n">
-        <v>550.164473684211</v>
+        <v>5753.90153172866</v>
       </c>
       <c r="E242" t="n">
-        <v>550.164473684211</v>
+        <v>5753.90153172866</v>
       </c>
       <c r="F242" t="n">
-        <v>250875</v>
+        <v>2629533</v>
       </c>
     </row>
     <row r="243">
@@ -6024,19 +6023,19 @@
         <v>247</v>
       </c>
       <c r="B243" t="n">
-        <v>38.861</v>
+        <v>23.7</v>
       </c>
       <c r="C243" t="n">
-        <v>71.2761</v>
+        <v>121</v>
       </c>
       <c r="D243" t="n">
-        <v>7637.1447368421</v>
+        <v>551.336980306346</v>
       </c>
       <c r="E243" t="n">
-        <v>7637.1447368421</v>
+        <v>551.336980306346</v>
       </c>
       <c r="F243" t="n">
-        <v>3482538</v>
+        <v>251961</v>
       </c>
     </row>
     <row r="244">
@@ -6044,19 +6043,19 @@
         <v>248</v>
       </c>
       <c r="B244" t="n">
-        <v>-6.369028</v>
+        <v>38.861</v>
       </c>
       <c r="C244" t="n">
-        <v>34.888822</v>
+        <v>71.2761</v>
       </c>
       <c r="D244" t="n">
-        <v>407.322368421053</v>
+        <v>7649.55361050328</v>
       </c>
       <c r="E244" t="n">
-        <v>407.322368421053</v>
+        <v>7649.55361050328</v>
       </c>
       <c r="F244" t="n">
-        <v>185739</v>
+        <v>3495846</v>
       </c>
     </row>
     <row r="245">
@@ -6064,19 +6063,19 @@
         <v>249</v>
       </c>
       <c r="B245" t="n">
-        <v>15.870032</v>
+        <v>-6.369028</v>
       </c>
       <c r="C245" t="n">
-        <v>100.992541</v>
+        <v>34.888822</v>
       </c>
       <c r="D245" t="n">
-        <v>7918.84649122807</v>
+        <v>407.544857768053</v>
       </c>
       <c r="E245" t="n">
-        <v>7918.84649122807</v>
+        <v>407.544857768053</v>
       </c>
       <c r="F245" t="n">
-        <v>3610994</v>
+        <v>186248</v>
       </c>
     </row>
     <row r="246">
@@ -6084,19 +6083,19 @@
         <v>250</v>
       </c>
       <c r="B246" t="n">
-        <v>-8.874217</v>
+        <v>15.870032</v>
       </c>
       <c r="C246" t="n">
-        <v>125.727539</v>
+        <v>100.992541</v>
       </c>
       <c r="D246" t="n">
-        <v>89.1622807017544</v>
+        <v>8006.79868708972</v>
       </c>
       <c r="E246" t="n">
-        <v>89.1622807017544</v>
+        <v>8006.79868708972</v>
       </c>
       <c r="F246" t="n">
-        <v>40658</v>
+        <v>3659107</v>
       </c>
     </row>
     <row r="247">
@@ -6104,19 +6103,19 @@
         <v>251</v>
       </c>
       <c r="B247" t="n">
-        <v>8.6195</v>
+        <v>-8.874217</v>
       </c>
       <c r="C247" t="n">
-        <v>0.8248</v>
+        <v>125.727539</v>
       </c>
       <c r="D247" t="n">
-        <v>2614.06359649123</v>
+        <v>92.5929978118162</v>
       </c>
       <c r="E247" t="n">
-        <v>2614.06359649123</v>
+        <v>92.5929978118162</v>
       </c>
       <c r="F247" t="n">
-        <v>1192013</v>
+        <v>42315</v>
       </c>
     </row>
     <row r="248">
@@ -6124,19 +6123,19 @@
         <v>252</v>
       </c>
       <c r="B248" t="n">
-        <v>10.6918</v>
+        <v>8.6195</v>
       </c>
       <c r="C248" t="n">
-        <v>-61.2225</v>
+        <v>0.8248</v>
       </c>
       <c r="D248" t="n">
-        <v>3419.34429824561</v>
+        <v>2636.12910284464</v>
       </c>
       <c r="E248" t="n">
-        <v>3419.34429824561</v>
+        <v>2636.12910284464</v>
       </c>
       <c r="F248" t="n">
-        <v>1559221</v>
+        <v>1204711</v>
       </c>
     </row>
     <row r="249">
@@ -6144,19 +6143,19 @@
         <v>253</v>
       </c>
       <c r="B249" t="n">
-        <v>33.886917</v>
+        <v>10.6918</v>
       </c>
       <c r="C249" t="n">
-        <v>9.537499</v>
+        <v>-61.2225</v>
       </c>
       <c r="D249" t="n">
-        <v>71475.3859649123</v>
+        <v>3432.39387308534</v>
       </c>
       <c r="E249" t="n">
-        <v>71475.3859649123</v>
+        <v>3432.39387308534</v>
       </c>
       <c r="F249" t="n">
-        <v>32592776</v>
+        <v>1568604</v>
       </c>
     </row>
     <row r="250">
@@ -6164,19 +6163,19 @@
         <v>254</v>
       </c>
       <c r="B250" t="n">
-        <v>38.9637</v>
+        <v>33.886917</v>
       </c>
       <c r="C250" t="n">
-        <v>35.2433</v>
+        <v>9.537499</v>
       </c>
       <c r="D250" t="n">
-        <v>941683.368421053</v>
+        <v>71962.6126914661</v>
       </c>
       <c r="E250" t="n">
-        <v>941683.368421053</v>
+        <v>71962.6126914661</v>
       </c>
       <c r="F250" t="n">
-        <v>429407616</v>
+        <v>32886914</v>
       </c>
     </row>
     <row r="251">
@@ -6184,19 +6183,19 @@
         <v>255</v>
       </c>
       <c r="B251" t="n">
-        <v>40</v>
+        <v>38.9637</v>
       </c>
       <c r="C251" t="n">
-        <v>-100</v>
+        <v>35.2433</v>
       </c>
       <c r="D251" t="n">
-        <v>10537270.247807</v>
+        <v>949472.643326039</v>
       </c>
       <c r="E251" t="n">
-        <v>10537270.247807</v>
+        <v>949472.643326039</v>
       </c>
       <c r="F251" t="n">
-        <v>4804995233</v>
+        <v>433908998</v>
       </c>
     </row>
     <row r="252">
@@ -6204,19 +6203,19 @@
         <v>256</v>
       </c>
       <c r="B252" t="n">
-        <v>1.373333</v>
+        <v>40</v>
       </c>
       <c r="C252" t="n">
-        <v>32.290275</v>
+        <v>-100</v>
       </c>
       <c r="D252" t="n">
-        <v>14020.8026315789</v>
+        <v>10584080.0525164</v>
       </c>
       <c r="E252" t="n">
-        <v>14020.8026315789</v>
+        <v>10584080.0525164</v>
       </c>
       <c r="F252" t="n">
-        <v>6393486</v>
+        <v>4836924584</v>
       </c>
     </row>
     <row r="253">
@@ -6224,19 +6223,19 @@
         <v>257</v>
       </c>
       <c r="B253" t="n">
-        <v>48.3794</v>
+        <v>1.373333</v>
       </c>
       <c r="C253" t="n">
-        <v>31.1656</v>
+        <v>32.290275</v>
       </c>
       <c r="D253" t="n">
-        <v>500754.135964912</v>
+        <v>14080.9956236324</v>
       </c>
       <c r="E253" t="n">
-        <v>500754.135964912</v>
+        <v>14080.9956236324</v>
       </c>
       <c r="F253" t="n">
-        <v>228343886</v>
+        <v>6435015</v>
       </c>
     </row>
     <row r="254">
@@ -6244,19 +6243,19 @@
         <v>258</v>
       </c>
       <c r="B254" t="n">
-        <v>23.424076</v>
+        <v>48.3794</v>
       </c>
       <c r="C254" t="n">
-        <v>53.847818</v>
+        <v>31.1656</v>
       </c>
       <c r="D254" t="n">
-        <v>138892.337719298</v>
+        <v>504130.824945295</v>
       </c>
       <c r="E254" t="n">
-        <v>138892.337719298</v>
+        <v>504130.824945295</v>
       </c>
       <c r="F254" t="n">
-        <v>63334906</v>
+        <v>230387787</v>
       </c>
     </row>
     <row r="255">
@@ -6264,19 +6263,19 @@
         <v>259</v>
       </c>
       <c r="B255" t="n">
-        <v>18.2206</v>
+        <v>23.424076</v>
       </c>
       <c r="C255" t="n">
-        <v>-63.0686</v>
+        <v>53.847818</v>
       </c>
       <c r="D255" t="n">
-        <v>7.01535087719298</v>
+        <v>139693.168490153</v>
       </c>
       <c r="E255" t="n">
-        <v>7.01535087719298</v>
+        <v>139693.168490153</v>
       </c>
       <c r="F255" t="n">
-        <v>3199</v>
+        <v>63839778</v>
       </c>
     </row>
     <row r="256">
@@ -6284,19 +6283,19 @@
         <v>260</v>
       </c>
       <c r="B256" t="n">
-        <v>32.3078</v>
+        <v>18.2206</v>
       </c>
       <c r="C256" t="n">
-        <v>-64.7505</v>
+        <v>-63.0686</v>
       </c>
       <c r="D256" t="n">
-        <v>338.548245614035</v>
+        <v>7.06345733041575</v>
       </c>
       <c r="E256" t="n">
-        <v>338.548245614035</v>
+        <v>7.06345733041575</v>
       </c>
       <c r="F256" t="n">
-        <v>154378</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="257">
@@ -6304,19 +6303,19 @@
         <v>261</v>
       </c>
       <c r="B257" t="n">
-        <v>18.4207</v>
+        <v>32.3078</v>
       </c>
       <c r="C257" t="n">
-        <v>-64.64</v>
+        <v>-64.7505</v>
       </c>
       <c r="D257" t="n">
-        <v>55.3662280701754</v>
+        <v>342.754923413567</v>
       </c>
       <c r="E257" t="n">
-        <v>55.3662280701754</v>
+        <v>342.754923413567</v>
       </c>
       <c r="F257" t="n">
-        <v>25247</v>
+        <v>156639</v>
       </c>
     </row>
     <row r="258">
@@ -6324,19 +6323,19 @@
         <v>262</v>
       </c>
       <c r="B258" t="n">
-        <v>19.3133</v>
+        <v>18.4207</v>
       </c>
       <c r="C258" t="n">
-        <v>-81.2546</v>
+        <v>-64.64</v>
       </c>
       <c r="D258" t="n">
-        <v>223.822368421053</v>
+        <v>55.6695842450766</v>
       </c>
       <c r="E258" t="n">
-        <v>223.822368421053</v>
+        <v>55.6695842450766</v>
       </c>
       <c r="F258" t="n">
-        <v>102063</v>
+        <v>25441</v>
       </c>
     </row>
     <row r="259">
@@ -6344,19 +6343,19 @@
         <v>263</v>
       </c>
       <c r="B259" t="n">
-        <v>49.3723</v>
+        <v>19.3133</v>
       </c>
       <c r="C259" t="n">
-        <v>-2.3644</v>
+        <v>-81.2546</v>
       </c>
       <c r="D259" t="n">
-        <v>1433.55701754386</v>
+        <v>224.494529540481</v>
       </c>
       <c r="E259" t="n">
-        <v>1433.55701754386</v>
+        <v>224.494529540481</v>
       </c>
       <c r="F259" t="n">
-        <v>653702</v>
+        <v>102594</v>
       </c>
     </row>
     <row r="260">
@@ -6364,19 +6363,19 @@
         <v>264</v>
       </c>
       <c r="B260" t="n">
-        <v>-51.7963</v>
+        <v>49.3723</v>
       </c>
       <c r="C260" t="n">
-        <v>-59.5236</v>
+        <v>-2.3644</v>
       </c>
       <c r="D260" t="n">
-        <v>20.0065789473684</v>
+        <v>1439.2932166302</v>
       </c>
       <c r="E260" t="n">
-        <v>20.0065789473684</v>
+        <v>1439.2932166302</v>
       </c>
       <c r="F260" t="n">
-        <v>9123</v>
+        <v>657757</v>
       </c>
     </row>
     <row r="261">
@@ -6384,19 +6383,19 @@
         <v>265</v>
       </c>
       <c r="B261" t="n">
-        <v>36.1408</v>
+        <v>-51.7963</v>
       </c>
       <c r="C261" t="n">
-        <v>-5.3536</v>
+        <v>-59.5236</v>
       </c>
       <c r="D261" t="n">
-        <v>1243.03947368421</v>
+        <v>20.1006564551422</v>
       </c>
       <c r="E261" t="n">
-        <v>1243.03947368421</v>
+        <v>20.1006564551422</v>
       </c>
       <c r="F261" t="n">
-        <v>566826</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="262">
@@ -6404,19 +6403,19 @@
         <v>266</v>
       </c>
       <c r="B262" t="n">
-        <v>54.2361</v>
+        <v>36.1408</v>
       </c>
       <c r="C262" t="n">
-        <v>-4.5481</v>
+        <v>-5.3536</v>
       </c>
       <c r="D262" t="n">
-        <v>410.782894736842</v>
+        <v>1249.70897155361</v>
       </c>
       <c r="E262" t="n">
-        <v>410.782894736842</v>
+        <v>1249.70897155361</v>
       </c>
       <c r="F262" t="n">
-        <v>187317</v>
+        <v>571117</v>
       </c>
     </row>
     <row r="263">
@@ -6424,19 +6423,19 @@
         <v>267</v>
       </c>
       <c r="B263" t="n">
-        <v>16.742498</v>
+        <v>54.2361</v>
       </c>
       <c r="C263" t="n">
-        <v>-62.187366</v>
+        <v>-4.5481</v>
       </c>
       <c r="D263" t="n">
-        <v>11.6140350877193</v>
+        <v>413.35010940919</v>
       </c>
       <c r="E263" t="n">
-        <v>11.6140350877193</v>
+        <v>413.35010940919</v>
       </c>
       <c r="F263" t="n">
-        <v>5296</v>
+        <v>188901</v>
       </c>
     </row>
     <row r="264">
@@ -6444,19 +6443,19 @@
         <v>268</v>
       </c>
       <c r="B264" t="n">
-        <v>-7.9467</v>
+        <v>16.742498</v>
       </c>
       <c r="C264" t="n">
-        <v>-14.3559</v>
+        <v>-62.187366</v>
       </c>
       <c r="D264" t="n">
-        <v>1.60964912280702</v>
+        <v>11.6323851203501</v>
       </c>
       <c r="E264" t="n">
-        <v>1.60964912280702</v>
+        <v>11.6323851203501</v>
       </c>
       <c r="F264" t="n">
-        <v>734</v>
+        <v>5316</v>
       </c>
     </row>
     <row r="265">
@@ -6464,19 +6463,19 @@
         <v>269</v>
       </c>
       <c r="B265" t="n">
-        <v>21.694</v>
+        <v>-7.9467</v>
       </c>
       <c r="C265" t="n">
-        <v>-71.7979</v>
+        <v>-14.3559</v>
       </c>
       <c r="D265" t="n">
-        <v>668.861842105263</v>
+        <v>1.61487964989059</v>
       </c>
       <c r="E265" t="n">
-        <v>668.861842105263</v>
+        <v>1.61487964989059</v>
       </c>
       <c r="F265" t="n">
-        <v>305001</v>
+        <v>738</v>
       </c>
     </row>
     <row r="266">
@@ -6484,19 +6483,19 @@
         <v>270</v>
       </c>
       <c r="B266" t="n">
-        <v>55.3781</v>
+        <v>21.694</v>
       </c>
       <c r="C266" t="n">
-        <v>-3.436</v>
+        <v>-71.7979</v>
       </c>
       <c r="D266" t="n">
-        <v>1341899.67324561</v>
+        <v>672.586433260394</v>
       </c>
       <c r="E266" t="n">
-        <v>1341899.67324561</v>
+        <v>672.586433260394</v>
       </c>
       <c r="F266" t="n">
-        <v>611906251</v>
+        <v>307372</v>
       </c>
     </row>
     <row r="267">
@@ -6504,19 +6503,19 @@
         <v>271</v>
       </c>
       <c r="B267" t="n">
-        <v>-32.5228</v>
+        <v>55.3781</v>
       </c>
       <c r="C267" t="n">
-        <v>-55.7658</v>
+        <v>-3.436</v>
       </c>
       <c r="D267" t="n">
-        <v>18562.5745614035</v>
+        <v>1348587.92560175</v>
       </c>
       <c r="E267" t="n">
-        <v>18562.5745614035</v>
+        <v>1348587.92560175</v>
       </c>
       <c r="F267" t="n">
-        <v>8464534</v>
+        <v>616304682</v>
       </c>
     </row>
     <row r="268">
@@ -6524,19 +6523,19 @@
         <v>272</v>
       </c>
       <c r="B268" t="n">
-        <v>41.377491</v>
+        <v>-32.5228</v>
       </c>
       <c r="C268" t="n">
-        <v>64.585262</v>
+        <v>-55.7658</v>
       </c>
       <c r="D268" t="n">
-        <v>40832.1929824561</v>
+        <v>18906.8380743982</v>
       </c>
       <c r="E268" t="n">
-        <v>40832.1929824561</v>
+        <v>18906.8380743982</v>
       </c>
       <c r="F268" t="n">
-        <v>18619480</v>
+        <v>8640425</v>
       </c>
     </row>
     <row r="269">
@@ -6544,19 +6543,19 @@
         <v>273</v>
       </c>
       <c r="B269" t="n">
-        <v>-15.3767</v>
+        <v>41.377491</v>
       </c>
       <c r="C269" t="n">
-        <v>166.9592</v>
+        <v>64.585262</v>
       </c>
       <c r="D269" t="n">
-        <v>0.557017543859649</v>
+        <v>40935.2625820569</v>
       </c>
       <c r="E269" t="n">
-        <v>0.557017543859649</v>
+        <v>40935.2625820569</v>
       </c>
       <c r="F269" t="n">
-        <v>254</v>
+        <v>18707415</v>
       </c>
     </row>
     <row r="270">
@@ -6564,19 +6563,19 @@
         <v>274</v>
       </c>
       <c r="B270" t="n">
-        <v>6.4238</v>
+        <v>-15.3767</v>
       </c>
       <c r="C270" t="n">
-        <v>-66.5897</v>
+        <v>166.9592</v>
       </c>
       <c r="D270" t="n">
-        <v>61412.625</v>
+        <v>0.564551422319475</v>
       </c>
       <c r="E270" t="n">
-        <v>61412.625</v>
+        <v>0.564551422319475</v>
       </c>
       <c r="F270" t="n">
-        <v>28004157</v>
+        <v>258</v>
       </c>
     </row>
     <row r="271">
@@ -6584,19 +6583,19 @@
         <v>275</v>
       </c>
       <c r="B271" t="n">
-        <v>14.058324</v>
+        <v>6.4238</v>
       </c>
       <c r="C271" t="n">
-        <v>108.277199</v>
+        <v>-66.5897</v>
       </c>
       <c r="D271" t="n">
-        <v>1019.80263157895</v>
+        <v>61689.7592997812</v>
       </c>
       <c r="E271" t="n">
-        <v>1019.80263157895</v>
+        <v>61689.7592997812</v>
       </c>
       <c r="F271" t="n">
-        <v>465030</v>
+        <v>28192220</v>
       </c>
     </row>
     <row r="272">
@@ -6604,19 +6603,19 @@
         <v>276</v>
       </c>
       <c r="B272" t="n">
-        <v>31.9522</v>
+        <v>14.058324</v>
       </c>
       <c r="C272" t="n">
-        <v>35.2332</v>
+        <v>108.277199</v>
       </c>
       <c r="D272" t="n">
-        <v>66660.7127192982</v>
+        <v>1023.75054704595</v>
       </c>
       <c r="E272" t="n">
-        <v>66660.7127192982</v>
+        <v>1023.75054704595</v>
       </c>
       <c r="F272" t="n">
-        <v>30397285</v>
+        <v>467854</v>
       </c>
     </row>
     <row r="273">
@@ -6624,19 +6623,19 @@
         <v>277</v>
       </c>
       <c r="B273" t="n">
-        <v>15.552727</v>
+        <v>31.9522</v>
       </c>
       <c r="C273" t="n">
-        <v>48.516388</v>
+        <v>35.2332</v>
       </c>
       <c r="D273" t="n">
-        <v>1571.85745614035</v>
+        <v>67144.3435448578</v>
       </c>
       <c r="E273" t="n">
-        <v>1571.85745614035</v>
+        <v>67144.3435448578</v>
       </c>
       <c r="F273" t="n">
-        <v>716767</v>
+        <v>30684965</v>
       </c>
     </row>
     <row r="274">
@@ -6644,19 +6643,19 @@
         <v>278</v>
       </c>
       <c r="B274" t="n">
-        <v>-13.133897</v>
+        <v>15.552727</v>
       </c>
       <c r="C274" t="n">
-        <v>27.849332</v>
+        <v>48.516388</v>
       </c>
       <c r="D274" t="n">
-        <v>21898.2697368421</v>
+        <v>1581.59080962801</v>
       </c>
       <c r="E274" t="n">
-        <v>21898.2697368421</v>
+        <v>1581.59080962801</v>
       </c>
       <c r="F274" t="n">
-        <v>9985611</v>
+        <v>722787</v>
       </c>
     </row>
     <row r="275">
@@ -6664,19 +6663,39 @@
         <v>279</v>
       </c>
       <c r="B275" t="n">
+        <v>-13.133897</v>
+      </c>
+      <c r="C275" t="n">
+        <v>27.849332</v>
+      </c>
+      <c r="D275" t="n">
+        <v>22049.8905908096</v>
+      </c>
+      <c r="E275" t="n">
+        <v>22049.8905908096</v>
+      </c>
+      <c r="F275" t="n">
+        <v>10076800</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>280</v>
+      </c>
+      <c r="B276" t="n">
         <v>-19.015438</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C276" t="n">
         <v>29.154857</v>
       </c>
-      <c r="D275" t="n">
-        <v>11016.2609649123</v>
-      </c>
-      <c r="E275" t="n">
-        <v>11016.2609649123</v>
-      </c>
-      <c r="F275" t="n">
-        <v>5023415</v>
+      <c r="D276" t="n">
+        <v>11075.3457330416</v>
+      </c>
+      <c r="E276" t="n">
+        <v>11075.3457330416</v>
+      </c>
+      <c r="F276" t="n">
+        <v>5061433</v>
       </c>
     </row>
   </sheetData>

--- a/output_xlsx/metadata_deaths.xlsx
+++ b/output_xlsx/metadata_deaths.xlsx
@@ -1217,13 +1217,13 @@
         <v>67.709953</v>
       </c>
       <c r="D2" t="n">
-        <v>32175.1531728665</v>
+        <v>33923.2510288066</v>
       </c>
       <c r="E2" t="n">
-        <v>32175.1531728665</v>
+        <v>33923.2510288066</v>
       </c>
       <c r="F2" t="n">
-        <v>14704045</v>
+        <v>16486700</v>
       </c>
     </row>
     <row r="3">
@@ -1237,13 +1237,13 @@
         <v>20.1683</v>
       </c>
       <c r="D3" t="n">
-        <v>32601.4398249453</v>
+        <v>38499.8971193416</v>
       </c>
       <c r="E3" t="n">
-        <v>32601.4398249453</v>
+        <v>38499.8971193416</v>
       </c>
       <c r="F3" t="n">
-        <v>14898858</v>
+        <v>18710950</v>
       </c>
     </row>
     <row r="4">
@@ -1257,13 +1257,13 @@
         <v>1.6596</v>
       </c>
       <c r="D4" t="n">
-        <v>50506.2647702407</v>
+        <v>54864.512345679</v>
       </c>
       <c r="E4" t="n">
-        <v>50506.2647702407</v>
+        <v>54864.512345679</v>
       </c>
       <c r="F4" t="n">
-        <v>23081363</v>
+        <v>26664153</v>
       </c>
     </row>
     <row r="5">
@@ -1277,13 +1277,13 @@
         <v>1.5218</v>
       </c>
       <c r="D5" t="n">
-        <v>4121.65207877462</v>
+        <v>4672.20576131687</v>
       </c>
       <c r="E5" t="n">
-        <v>4121.65207877462</v>
+        <v>4672.20576131687</v>
       </c>
       <c r="F5" t="n">
-        <v>1883595</v>
+        <v>2270692</v>
       </c>
     </row>
     <row r="6">
@@ -1297,13 +1297,13 @@
         <v>17.8739</v>
       </c>
       <c r="D6" t="n">
-        <v>8048.77461706783</v>
+        <v>9258.53497942387</v>
       </c>
       <c r="E6" t="n">
-        <v>8048.77461706783</v>
+        <v>9258.53497942387</v>
       </c>
       <c r="F6" t="n">
-        <v>3678290</v>
+        <v>4499648</v>
       </c>
     </row>
     <row r="7">
@@ -1317,13 +1317,13 @@
         <v>-61.7964</v>
       </c>
       <c r="D7" t="n">
-        <v>214.319474835886</v>
+        <v>275.316872427984</v>
       </c>
       <c r="E7" t="n">
-        <v>214.319474835886</v>
+        <v>275.316872427984</v>
       </c>
       <c r="F7" t="n">
-        <v>97944</v>
+        <v>133804</v>
       </c>
     </row>
     <row r="8">
@@ -1337,13 +1337,13 @@
         <v>-63.6167</v>
       </c>
       <c r="D8" t="n">
-        <v>843185.538293217</v>
+        <v>979176.62962963</v>
       </c>
       <c r="E8" t="n">
-        <v>843185.538293217</v>
+        <v>979176.62962963</v>
       </c>
       <c r="F8" t="n">
-        <v>385335791</v>
+        <v>475879842</v>
       </c>
     </row>
     <row r="9">
@@ -1357,13 +1357,13 @@
         <v>45.0382</v>
       </c>
       <c r="D9" t="n">
-        <v>75355.1838074398</v>
+        <v>83865.3950617284</v>
       </c>
       <c r="E9" t="n">
-        <v>75355.1838074398</v>
+        <v>83865.3950617284</v>
       </c>
       <c r="F9" t="n">
-        <v>34437319</v>
+        <v>40758582</v>
       </c>
     </row>
     <row r="10">
@@ -1377,13 +1377,13 @@
         <v>149.0124</v>
       </c>
       <c r="D10" t="n">
-        <v>97.5404814004376</v>
+        <v>99.1069958847737</v>
       </c>
       <c r="E10" t="n">
-        <v>97.5404814004376</v>
+        <v>99.1069958847737</v>
       </c>
       <c r="F10" t="n">
-        <v>44576</v>
+        <v>48166</v>
       </c>
     </row>
     <row r="11">
@@ -1397,13 +1397,13 @@
         <v>151.2093</v>
       </c>
       <c r="D11" t="n">
-        <v>3595.18161925602</v>
+        <v>3709.62962962963</v>
       </c>
       <c r="E11" t="n">
-        <v>3595.18161925602</v>
+        <v>3709.62962962963</v>
       </c>
       <c r="F11" t="n">
-        <v>1642998</v>
+        <v>1802880</v>
       </c>
     </row>
     <row r="12">
@@ -1417,13 +1417,13 @@
         <v>130.8456</v>
       </c>
       <c r="D12" t="n">
-        <v>47.4857768052516</v>
+        <v>54.5946502057613</v>
       </c>
       <c r="E12" t="n">
-        <v>47.4857768052516</v>
+        <v>54.5946502057613</v>
       </c>
       <c r="F12" t="n">
-        <v>21701</v>
+        <v>26533</v>
       </c>
     </row>
     <row r="13">
@@ -1437,13 +1437,13 @@
         <v>153.0251</v>
       </c>
       <c r="D13" t="n">
-        <v>1017.69146608315</v>
+        <v>1050.6975308642</v>
       </c>
       <c r="E13" t="n">
-        <v>1017.69146608315</v>
+        <v>1050.6975308642</v>
       </c>
       <c r="F13" t="n">
-        <v>465085</v>
+        <v>510639</v>
       </c>
     </row>
     <row r="14">
@@ -1457,13 +1457,13 @@
         <v>138.6007</v>
       </c>
       <c r="D14" t="n">
-        <v>443.387308533917</v>
+        <v>460.615226337449</v>
       </c>
       <c r="E14" t="n">
-        <v>443.387308533917</v>
+        <v>460.615226337449</v>
       </c>
       <c r="F14" t="n">
-        <v>202628</v>
+        <v>223859</v>
       </c>
     </row>
     <row r="15">
@@ -1477,13 +1477,13 @@
         <v>147.3272</v>
       </c>
       <c r="D15" t="n">
-        <v>191.82056892779</v>
+        <v>194.337448559671</v>
       </c>
       <c r="E15" t="n">
-        <v>191.82056892779</v>
+        <v>194.337448559671</v>
       </c>
       <c r="F15" t="n">
-        <v>87662</v>
+        <v>94448</v>
       </c>
     </row>
     <row r="16">
@@ -1497,13 +1497,13 @@
         <v>144.9631</v>
       </c>
       <c r="D16" t="n">
-        <v>12227.5667396061</v>
+        <v>12722.9526748971</v>
       </c>
       <c r="E16" t="n">
-        <v>12227.5667396061</v>
+        <v>12722.9526748971</v>
       </c>
       <c r="F16" t="n">
-        <v>5587998</v>
+        <v>6183355</v>
       </c>
     </row>
     <row r="17">
@@ -1517,13 +1517,13 @@
         <v>115.8605</v>
       </c>
       <c r="D17" t="n">
-        <v>630.835886214442</v>
+        <v>653.298353909465</v>
       </c>
       <c r="E17" t="n">
-        <v>630.835886214442</v>
+        <v>653.298353909465</v>
       </c>
       <c r="F17" t="n">
-        <v>288292</v>
+        <v>317503</v>
       </c>
     </row>
     <row r="18">
@@ -1537,13 +1537,13 @@
         <v>14.5501</v>
       </c>
       <c r="D18" t="n">
-        <v>163371.820568928</v>
+        <v>191000.156378601</v>
       </c>
       <c r="E18" t="n">
-        <v>163371.820568928</v>
+        <v>191000.156378601</v>
       </c>
       <c r="F18" t="n">
-        <v>74660922</v>
+        <v>92826076</v>
       </c>
     </row>
     <row r="19">
@@ -1557,13 +1557,13 @@
         <v>47.5769</v>
       </c>
       <c r="D19" t="n">
-        <v>88223.4026258206</v>
+        <v>102269.316872428</v>
       </c>
       <c r="E19" t="n">
-        <v>88223.4026258206</v>
+        <v>102269.316872428</v>
       </c>
       <c r="F19" t="n">
-        <v>40318095</v>
+        <v>49702888</v>
       </c>
     </row>
     <row r="20">
@@ -1577,13 +1577,13 @@
         <v>-78.035889</v>
       </c>
       <c r="D20" t="n">
-        <v>3799.92560175055</v>
+        <v>4212.72222222222</v>
       </c>
       <c r="E20" t="n">
-        <v>3799.92560175055</v>
+        <v>4212.72222222222</v>
       </c>
       <c r="F20" t="n">
-        <v>1736566</v>
+        <v>2047383</v>
       </c>
     </row>
     <row r="21">
@@ -1597,13 +1597,13 @@
         <v>50.55</v>
       </c>
       <c r="D21" t="n">
-        <v>58403.7352297593</v>
+        <v>66118.0452674897</v>
       </c>
       <c r="E21" t="n">
-        <v>58403.7352297593</v>
+        <v>66118.0452674897</v>
       </c>
       <c r="F21" t="n">
-        <v>26690507</v>
+        <v>32133370</v>
       </c>
     </row>
     <row r="22">
@@ -1617,13 +1617,13 @@
         <v>90.3563</v>
       </c>
       <c r="D22" t="n">
-        <v>290775.076586433</v>
+        <v>319244.611111111</v>
       </c>
       <c r="E22" t="n">
-        <v>290775.076586433</v>
+        <v>319244.611111111</v>
       </c>
       <c r="F22" t="n">
-        <v>132884210</v>
+        <v>155152881</v>
       </c>
     </row>
     <row r="23">
@@ -1637,13 +1637,13 @@
         <v>-59.5432</v>
       </c>
       <c r="D23" t="n">
-        <v>720.754923413567</v>
+        <v>911.008230452675</v>
       </c>
       <c r="E23" t="n">
-        <v>720.754923413567</v>
+        <v>911.008230452675</v>
       </c>
       <c r="F23" t="n">
-        <v>329385</v>
+        <v>442750</v>
       </c>
     </row>
     <row r="24">
@@ -1657,13 +1657,13 @@
         <v>27.9534</v>
       </c>
       <c r="D24" t="n">
-        <v>113141.518599562</v>
+        <v>128245.934156379</v>
       </c>
       <c r="E24" t="n">
-        <v>113141.518599562</v>
+        <v>128245.934156379</v>
       </c>
       <c r="F24" t="n">
-        <v>51705674</v>
+        <v>62327524</v>
       </c>
     </row>
     <row r="25">
@@ -1677,13 +1677,13 @@
         <v>4.469936</v>
       </c>
       <c r="D25" t="n">
-        <v>309297.024070022</v>
+        <v>351003.121399177</v>
       </c>
       <c r="E25" t="n">
-        <v>309297.024070022</v>
+        <v>351003.121399177</v>
       </c>
       <c r="F25" t="n">
-        <v>141348740</v>
+        <v>170587517</v>
       </c>
     </row>
     <row r="26">
@@ -1697,13 +1697,13 @@
         <v>-88.4976</v>
       </c>
       <c r="D26" t="n">
-        <v>4221.64332603939</v>
+        <v>4726.60082304527</v>
       </c>
       <c r="E26" t="n">
-        <v>4221.64332603939</v>
+        <v>4726.60082304527</v>
       </c>
       <c r="F26" t="n">
-        <v>1929291</v>
+        <v>2297128</v>
       </c>
     </row>
     <row r="27">
@@ -1717,13 +1717,13 @@
         <v>2.3158</v>
       </c>
       <c r="D27" t="n">
-        <v>2346.36323851203</v>
+        <v>2677.22222222222</v>
       </c>
       <c r="E27" t="n">
-        <v>2346.36323851203</v>
+        <v>2677.22222222222</v>
       </c>
       <c r="F27" t="n">
-        <v>1072288</v>
+        <v>1301130</v>
       </c>
     </row>
     <row r="28">
@@ -1737,13 +1737,13 @@
         <v>90.4336</v>
       </c>
       <c r="D28" t="n">
-        <v>328.652078774617</v>
+        <v>379.417695473251</v>
       </c>
       <c r="E28" t="n">
-        <v>328.652078774617</v>
+        <v>379.417695473251</v>
       </c>
       <c r="F28" t="n">
-        <v>150194</v>
+        <v>184397</v>
       </c>
     </row>
     <row r="29">
@@ -1757,13 +1757,13 @@
         <v>-63.5887</v>
       </c>
       <c r="D29" t="n">
-        <v>107934.903719912</v>
+        <v>120359.33127572</v>
       </c>
       <c r="E29" t="n">
-        <v>107934.903719912</v>
+        <v>120359.33127572</v>
       </c>
       <c r="F29" t="n">
-        <v>49326251</v>
+        <v>58494635</v>
       </c>
     </row>
     <row r="30">
@@ -1777,13 +1777,13 @@
         <v>17.6791</v>
       </c>
       <c r="D30" t="n">
-        <v>52152.7921225383</v>
+        <v>60964.4650205761</v>
       </c>
       <c r="E30" t="n">
-        <v>52152.7921225383</v>
+        <v>60964.4650205761</v>
       </c>
       <c r="F30" t="n">
-        <v>23833826</v>
+        <v>29628730</v>
       </c>
     </row>
     <row r="31">
@@ -1797,13 +1797,13 @@
         <v>24.6849</v>
       </c>
       <c r="D31" t="n">
-        <v>9273.36761487965</v>
+        <v>11605.5102880658</v>
       </c>
       <c r="E31" t="n">
-        <v>9273.36761487965</v>
+        <v>11605.5102880658</v>
       </c>
       <c r="F31" t="n">
-        <v>4237929</v>
+        <v>5640278</v>
       </c>
     </row>
     <row r="32">
@@ -1817,13 +1817,13 @@
         <v>-51.9253</v>
       </c>
       <c r="D32" t="n">
-        <v>4566029.63238512</v>
+        <v>5192786.95473251</v>
       </c>
       <c r="E32" t="n">
-        <v>4566029.63238512</v>
+        <v>5192786.95473251</v>
       </c>
       <c r="F32" t="n">
-        <v>2086675542</v>
+        <v>2523694460</v>
       </c>
     </row>
     <row r="33">
@@ -1837,13 +1837,13 @@
         <v>114.7277</v>
       </c>
       <c r="D33" t="n">
-        <v>137.18818380744</v>
+        <v>142.641975308642</v>
       </c>
       <c r="E33" t="n">
-        <v>137.18818380744</v>
+        <v>142.641975308642</v>
       </c>
       <c r="F33" t="n">
-        <v>62695</v>
+        <v>69324</v>
       </c>
     </row>
     <row r="34">
@@ -1857,13 +1857,13 @@
         <v>25.4858</v>
       </c>
       <c r="D34" t="n">
-        <v>90484.7264770241</v>
+        <v>109447.117283951</v>
       </c>
       <c r="E34" t="n">
-        <v>90484.7264770241</v>
+        <v>109447.117283951</v>
       </c>
       <c r="F34" t="n">
-        <v>41351520</v>
+        <v>53191299</v>
       </c>
     </row>
     <row r="35">
@@ -1877,13 +1877,13 @@
         <v>-1.5616</v>
       </c>
       <c r="D35" t="n">
-        <v>3840.14442013129</v>
+        <v>4407.329218107</v>
       </c>
       <c r="E35" t="n">
-        <v>3840.14442013129</v>
+        <v>4407.329218107</v>
       </c>
       <c r="F35" t="n">
-        <v>1754946</v>
+        <v>2141962</v>
       </c>
     </row>
     <row r="36">
@@ -1897,13 +1897,13 @@
         <v>95.956</v>
       </c>
       <c r="D36" t="n">
-        <v>49072.5032822757</v>
+        <v>54672.6028806584</v>
       </c>
       <c r="E36" t="n">
-        <v>49072.5032822757</v>
+        <v>54672.6028806584</v>
       </c>
       <c r="F36" t="n">
-        <v>22426134</v>
+        <v>26570885</v>
       </c>
     </row>
     <row r="37">
@@ -1917,13 +1917,13 @@
         <v>29.9189</v>
       </c>
       <c r="D37" t="n">
-        <v>736.039387308534</v>
+        <v>938.259259259259</v>
       </c>
       <c r="E37" t="n">
-        <v>736.039387308534</v>
+        <v>938.259259259259</v>
       </c>
       <c r="F37" t="n">
-        <v>336370</v>
+        <v>455994</v>
       </c>
     </row>
     <row r="38">
@@ -1937,13 +1937,13 @@
         <v>-23.0418</v>
       </c>
       <c r="D38" t="n">
-        <v>6476.19474835886</v>
+        <v>7620.3621399177</v>
       </c>
       <c r="E38" t="n">
-        <v>6476.19474835886</v>
+        <v>7620.3621399177</v>
       </c>
       <c r="F38" t="n">
-        <v>2959621</v>
+        <v>3703496</v>
       </c>
     </row>
     <row r="39">
@@ -1957,13 +1957,13 @@
         <v>104.9167</v>
       </c>
       <c r="D39" t="n">
-        <v>525.35010940919</v>
+        <v>1527.30864197531</v>
       </c>
       <c r="E39" t="n">
-        <v>525.35010940919</v>
+        <v>1527.30864197531</v>
       </c>
       <c r="F39" t="n">
-        <v>240085</v>
+        <v>742272</v>
       </c>
     </row>
     <row r="40">
@@ -1977,13 +1977,13 @@
         <v>11.5021</v>
       </c>
       <c r="D40" t="n">
-        <v>18843.9212253829</v>
+        <v>22063.3374485597</v>
       </c>
       <c r="E40" t="n">
-        <v>18843.9212253829</v>
+        <v>22063.3374485597</v>
       </c>
       <c r="F40" t="n">
-        <v>8611672</v>
+        <v>10722782</v>
       </c>
     </row>
     <row r="41">
@@ -1997,13 +1997,13 @@
         <v>-116.5765</v>
       </c>
       <c r="D41" t="n">
-        <v>46401.8840262582</v>
+        <v>55763.5802469136</v>
       </c>
       <c r="E41" t="n">
-        <v>46401.8840262582</v>
+        <v>55763.5802469136</v>
       </c>
       <c r="F41" t="n">
-        <v>21205661</v>
+        <v>27101100</v>
       </c>
     </row>
     <row r="42">
@@ -2017,13 +2017,13 @@
         <v>-127.6476</v>
       </c>
       <c r="D42" t="n">
-        <v>26686.9146608315</v>
+        <v>33054.487654321</v>
       </c>
       <c r="E42" t="n">
-        <v>26686.9146608315</v>
+        <v>33054.487654321</v>
       </c>
       <c r="F42" t="n">
-        <v>12195920</v>
+        <v>16064481</v>
       </c>
     </row>
     <row r="43">
@@ -2037,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0700218818380744</v>
+        <v>0.065843621399177</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0700218818380744</v>
+        <v>0.065843621399177</v>
       </c>
       <c r="F43" t="n">
         <v>32</v>
@@ -2057,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>11.4113785557987</v>
+        <v>11.5061728395062</v>
       </c>
       <c r="E44" t="n">
-        <v>11.4113785557987</v>
+        <v>11.5061728395062</v>
       </c>
       <c r="F44" t="n">
-        <v>5215</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="45">
@@ -2077,13 +2077,13 @@
         <v>-98.8139</v>
       </c>
       <c r="D45" t="n">
-        <v>10314.4245076586</v>
+        <v>12176.1646090535</v>
       </c>
       <c r="E45" t="n">
-        <v>10314.4245076586</v>
+        <v>12176.1646090535</v>
       </c>
       <c r="F45" t="n">
-        <v>4713692</v>
+        <v>5917616</v>
       </c>
     </row>
     <row r="46">
@@ -2097,13 +2097,13 @@
         <v>-66.4619</v>
       </c>
       <c r="D46" t="n">
-        <v>477.98249452954</v>
+        <v>567.590534979424</v>
       </c>
       <c r="E46" t="n">
-        <v>477.98249452954</v>
+        <v>567.590534979424</v>
       </c>
       <c r="F46" t="n">
-        <v>218438</v>
+        <v>275849</v>
       </c>
     </row>
     <row r="47">
@@ -2117,13 +2117,13 @@
         <v>-57.6604</v>
       </c>
       <c r="D47" t="n">
-        <v>358</v>
+        <v>404.092592592593</v>
       </c>
       <c r="E47" t="n">
-        <v>358</v>
+        <v>404.092592592593</v>
       </c>
       <c r="F47" t="n">
-        <v>163606</v>
+        <v>196389</v>
       </c>
     </row>
     <row r="48">
@@ -2137,13 +2137,13 @@
         <v>-124.8457</v>
       </c>
       <c r="D48" t="n">
-        <v>14.6673960612691</v>
+        <v>19.2901234567901</v>
       </c>
       <c r="E48" t="n">
-        <v>14.6673960612691</v>
+        <v>19.2901234567901</v>
       </c>
       <c r="F48" t="n">
-        <v>6703</v>
+        <v>9375</v>
       </c>
     </row>
     <row r="49">
@@ -2157,13 +2157,13 @@
         <v>-63.7443</v>
       </c>
       <c r="D49" t="n">
-        <v>1044.5295404814</v>
+        <v>1192.22633744856</v>
       </c>
       <c r="E49" t="n">
-        <v>1044.5295404814</v>
+        <v>1192.22633744856</v>
       </c>
       <c r="F49" t="n">
-        <v>477350</v>
+        <v>579422</v>
       </c>
     </row>
     <row r="50">
@@ -2177,13 +2177,13 @@
         <v>-83.1076</v>
       </c>
       <c r="D50" t="n">
-        <v>104.111597374179</v>
+        <v>130.810699588477</v>
       </c>
       <c r="E50" t="n">
-        <v>104.111597374179</v>
+        <v>130.810699588477</v>
       </c>
       <c r="F50" t="n">
-        <v>47579</v>
+        <v>63574</v>
       </c>
     </row>
     <row r="51">
@@ -2197,13 +2197,13 @@
         <v>-85.3232</v>
       </c>
       <c r="D51" t="n">
-        <v>109560.89059081</v>
+        <v>132339.557613169</v>
       </c>
       <c r="E51" t="n">
-        <v>109560.89059081</v>
+        <v>132339.557613169</v>
       </c>
       <c r="F51" t="n">
-        <v>50069327</v>
+        <v>64317025</v>
       </c>
     </row>
     <row r="52">
@@ -2217,13 +2217,13 @@
         <v>-63.4168</v>
       </c>
       <c r="D52" t="n">
-        <v>60.45295404814</v>
+        <v>67.7921810699588</v>
       </c>
       <c r="E52" t="n">
-        <v>60.45295404814</v>
+        <v>67.7921810699588</v>
       </c>
       <c r="F52" t="n">
-        <v>27627</v>
+        <v>32947</v>
       </c>
     </row>
     <row r="53">
@@ -2237,13 +2237,13 @@
         <v>-73.5491</v>
       </c>
       <c r="D53" t="n">
-        <v>114806.566739606</v>
+        <v>129174.664609053</v>
       </c>
       <c r="E53" t="n">
-        <v>114806.566739606</v>
+        <v>129174.664609053</v>
       </c>
       <c r="F53" t="n">
-        <v>52466601</v>
+        <v>62778887</v>
       </c>
     </row>
     <row r="54">
@@ -2253,13 +2253,13 @@
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54" t="n">
-        <v>4.26695842450766</v>
+        <v>4.7880658436214</v>
       </c>
       <c r="E54" t="n">
-        <v>4.26695842450766</v>
+        <v>4.7880658436214</v>
       </c>
       <c r="F54" t="n">
-        <v>1950</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="55">
@@ -2273,13 +2273,13 @@
         <v>-106.4509</v>
       </c>
       <c r="D55" t="n">
-        <v>8567.09190371991</v>
+        <v>10596.3456790123</v>
       </c>
       <c r="E55" t="n">
-        <v>8567.09190371991</v>
+        <v>10596.3456790123</v>
       </c>
       <c r="F55" t="n">
-        <v>3915161</v>
+        <v>5149824</v>
       </c>
     </row>
     <row r="56">
@@ -2293,13 +2293,13 @@
         <v>-135</v>
       </c>
       <c r="D56" t="n">
-        <v>29.4201312910284</v>
+        <v>32.5761316872428</v>
       </c>
       <c r="E56" t="n">
-        <v>29.4201312910284</v>
+        <v>32.5761316872428</v>
       </c>
       <c r="F56" t="n">
-        <v>13445</v>
+        <v>15832</v>
       </c>
     </row>
     <row r="57">
@@ -2313,13 +2313,13 @@
         <v>20.9394</v>
       </c>
       <c r="D57" t="n">
-        <v>3344.09409190372</v>
+        <v>3539.59259259259</v>
       </c>
       <c r="E57" t="n">
-        <v>3344.09409190372</v>
+        <v>3539.59259259259</v>
       </c>
       <c r="F57" t="n">
-        <v>1528251</v>
+        <v>1720242</v>
       </c>
     </row>
     <row r="58">
@@ -2333,13 +2333,13 @@
         <v>18.7322</v>
       </c>
       <c r="D58" t="n">
-        <v>1539.70021881838</v>
+        <v>1737.2962962963</v>
       </c>
       <c r="E58" t="n">
-        <v>1539.70021881838</v>
+        <v>1737.2962962963</v>
       </c>
       <c r="F58" t="n">
-        <v>703643</v>
+        <v>844326</v>
       </c>
     </row>
     <row r="59">
@@ -2353,13 +2353,13 @@
         <v>-71.543</v>
       </c>
       <c r="D59" t="n">
-        <v>408387.516411379</v>
+        <v>457750.495884774</v>
       </c>
       <c r="E59" t="n">
-        <v>408387.516411379</v>
+        <v>457750.495884774</v>
       </c>
       <c r="F59" t="n">
-        <v>186633095</v>
+        <v>222466741</v>
       </c>
     </row>
     <row r="60">
@@ -2373,13 +2373,13 @@
         <v>117.2264</v>
       </c>
       <c r="D60" t="n">
-        <v>961.597374179431</v>
+        <v>963.641975308642</v>
       </c>
       <c r="E60" t="n">
-        <v>961.597374179431</v>
+        <v>963.641975308642</v>
       </c>
       <c r="F60" t="n">
-        <v>439450</v>
+        <v>468330</v>
       </c>
     </row>
     <row r="61">
@@ -2393,13 +2393,13 @@
         <v>116.4142</v>
       </c>
       <c r="D61" t="n">
-        <v>815.886214442013</v>
+        <v>830.27366255144</v>
       </c>
       <c r="E61" t="n">
-        <v>815.886214442013</v>
+        <v>830.27366255144</v>
       </c>
       <c r="F61" t="n">
-        <v>372860</v>
+        <v>403513</v>
       </c>
     </row>
     <row r="62">
@@ -2413,13 +2413,13 @@
         <v>107.874</v>
       </c>
       <c r="D62" t="n">
-        <v>568.958424507659</v>
+        <v>570.61316872428</v>
       </c>
       <c r="E62" t="n">
-        <v>568.958424507659</v>
+        <v>570.61316872428</v>
       </c>
       <c r="F62" t="n">
-        <v>260014</v>
+        <v>277318</v>
       </c>
     </row>
     <row r="63">
@@ -2433,13 +2433,13 @@
         <v>117.9874</v>
       </c>
       <c r="D63" t="n">
-        <v>413.216630196937</v>
+        <v>424.08024691358</v>
       </c>
       <c r="E63" t="n">
-        <v>413.216630196937</v>
+        <v>424.08024691358</v>
       </c>
       <c r="F63" t="n">
-        <v>188840</v>
+        <v>206103</v>
       </c>
     </row>
     <row r="64">
@@ -2453,13 +2453,13 @@
         <v>104.2861</v>
       </c>
       <c r="D64" t="n">
-        <v>157.827133479212</v>
+        <v>159.925925925926</v>
       </c>
       <c r="E64" t="n">
-        <v>157.827133479212</v>
+        <v>159.925925925926</v>
       </c>
       <c r="F64" t="n">
-        <v>72127</v>
+        <v>77724</v>
       </c>
     </row>
     <row r="65">
@@ -2473,13 +2473,13 @@
         <v>113.4244</v>
       </c>
       <c r="D65" t="n">
-        <v>1765.97374179431</v>
+        <v>1801.78395061728</v>
       </c>
       <c r="E65" t="n">
-        <v>1765.97374179431</v>
+        <v>1801.78395061728</v>
       </c>
       <c r="F65" t="n">
-        <v>807050</v>
+        <v>875667</v>
       </c>
     </row>
     <row r="66">
@@ -2493,13 +2493,13 @@
         <v>108.7881</v>
       </c>
       <c r="D66" t="n">
-        <v>251.63238512035</v>
+        <v>252.940329218107</v>
       </c>
       <c r="E66" t="n">
-        <v>251.63238512035</v>
+        <v>252.940329218107</v>
       </c>
       <c r="F66" t="n">
-        <v>114996</v>
+        <v>122929</v>
       </c>
     </row>
     <row r="67">
@@ -2513,13 +2513,13 @@
         <v>106.8748</v>
       </c>
       <c r="D67" t="n">
-        <v>141.978118161926</v>
+        <v>142.277777777778</v>
       </c>
       <c r="E67" t="n">
-        <v>141.978118161926</v>
+        <v>142.277777777778</v>
       </c>
       <c r="F67" t="n">
-        <v>64884</v>
+        <v>69147</v>
       </c>
     </row>
     <row r="68">
@@ -2533,13 +2533,13 @@
         <v>109.7453</v>
       </c>
       <c r="D68" t="n">
-        <v>165.512035010941</v>
+        <v>166.841563786008</v>
       </c>
       <c r="E68" t="n">
-        <v>165.512035010941</v>
+        <v>166.841563786008</v>
       </c>
       <c r="F68" t="n">
-        <v>75639</v>
+        <v>81085</v>
       </c>
     </row>
     <row r="69">
@@ -2553,13 +2553,13 @@
         <v>116.1306</v>
       </c>
       <c r="D69" t="n">
-        <v>547.037199124726</v>
+        <v>592.981481481482</v>
       </c>
       <c r="E69" t="n">
-        <v>547.037199124726</v>
+        <v>592.981481481482</v>
       </c>
       <c r="F69" t="n">
-        <v>249996</v>
+        <v>288189</v>
       </c>
     </row>
     <row r="70">
@@ -2573,13 +2573,13 @@
         <v>127.7615</v>
       </c>
       <c r="D70" t="n">
-        <v>980.428884026258</v>
+        <v>1018.00617283951</v>
       </c>
       <c r="E70" t="n">
-        <v>980.428884026258</v>
+        <v>1018.00617283951</v>
       </c>
       <c r="F70" t="n">
-        <v>448056</v>
+        <v>494751</v>
       </c>
     </row>
     <row r="71">
@@ -2593,13 +2593,13 @@
         <v>114.9042</v>
       </c>
       <c r="D71" t="n">
-        <v>1248.08315098468</v>
+        <v>1251.91563786008</v>
       </c>
       <c r="E71" t="n">
-        <v>1248.08315098468</v>
+        <v>1251.91563786008</v>
       </c>
       <c r="F71" t="n">
-        <v>570374</v>
+        <v>608431</v>
       </c>
     </row>
     <row r="72">
@@ -2613,13 +2613,13 @@
         <v>114.2</v>
       </c>
       <c r="D72" t="n">
-        <v>4857.87527352298</v>
+        <v>5271.66872427984</v>
       </c>
       <c r="E72" t="n">
-        <v>4857.87527352298</v>
+        <v>5271.66872427984</v>
       </c>
       <c r="F72" t="n">
-        <v>2220049</v>
+        <v>2562031</v>
       </c>
     </row>
     <row r="73">
@@ -2633,13 +2633,13 @@
         <v>112.2707</v>
       </c>
       <c r="D73" t="n">
-        <v>65214.4442013129</v>
+        <v>65390.0864197531</v>
       </c>
       <c r="E73" t="n">
-        <v>65214.4442013129</v>
+        <v>65390.0864197531</v>
       </c>
       <c r="F73" t="n">
-        <v>29803001</v>
+        <v>31779582</v>
       </c>
     </row>
     <row r="74">
@@ -2653,13 +2653,13 @@
         <v>111.7088</v>
       </c>
       <c r="D74" t="n">
-        <v>994.667396061269</v>
+        <v>997.69341563786</v>
       </c>
       <c r="E74" t="n">
-        <v>994.667396061269</v>
+        <v>997.69341563786</v>
       </c>
       <c r="F74" t="n">
-        <v>454563</v>
+        <v>484879</v>
       </c>
     </row>
     <row r="75">
@@ -2673,13 +2673,13 @@
         <v>113.9448</v>
       </c>
       <c r="D75" t="n">
-        <v>254.89715536105</v>
+        <v>262.469135802469</v>
       </c>
       <c r="E75" t="n">
-        <v>254.89715536105</v>
+        <v>262.469135802469</v>
       </c>
       <c r="F75" t="n">
-        <v>116488</v>
+        <v>127560</v>
       </c>
     </row>
     <row r="76">
@@ -2693,13 +2693,13 @@
         <v>119.455</v>
       </c>
       <c r="D76" t="n">
-        <v>648.553610503282</v>
+        <v>652.810699588477</v>
       </c>
       <c r="E76" t="n">
-        <v>648.553610503282</v>
+        <v>652.810699588477</v>
       </c>
       <c r="F76" t="n">
-        <v>296389</v>
+        <v>317266</v>
       </c>
     </row>
     <row r="77">
@@ -2713,13 +2713,13 @@
         <v>115.7221</v>
       </c>
       <c r="D77" t="n">
-        <v>906.945295404814</v>
+        <v>908.738683127572</v>
       </c>
       <c r="E77" t="n">
-        <v>906.945295404814</v>
+        <v>908.738683127572</v>
       </c>
       <c r="F77" t="n">
-        <v>414474</v>
+        <v>441647</v>
       </c>
     </row>
     <row r="78">
@@ -2733,13 +2733,13 @@
         <v>126.1923</v>
       </c>
       <c r="D78" t="n">
-        <v>220.667396061269</v>
+        <v>241.691358024691</v>
       </c>
       <c r="E78" t="n">
-        <v>220.667396061269</v>
+        <v>241.691358024691</v>
       </c>
       <c r="F78" t="n">
-        <v>100845</v>
+        <v>117462</v>
       </c>
     </row>
     <row r="79">
@@ -2753,13 +2753,13 @@
         <v>122.6085</v>
       </c>
       <c r="D79" t="n">
-        <v>248.890590809628</v>
+        <v>258.578189300412</v>
       </c>
       <c r="E79" t="n">
-        <v>248.890590809628</v>
+        <v>258.578189300412</v>
       </c>
       <c r="F79" t="n">
-        <v>113743</v>
+        <v>125669</v>
       </c>
     </row>
     <row r="80">
@@ -2773,13 +2773,13 @@
         <v>113.55</v>
       </c>
       <c r="D80" t="n">
-        <v>41.0853391684902</v>
+        <v>41.5699588477366</v>
       </c>
       <c r="E80" t="n">
-        <v>41.0853391684902</v>
+        <v>41.5699588477366</v>
       </c>
       <c r="F80" t="n">
-        <v>18776</v>
+        <v>20203</v>
       </c>
     </row>
     <row r="81">
@@ -2793,13 +2793,13 @@
         <v>106.1655</v>
       </c>
       <c r="D81" t="n">
-        <v>72.4442013129103</v>
+        <v>72.6255144032922</v>
       </c>
       <c r="E81" t="n">
-        <v>72.4442013129103</v>
+        <v>72.6255144032922</v>
       </c>
       <c r="F81" t="n">
-        <v>33107</v>
+        <v>35296</v>
       </c>
     </row>
     <row r="82">
@@ -2813,13 +2813,13 @@
         <v>95.9956</v>
       </c>
       <c r="D82" t="n">
-        <v>17.6301969365427</v>
+        <v>17.6522633744856</v>
       </c>
       <c r="E82" t="n">
-        <v>17.6301969365427</v>
+        <v>17.6522633744856</v>
       </c>
       <c r="F82" t="n">
-        <v>8057</v>
+        <v>8579</v>
       </c>
     </row>
     <row r="83">
@@ -2833,13 +2833,13 @@
         <v>108.8701</v>
       </c>
       <c r="D83" t="n">
-        <v>391.223194748359</v>
+        <v>403.384773662551</v>
       </c>
       <c r="E83" t="n">
-        <v>391.223194748359</v>
+        <v>403.384773662551</v>
       </c>
       <c r="F83" t="n">
-        <v>178789</v>
+        <v>196045</v>
       </c>
     </row>
     <row r="84">
@@ -2853,13 +2853,13 @@
         <v>118.1498</v>
       </c>
       <c r="D84" t="n">
-        <v>791.868708971554</v>
+        <v>797.074074074074</v>
       </c>
       <c r="E84" t="n">
-        <v>791.868708971554</v>
+        <v>797.074074074074</v>
       </c>
       <c r="F84" t="n">
-        <v>361884</v>
+        <v>387378</v>
       </c>
     </row>
     <row r="85">
@@ -2873,13 +2873,13 @@
         <v>121.4491</v>
       </c>
       <c r="D85" t="n">
-        <v>1032.40700218818</v>
+        <v>1090.68518518519</v>
       </c>
       <c r="E85" t="n">
-        <v>1032.40700218818</v>
+        <v>1090.68518518519</v>
       </c>
       <c r="F85" t="n">
-        <v>471810</v>
+        <v>530073</v>
       </c>
     </row>
     <row r="86">
@@ -2893,13 +2893,13 @@
         <v>112.2922</v>
       </c>
       <c r="D86" t="n">
-        <v>197.409190371991</v>
+        <v>200.584362139918</v>
       </c>
       <c r="E86" t="n">
-        <v>197.409190371991</v>
+        <v>200.584362139918</v>
       </c>
       <c r="F86" t="n">
-        <v>90216</v>
+        <v>97484</v>
       </c>
     </row>
     <row r="87">
@@ -2913,13 +2913,13 @@
         <v>102.7103</v>
       </c>
       <c r="D87" t="n">
-        <v>685.122538293217</v>
+        <v>703.341563786008</v>
       </c>
       <c r="E87" t="n">
-        <v>685.122538293217</v>
+        <v>703.341563786008</v>
       </c>
       <c r="F87" t="n">
-        <v>313101</v>
+        <v>341824</v>
       </c>
     </row>
     <row r="88">
@@ -2933,13 +2933,13 @@
         <v>117.323</v>
       </c>
       <c r="D88" t="n">
-        <v>241.520787746171</v>
+        <v>250.166666666667</v>
       </c>
       <c r="E88" t="n">
-        <v>241.520787746171</v>
+        <v>250.166666666667</v>
       </c>
       <c r="F88" t="n">
-        <v>110375</v>
+        <v>121581</v>
       </c>
     </row>
     <row r="89">
@@ -2953,13 +2953,13 @@
         <v>88.0924</v>
       </c>
       <c r="D89" t="n">
-        <v>0.982494529540481</v>
+        <v>0.983539094650206</v>
       </c>
       <c r="E89" t="n">
-        <v>0.982494529540481</v>
+        <v>0.983539094650206</v>
       </c>
       <c r="F89" t="n">
-        <v>449</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90">
@@ -2969,13 +2969,13 @@
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90" t="n">
-        <v>2.30853391684902</v>
+        <v>0.01440329218107</v>
       </c>
       <c r="E90" t="n">
-        <v>2.30853391684902</v>
+        <v>0.01440329218107</v>
       </c>
       <c r="F90" t="n">
-        <v>1055</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -2989,13 +2989,13 @@
         <v>85.2401</v>
       </c>
       <c r="D91" t="n">
-        <v>585.763676148797</v>
+        <v>609.288065843621</v>
       </c>
       <c r="E91" t="n">
-        <v>585.763676148797</v>
+        <v>609.288065843621</v>
       </c>
       <c r="F91" t="n">
-        <v>267694</v>
+        <v>296114</v>
       </c>
     </row>
     <row r="92">
@@ -3009,13 +3009,13 @@
         <v>101.487</v>
       </c>
       <c r="D92" t="n">
-        <v>203.08533916849</v>
+        <v>211.621399176955</v>
       </c>
       <c r="E92" t="n">
-        <v>203.08533916849</v>
+        <v>211.621399176955</v>
       </c>
       <c r="F92" t="n">
-        <v>92810</v>
+        <v>102848</v>
       </c>
     </row>
     <row r="93">
@@ -3029,13 +3029,13 @@
         <v>120.0934</v>
       </c>
       <c r="D93" t="n">
-        <v>1247.99124726477</v>
+        <v>1253.80658436214</v>
       </c>
       <c r="E93" t="n">
-        <v>1247.99124726477</v>
+        <v>1253.80658436214</v>
       </c>
       <c r="F93" t="n">
-        <v>570332</v>
+        <v>609350</v>
       </c>
     </row>
     <row r="94">
@@ -3049,13 +3049,13 @@
         <v>-74.2973</v>
       </c>
       <c r="D94" t="n">
-        <v>882083.70678337</v>
+        <v>1006621.98559671</v>
       </c>
       <c r="E94" t="n">
-        <v>882083.70678337</v>
+        <v>1006621.98559671</v>
       </c>
       <c r="F94" t="n">
-        <v>403112254</v>
+        <v>489218285</v>
       </c>
     </row>
     <row r="95">
@@ -3069,13 +3069,13 @@
         <v>43.3333</v>
       </c>
       <c r="D95" t="n">
-        <v>956.415754923414</v>
+        <v>1129.00823045267</v>
       </c>
       <c r="E95" t="n">
-        <v>956.415754923414</v>
+        <v>1129.00823045267</v>
       </c>
       <c r="F95" t="n">
-        <v>437082</v>
+        <v>548698</v>
       </c>
     </row>
     <row r="96">
@@ -3089,13 +3089,13 @@
         <v>15.8277</v>
       </c>
       <c r="D96" t="n">
-        <v>4101.57549234136</v>
+        <v>4514.46913580247</v>
       </c>
       <c r="E96" t="n">
-        <v>4101.57549234136</v>
+        <v>4514.46913580247</v>
       </c>
       <c r="F96" t="n">
-        <v>1874420</v>
+        <v>2194032</v>
       </c>
     </row>
     <row r="97">
@@ -3109,13 +3109,13 @@
         <v>21.7587</v>
       </c>
       <c r="D97" t="n">
-        <v>10994.124726477</v>
+        <v>12138.7839506173</v>
       </c>
       <c r="E97" t="n">
-        <v>10994.124726477</v>
+        <v>12138.7839506173</v>
       </c>
       <c r="F97" t="n">
-        <v>5024315</v>
+        <v>5899449</v>
       </c>
     </row>
     <row r="98">
@@ -3129,13 +3129,13 @@
         <v>-83.7534</v>
       </c>
       <c r="D98" t="n">
-        <v>81479.9978118162</v>
+        <v>92461.646090535</v>
       </c>
       <c r="E98" t="n">
-        <v>81479.9978118162</v>
+        <v>92461.646090535</v>
       </c>
       <c r="F98" t="n">
-        <v>37236359</v>
+        <v>44936360</v>
       </c>
     </row>
     <row r="99">
@@ -3149,13 +3149,13 @@
         <v>-5.5471</v>
       </c>
       <c r="D99" t="n">
-        <v>16484.5601750547</v>
+        <v>18264.2407407407</v>
       </c>
       <c r="E99" t="n">
-        <v>16484.5601750547</v>
+        <v>18264.2407407407</v>
       </c>
       <c r="F99" t="n">
-        <v>7533444</v>
+        <v>8876421</v>
       </c>
     </row>
     <row r="100">
@@ -3169,13 +3169,13 @@
         <v>15.2</v>
       </c>
       <c r="D100" t="n">
-        <v>82811.5142231948</v>
+        <v>98134.1419753086</v>
       </c>
       <c r="E100" t="n">
-        <v>82811.5142231948</v>
+        <v>98134.1419753086</v>
       </c>
       <c r="F100" t="n">
-        <v>37844862</v>
+        <v>47693193</v>
       </c>
     </row>
     <row r="101">
@@ -3189,13 +3189,13 @@
         <v>-77.781167</v>
       </c>
       <c r="D101" t="n">
-        <v>14677.47702407</v>
+        <v>20621.7386831276</v>
       </c>
       <c r="E101" t="n">
-        <v>14677.47702407</v>
+        <v>20621.7386831276</v>
       </c>
       <c r="F101" t="n">
-        <v>6707607</v>
+        <v>10022165</v>
       </c>
     </row>
     <row r="102">
@@ -3209,13 +3209,13 @@
         <v>33.4299</v>
       </c>
       <c r="D102" t="n">
-        <v>11359.9649890591</v>
+        <v>14730.8127572016</v>
       </c>
       <c r="E102" t="n">
-        <v>11359.9649890591</v>
+        <v>14730.8127572016</v>
       </c>
       <c r="F102" t="n">
-        <v>5191504</v>
+        <v>7159175</v>
       </c>
     </row>
     <row r="103">
@@ -3229,13 +3229,13 @@
         <v>15.473</v>
       </c>
       <c r="D103" t="n">
-        <v>387383.216630197</v>
+        <v>462118.148148148</v>
       </c>
       <c r="E103" t="n">
-        <v>387383.216630197</v>
+        <v>462118.148148148</v>
       </c>
       <c r="F103" t="n">
-        <v>177034130</v>
+        <v>224589420</v>
       </c>
     </row>
     <row r="104">
@@ -3249,13 +3249,13 @@
         <v>-6.9118</v>
       </c>
       <c r="D104" t="n">
-        <v>368.608315098468</v>
+        <v>386.401234567901</v>
       </c>
       <c r="E104" t="n">
-        <v>368.608315098468</v>
+        <v>386.401234567901</v>
       </c>
       <c r="F104" t="n">
-        <v>168454</v>
+        <v>187791</v>
       </c>
     </row>
     <row r="105">
@@ -3269,13 +3269,13 @@
         <v>-42.6043</v>
       </c>
       <c r="D105" t="n">
-        <v>16.3676148796499</v>
+        <v>17.2592592592593</v>
       </c>
       <c r="E105" t="n">
-        <v>16.3676148796499</v>
+        <v>17.2592592592593</v>
       </c>
       <c r="F105" t="n">
-        <v>7480</v>
+        <v>8388</v>
       </c>
     </row>
     <row r="106">
@@ -3289,13 +3289,13 @@
         <v>9.5018</v>
       </c>
       <c r="D106" t="n">
-        <v>71799.7658643326</v>
+        <v>82903.4135802469</v>
       </c>
       <c r="E106" t="n">
-        <v>71799.7658643326</v>
+        <v>82903.4135802469</v>
       </c>
       <c r="F106" t="n">
-        <v>32812493</v>
+        <v>40291059</v>
       </c>
     </row>
     <row r="107">
@@ -3309,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>673.059080962801</v>
+        <v>675.382716049383</v>
       </c>
       <c r="E107" t="n">
-        <v>673.059080962801</v>
+        <v>675.382716049383</v>
       </c>
       <c r="F107" t="n">
-        <v>307588</v>
+        <v>328236</v>
       </c>
     </row>
     <row r="108">
@@ -3329,13 +3329,13 @@
         <v>42.5903</v>
       </c>
       <c r="D108" t="n">
-        <v>4309.33479212254</v>
+        <v>4722.12757201646</v>
       </c>
       <c r="E108" t="n">
-        <v>4309.33479212254</v>
+        <v>4722.12757201646</v>
       </c>
       <c r="F108" t="n">
-        <v>1969366</v>
+        <v>2294954</v>
       </c>
     </row>
     <row r="109">
@@ -3349,13 +3349,13 @@
         <v>-61.371</v>
       </c>
       <c r="D109" t="n">
-        <v>53.7330415754923</v>
+        <v>61.0308641975309</v>
       </c>
       <c r="E109" t="n">
-        <v>53.7330415754923</v>
+        <v>61.0308641975309</v>
       </c>
       <c r="F109" t="n">
-        <v>24556</v>
+        <v>29661</v>
       </c>
     </row>
     <row r="110">
@@ -3369,13 +3369,13 @@
         <v>-70.1627</v>
       </c>
       <c r="D110" t="n">
-        <v>102512.308533917</v>
+        <v>112572.069958848</v>
       </c>
       <c r="E110" t="n">
-        <v>102512.308533917</v>
+        <v>112572.069958848</v>
       </c>
       <c r="F110" t="n">
-        <v>46848125</v>
+        <v>54710026</v>
       </c>
     </row>
     <row r="111">
@@ -3389,13 +3389,13 @@
         <v>-78.1834</v>
       </c>
       <c r="D111" t="n">
-        <v>131227.087527352</v>
+        <v>146960.934156379</v>
       </c>
       <c r="E111" t="n">
-        <v>131227.087527352</v>
+        <v>146960.934156379</v>
       </c>
       <c r="F111" t="n">
-        <v>59970779</v>
+        <v>71423014</v>
       </c>
     </row>
     <row r="112">
@@ -3409,13 +3409,13 @@
         <v>30.802498</v>
       </c>
       <c r="D112" t="n">
-        <v>90338.5623632385</v>
+        <v>99001.3436213992</v>
       </c>
       <c r="E112" t="n">
-        <v>90338.5623632385</v>
+        <v>99001.3436213992</v>
       </c>
       <c r="F112" t="n">
-        <v>41284723</v>
+        <v>48114653</v>
       </c>
     </row>
     <row r="113">
@@ -3429,13 +3429,13 @@
         <v>-88.8965</v>
       </c>
       <c r="D113" t="n">
-        <v>26268.4332603939</v>
+        <v>28884.4032921811</v>
       </c>
       <c r="E113" t="n">
-        <v>26268.4332603939</v>
+        <v>28884.4032921811</v>
       </c>
       <c r="F113" t="n">
-        <v>12004674</v>
+        <v>14037820</v>
       </c>
     </row>
     <row r="114">
@@ -3449,13 +3449,13 @@
         <v>10.2679</v>
       </c>
       <c r="D114" t="n">
-        <v>3562.80087527352</v>
+        <v>3810.69958847737</v>
       </c>
       <c r="E114" t="n">
-        <v>3562.80087527352</v>
+        <v>3810.69958847737</v>
       </c>
       <c r="F114" t="n">
-        <v>1628200</v>
+        <v>1852000</v>
       </c>
     </row>
     <row r="115">
@@ -3469,13 +3469,13 @@
         <v>39.7823</v>
       </c>
       <c r="D115" t="n">
-        <v>836.92341356674</v>
+        <v>1010.53497942387</v>
       </c>
       <c r="E115" t="n">
-        <v>836.92341356674</v>
+        <v>1010.53497942387</v>
       </c>
       <c r="F115" t="n">
-        <v>382474</v>
+        <v>491120</v>
       </c>
     </row>
     <row r="116">
@@ -3489,13 +3489,13 @@
         <v>25.0136</v>
       </c>
       <c r="D116" t="n">
-        <v>20132.1903719912</v>
+        <v>26344.0288065844</v>
       </c>
       <c r="E116" t="n">
-        <v>20132.1903719912</v>
+        <v>26344.0288065844</v>
       </c>
       <c r="F116" t="n">
-        <v>9200411</v>
+        <v>12803198</v>
       </c>
     </row>
     <row r="117">
@@ -3509,13 +3509,13 @@
         <v>31.4659</v>
       </c>
       <c r="D117" t="n">
-        <v>5944.77899343545</v>
+        <v>6692.8353909465</v>
       </c>
       <c r="E117" t="n">
-        <v>5944.77899343545</v>
+        <v>6692.8353909465</v>
       </c>
       <c r="F117" t="n">
-        <v>2716764</v>
+        <v>3252718</v>
       </c>
     </row>
     <row r="118">
@@ -3529,13 +3529,13 @@
         <v>40.4897</v>
       </c>
       <c r="D118" t="n">
-        <v>69289.7527352298</v>
+        <v>80715.70781893</v>
       </c>
       <c r="E118" t="n">
-        <v>69289.7527352298</v>
+        <v>80715.70781893</v>
       </c>
       <c r="F118" t="n">
-        <v>31665417</v>
+        <v>39227834</v>
       </c>
     </row>
     <row r="119">
@@ -3549,13 +3549,13 @@
         <v>178.065</v>
       </c>
       <c r="D119" t="n">
-        <v>31.6280087527352</v>
+        <v>37.9609053497942</v>
       </c>
       <c r="E119" t="n">
-        <v>31.6280087527352</v>
+        <v>37.9609053497942</v>
       </c>
       <c r="F119" t="n">
-        <v>14454</v>
+        <v>18449</v>
       </c>
     </row>
     <row r="120">
@@ -3569,13 +3569,13 @@
         <v>25.748151</v>
       </c>
       <c r="D120" t="n">
-        <v>21464.9803063457</v>
+        <v>25449.853909465</v>
       </c>
       <c r="E120" t="n">
-        <v>21464.9803063457</v>
+        <v>25449.853909465</v>
       </c>
       <c r="F120" t="n">
-        <v>9809496</v>
+        <v>12368629</v>
       </c>
     </row>
     <row r="121">
@@ -3589,13 +3589,13 @@
         <v>-53.1258</v>
       </c>
       <c r="D121" t="n">
-        <v>7980.21444201313</v>
+        <v>8711.77983539095</v>
       </c>
       <c r="E121" t="n">
-        <v>7980.21444201313</v>
+        <v>8711.77983539095</v>
       </c>
       <c r="F121" t="n">
-        <v>3646958</v>
+        <v>4233925</v>
       </c>
     </row>
     <row r="122">
@@ -3609,13 +3609,13 @@
         <v>149.4068</v>
       </c>
       <c r="D122" t="n">
-        <v>6704.4420131291</v>
+        <v>7425.17489711934</v>
       </c>
       <c r="E122" t="n">
-        <v>6704.4420131291</v>
+        <v>7425.17489711934</v>
       </c>
       <c r="F122" t="n">
-        <v>3063930</v>
+        <v>3608635</v>
       </c>
     </row>
     <row r="123">
@@ -3629,13 +3629,13 @@
         <v>-61.551</v>
       </c>
       <c r="D123" t="n">
-        <v>4348.15754923414</v>
+        <v>4968.96913580247</v>
       </c>
       <c r="E123" t="n">
-        <v>4348.15754923414</v>
+        <v>4968.96913580247</v>
       </c>
       <c r="F123" t="n">
-        <v>1987108</v>
+        <v>2414919</v>
       </c>
     </row>
     <row r="124">
@@ -3649,13 +3649,13 @@
         <v>-61.0242</v>
       </c>
       <c r="D124" t="n">
-        <v>2721.24507658643</v>
+        <v>3218.5987654321</v>
       </c>
       <c r="E124" t="n">
-        <v>2721.24507658643</v>
+        <v>3218.5987654321</v>
       </c>
       <c r="F124" t="n">
-        <v>1243609</v>
+        <v>1564239</v>
       </c>
     </row>
     <row r="125">
@@ -3669,13 +3669,13 @@
         <v>45.166244</v>
       </c>
       <c r="D125" t="n">
-        <v>5330.03282275711</v>
+        <v>6210.52674897119</v>
       </c>
       <c r="E125" t="n">
-        <v>5330.03282275711</v>
+        <v>6210.52674897119</v>
       </c>
       <c r="F125" t="n">
-        <v>2435825</v>
+        <v>3018316</v>
       </c>
     </row>
     <row r="126">
@@ -3689,13 +3689,13 @@
         <v>165.618042</v>
       </c>
       <c r="D126" t="n">
-        <v>33.3610503282276</v>
+        <v>38.7777777777778</v>
       </c>
       <c r="E126" t="n">
-        <v>33.3610503282276</v>
+        <v>38.7777777777778</v>
       </c>
       <c r="F126" t="n">
-        <v>15246</v>
+        <v>18846</v>
       </c>
     </row>
     <row r="127">
@@ -3709,13 +3709,13 @@
         <v>55.5364</v>
       </c>
       <c r="D127" t="n">
-        <v>4893.44420131291</v>
+        <v>5876.72222222222</v>
       </c>
       <c r="E127" t="n">
-        <v>4893.44420131291</v>
+        <v>5876.72222222222</v>
       </c>
       <c r="F127" t="n">
-        <v>2236304</v>
+        <v>2856087</v>
       </c>
     </row>
     <row r="128">
@@ -3729,13 +3729,13 @@
         <v>-62.8333</v>
       </c>
       <c r="D128" t="n">
-        <v>163.752735229759</v>
+        <v>212.06378600823</v>
       </c>
       <c r="E128" t="n">
-        <v>163.752735229759</v>
+        <v>212.06378600823</v>
       </c>
       <c r="F128" t="n">
-        <v>74835</v>
+        <v>103063</v>
       </c>
     </row>
     <row r="129">
@@ -3749,13 +3749,13 @@
         <v>-56.3159</v>
       </c>
       <c r="D129" t="n">
-        <v>9.98249452954048</v>
+        <v>10.8786008230453</v>
       </c>
       <c r="E129" t="n">
-        <v>9.98249452954048</v>
+        <v>10.8786008230453</v>
       </c>
       <c r="F129" t="n">
-        <v>4562</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="130">
@@ -3769,13 +3769,13 @@
         <v>-63.0501</v>
       </c>
       <c r="D130" t="n">
-        <v>522.08533916849</v>
+        <v>596.30658436214</v>
       </c>
       <c r="E130" t="n">
-        <v>522.08533916849</v>
+        <v>596.30658436214</v>
       </c>
       <c r="F130" t="n">
-        <v>238593</v>
+        <v>289805</v>
       </c>
     </row>
     <row r="131">
@@ -3789,13 +3789,13 @@
         <v>-178.1165</v>
       </c>
       <c r="D131" t="n">
-        <v>35.1269146608315</v>
+        <v>59.5246913580247</v>
       </c>
       <c r="E131" t="n">
-        <v>35.1269146608315</v>
+        <v>59.5246913580247</v>
       </c>
       <c r="F131" t="n">
-        <v>16053</v>
+        <v>28929</v>
       </c>
     </row>
     <row r="132">
@@ -3809,13 +3809,13 @@
         <v>2.2137</v>
       </c>
       <c r="D132" t="n">
-        <v>1373214.35448578</v>
+        <v>1629842.83539095</v>
       </c>
       <c r="E132" t="n">
-        <v>1373214.35448578</v>
+        <v>1629842.83539095</v>
       </c>
       <c r="F132" t="n">
-        <v>627558960</v>
+        <v>792103618</v>
       </c>
     </row>
     <row r="133">
@@ -3829,13 +3829,13 @@
         <v>11.6094</v>
       </c>
       <c r="D133" t="n">
-        <v>7369.43544857768</v>
+        <v>8320.68930041152</v>
       </c>
       <c r="E133" t="n">
-        <v>7369.43544857768</v>
+        <v>8320.68930041152</v>
       </c>
       <c r="F133" t="n">
-        <v>3367832</v>
+        <v>4043855</v>
       </c>
     </row>
     <row r="134">
@@ -3849,13 +3849,13 @@
         <v>-15.3101</v>
       </c>
       <c r="D134" t="n">
-        <v>2256.67396061269</v>
+        <v>2474.98353909465</v>
       </c>
       <c r="E134" t="n">
-        <v>2256.67396061269</v>
+        <v>2474.98353909465</v>
       </c>
       <c r="F134" t="n">
-        <v>1031300</v>
+        <v>1202842</v>
       </c>
     </row>
     <row r="135">
@@ -3869,13 +3869,13 @@
         <v>43.3569</v>
       </c>
       <c r="D135" t="n">
-        <v>85823.3960612691</v>
+        <v>99724.512345679</v>
       </c>
       <c r="E135" t="n">
-        <v>85823.3960612691</v>
+        <v>99724.512345679</v>
       </c>
       <c r="F135" t="n">
-        <v>39221292</v>
+        <v>48466113</v>
       </c>
     </row>
     <row r="136">
@@ -3889,13 +3889,13 @@
         <v>10.451526</v>
       </c>
       <c r="D136" t="n">
-        <v>861313.897155361</v>
+        <v>1018100.65432099</v>
       </c>
       <c r="E136" t="n">
-        <v>861313.897155361</v>
+        <v>1018100.65432099</v>
       </c>
       <c r="F136" t="n">
-        <v>393620451</v>
+        <v>494796918</v>
       </c>
     </row>
     <row r="137">
@@ -3909,13 +3909,13 @@
         <v>-1.0232</v>
       </c>
       <c r="D137" t="n">
-        <v>37948.8205689278</v>
+        <v>41224.5308641975</v>
       </c>
       <c r="E137" t="n">
-        <v>37948.8205689278</v>
+        <v>41224.5308641975</v>
       </c>
       <c r="F137" t="n">
-        <v>17342611</v>
+        <v>20035122</v>
       </c>
     </row>
     <row r="138">
@@ -3929,13 +3929,13 @@
         <v>21.8243</v>
       </c>
       <c r="D138" t="n">
-        <v>67742.7439824945</v>
+        <v>85077.7037037037</v>
       </c>
       <c r="E138" t="n">
-        <v>67742.7439824945</v>
+        <v>85077.7037037037</v>
       </c>
       <c r="F138" t="n">
-        <v>30958434</v>
+        <v>41347764</v>
       </c>
     </row>
     <row r="139">
@@ -3949,13 +3949,13 @@
         <v>-61.679</v>
       </c>
       <c r="D139" t="n">
-        <v>54.2800875273523</v>
+        <v>60.59670781893</v>
       </c>
       <c r="E139" t="n">
-        <v>54.2800875273523</v>
+        <v>60.59670781893</v>
       </c>
       <c r="F139" t="n">
-        <v>24806</v>
+        <v>29450</v>
       </c>
     </row>
     <row r="140">
@@ -3969,13 +3969,13 @@
         <v>-90.2308</v>
       </c>
       <c r="D140" t="n">
-        <v>78807.9080962801</v>
+        <v>88014.9917695473</v>
       </c>
       <c r="E140" t="n">
-        <v>78807.9080962801</v>
+        <v>88014.9917695473</v>
       </c>
       <c r="F140" t="n">
-        <v>36015214</v>
+        <v>42775286</v>
       </c>
     </row>
     <row r="141">
@@ -3989,13 +3989,13 @@
         <v>-9.6966</v>
       </c>
       <c r="D141" t="n">
-        <v>8806.5010940919</v>
+        <v>9621.99382716049</v>
       </c>
       <c r="E141" t="n">
-        <v>8806.5010940919</v>
+        <v>9621.99382716049</v>
       </c>
       <c r="F141" t="n">
-        <v>4024571</v>
+        <v>4676289</v>
       </c>
     </row>
     <row r="142">
@@ -4009,13 +4009,13 @@
         <v>-15.1804</v>
       </c>
       <c r="D142" t="n">
-        <v>1827.69803063457</v>
+        <v>1941.68930041152</v>
       </c>
       <c r="E142" t="n">
-        <v>1827.69803063457</v>
+        <v>1941.68930041152</v>
       </c>
       <c r="F142" t="n">
-        <v>835258</v>
+        <v>943661</v>
       </c>
     </row>
     <row r="143">
@@ -4029,13 +4029,13 @@
         <v>-58.93018</v>
       </c>
       <c r="D143" t="n">
-        <v>3343.46608315098</v>
+        <v>3985.62962962963</v>
       </c>
       <c r="E143" t="n">
-        <v>3343.46608315098</v>
+        <v>3985.62962962963</v>
       </c>
       <c r="F143" t="n">
-        <v>1527964</v>
+        <v>1937016</v>
       </c>
     </row>
     <row r="144">
@@ -4049,13 +4049,13 @@
         <v>-72.2852</v>
       </c>
       <c r="D144" t="n">
-        <v>6649.16411378556</v>
+        <v>7039.88477366255</v>
       </c>
       <c r="E144" t="n">
-        <v>6649.16411378556</v>
+        <v>7039.88477366255</v>
       </c>
       <c r="F144" t="n">
-        <v>3038668</v>
+        <v>3421384</v>
       </c>
     </row>
     <row r="145">
@@ -4069,13 +4069,13 @@
         <v>12.4534</v>
       </c>
       <c r="D145" t="n">
-        <v>16.308533916849</v>
+        <v>16.9465020576132</v>
       </c>
       <c r="E145" t="n">
-        <v>16.308533916849</v>
+        <v>16.9465020576132</v>
       </c>
       <c r="F145" t="n">
-        <v>7453</v>
+        <v>8236</v>
       </c>
     </row>
     <row r="146">
@@ -4089,13 +4089,13 @@
         <v>-86.2419</v>
       </c>
       <c r="D146" t="n">
-        <v>72075.8358862144</v>
+        <v>80787.7201646091</v>
       </c>
       <c r="E146" t="n">
-        <v>72075.8358862144</v>
+        <v>80787.7201646091</v>
       </c>
       <c r="F146" t="n">
-        <v>32938657</v>
+        <v>39262832</v>
       </c>
     </row>
     <row r="147">
@@ -4109,13 +4109,13 @@
         <v>19.5033</v>
       </c>
       <c r="D147" t="n">
-        <v>152433.787746171</v>
+        <v>190290.477366255</v>
       </c>
       <c r="E147" t="n">
-        <v>152433.787746171</v>
+        <v>190290.477366255</v>
       </c>
       <c r="F147" t="n">
-        <v>69662241</v>
+        <v>92481172</v>
       </c>
     </row>
     <row r="148">
@@ -4129,13 +4129,13 @@
         <v>-19.0208</v>
       </c>
       <c r="D148" t="n">
-        <v>3254.93216630197</v>
+        <v>3448.22839506173</v>
       </c>
       <c r="E148" t="n">
-        <v>3254.93216630197</v>
+        <v>3448.22839506173</v>
       </c>
       <c r="F148" t="n">
-        <v>1487504</v>
+        <v>1675839</v>
       </c>
     </row>
     <row r="149">
@@ -4149,13 +4149,13 @@
         <v>78.96288</v>
       </c>
       <c r="D149" t="n">
-        <v>5206603.31509847</v>
+        <v>6191390.4218107</v>
       </c>
       <c r="E149" t="n">
-        <v>5206603.31509847</v>
+        <v>6191390.4218107</v>
       </c>
       <c r="F149" t="n">
-        <v>2379417715</v>
+        <v>3009015745</v>
       </c>
     </row>
     <row r="150">
@@ -4169,13 +4169,13 @@
         <v>113.9213</v>
       </c>
       <c r="D150" t="n">
-        <v>441045.754923414</v>
+        <v>516184.820987654</v>
       </c>
       <c r="E150" t="n">
-        <v>441045.754923414</v>
+        <v>516184.820987654</v>
       </c>
       <c r="F150" t="n">
-        <v>201557910</v>
+        <v>250865823</v>
       </c>
     </row>
     <row r="151">
@@ -4189,13 +4189,13 @@
         <v>53.688046</v>
       </c>
       <c r="D151" t="n">
-        <v>661543.658643326</v>
+        <v>777846.508230453</v>
       </c>
       <c r="E151" t="n">
-        <v>661543.658643326</v>
+        <v>777846.508230453</v>
       </c>
       <c r="F151" t="n">
-        <v>302325452</v>
+        <v>378033403</v>
       </c>
     </row>
     <row r="152">
@@ -4209,13 +4209,13 @@
         <v>43.679291</v>
       </c>
       <c r="D152" t="n">
-        <v>319579.15536105</v>
+        <v>366003.222222222</v>
       </c>
       <c r="E152" t="n">
-        <v>319579.15536105</v>
+        <v>366003.222222222</v>
       </c>
       <c r="F152" t="n">
-        <v>146047674</v>
+        <v>177877566</v>
       </c>
     </row>
     <row r="153">
@@ -4229,13 +4229,13 @@
         <v>-7.6921</v>
       </c>
       <c r="D153" t="n">
-        <v>73617.0240700219</v>
+        <v>84228.7325102881</v>
       </c>
       <c r="E153" t="n">
-        <v>73617.0240700219</v>
+        <v>84228.7325102881</v>
       </c>
       <c r="F153" t="n">
-        <v>33642980</v>
+        <v>40935164</v>
       </c>
     </row>
     <row r="154">
@@ -4249,13 +4249,13 @@
         <v>34.851612</v>
       </c>
       <c r="D154" t="n">
-        <v>267445.24726477</v>
+        <v>301534.878600823</v>
       </c>
       <c r="E154" t="n">
-        <v>267445.24726477</v>
+        <v>301534.878600823</v>
       </c>
       <c r="F154" t="n">
-        <v>122222478</v>
+        <v>146545951</v>
       </c>
     </row>
     <row r="155">
@@ -4269,13 +4269,13 @@
         <v>12.56738</v>
       </c>
       <c r="D155" t="n">
-        <v>1060794.23413567</v>
+        <v>1240933.04526749</v>
       </c>
       <c r="E155" t="n">
-        <v>1060794.23413567</v>
+        <v>1240933.04526749</v>
       </c>
       <c r="F155" t="n">
-        <v>484782965</v>
+        <v>603093460</v>
       </c>
     </row>
     <row r="156">
@@ -4289,13 +4289,13 @@
         <v>-77.2975</v>
       </c>
       <c r="D156" t="n">
-        <v>8852.4113785558</v>
+        <v>11090.2757201646</v>
       </c>
       <c r="E156" t="n">
-        <v>8852.4113785558</v>
+        <v>11090.2757201646</v>
       </c>
       <c r="F156" t="n">
-        <v>4045552</v>
+        <v>5389874</v>
       </c>
     </row>
     <row r="157">
@@ -4309,13 +4309,13 @@
         <v>138.252924</v>
       </c>
       <c r="D157" t="n">
-        <v>142704.286652079</v>
+        <v>171931.37037037</v>
       </c>
       <c r="E157" t="n">
-        <v>142704.286652079</v>
+        <v>171931.37037037</v>
       </c>
       <c r="F157" t="n">
-        <v>65215859</v>
+        <v>83558646</v>
       </c>
     </row>
     <row r="158">
@@ -4329,13 +4329,13 @@
         <v>36.51</v>
       </c>
       <c r="D158" t="n">
-        <v>139424</v>
+        <v>173855.493827161</v>
       </c>
       <c r="E158" t="n">
-        <v>139424</v>
+        <v>173855.493827161</v>
       </c>
       <c r="F158" t="n">
-        <v>63716768</v>
+        <v>84493770</v>
       </c>
     </row>
     <row r="159">
@@ -4349,13 +4349,13 @@
         <v>66.9237</v>
       </c>
       <c r="D159" t="n">
-        <v>120828.72428884</v>
+        <v>137013.646090535</v>
       </c>
       <c r="E159" t="n">
-        <v>120828.72428884</v>
+        <v>137013.646090535</v>
       </c>
       <c r="F159" t="n">
-        <v>55218727</v>
+        <v>66588632</v>
       </c>
     </row>
     <row r="160">
@@ -4369,13 +4369,13 @@
         <v>37.9062</v>
       </c>
       <c r="D160" t="n">
-        <v>47431.010940919</v>
+        <v>54269.6728395062</v>
       </c>
       <c r="E160" t="n">
-        <v>47431.010940919</v>
+        <v>54269.6728395062</v>
       </c>
       <c r="F160" t="n">
-        <v>21675972</v>
+        <v>26375061</v>
       </c>
     </row>
     <row r="161">
@@ -4389,13 +4389,13 @@
         <v>127.766922</v>
       </c>
       <c r="D161" t="n">
-        <v>35088.886214442</v>
+        <v>40557.4814814815</v>
       </c>
       <c r="E161" t="n">
-        <v>35088.886214442</v>
+        <v>40557.4814814815</v>
       </c>
       <c r="F161" t="n">
-        <v>16035621</v>
+        <v>19710936</v>
       </c>
     </row>
     <row r="162">
@@ -4409,13 +4409,13 @@
         <v>20.902977</v>
       </c>
       <c r="D162" t="n">
-        <v>26225.7439824945</v>
+        <v>30926.3004115226</v>
       </c>
       <c r="E162" t="n">
-        <v>26225.7439824945</v>
+        <v>30926.3004115226</v>
       </c>
       <c r="F162" t="n">
-        <v>11985165</v>
+        <v>15030182</v>
       </c>
     </row>
     <row r="163">
@@ -4429,13 +4429,13 @@
         <v>47.481766</v>
       </c>
       <c r="D163" t="n">
-        <v>93544.1181619256</v>
+        <v>104777.705761317</v>
       </c>
       <c r="E163" t="n">
-        <v>93544.1181619256</v>
+        <v>104777.705761317</v>
       </c>
       <c r="F163" t="n">
-        <v>42749662</v>
+        <v>50921965</v>
       </c>
     </row>
     <row r="164">
@@ -4449,13 +4449,13 @@
         <v>74.766098</v>
       </c>
       <c r="D164" t="n">
-        <v>41652.8205689278</v>
+        <v>44991.4691358025</v>
       </c>
       <c r="E164" t="n">
-        <v>41652.8205689278</v>
+        <v>44991.4691358025</v>
       </c>
       <c r="F164" t="n">
-        <v>19035339</v>
+        <v>21865854</v>
       </c>
     </row>
     <row r="165">
@@ -4469,13 +4469,13 @@
         <v>102.495496</v>
       </c>
       <c r="D165" t="n">
-        <v>25.6673960612691</v>
+        <v>90.5288065843621</v>
       </c>
       <c r="E165" t="n">
-        <v>25.6673960612691</v>
+        <v>90.5288065843621</v>
       </c>
       <c r="F165" t="n">
-        <v>11730</v>
+        <v>43997</v>
       </c>
     </row>
     <row r="166">
@@ -4489,13 +4489,13 @@
         <v>24.6032</v>
       </c>
       <c r="D166" t="n">
-        <v>23327.9671772429</v>
+        <v>29243.1728395062</v>
       </c>
       <c r="E166" t="n">
-        <v>23327.9671772429</v>
+        <v>29243.1728395062</v>
       </c>
       <c r="F166" t="n">
-        <v>10660881</v>
+        <v>14212182</v>
       </c>
     </row>
     <row r="167">
@@ -4509,13 +4509,13 @@
         <v>35.8623</v>
       </c>
       <c r="D167" t="n">
-        <v>114210.807439825</v>
+        <v>139038.543209877</v>
       </c>
       <c r="E167" t="n">
-        <v>114210.807439825</v>
+        <v>139038.543209877</v>
       </c>
       <c r="F167" t="n">
-        <v>52194339</v>
+        <v>67572732</v>
       </c>
     </row>
     <row r="168">
@@ -4529,13 +4529,13 @@
         <v>28.2336</v>
       </c>
       <c r="D168" t="n">
-        <v>2859.15317286652</v>
+        <v>3330.50205761317</v>
       </c>
       <c r="E168" t="n">
-        <v>2859.15317286652</v>
+        <v>3330.50205761317</v>
       </c>
       <c r="F168" t="n">
-        <v>1306633</v>
+        <v>1618624</v>
       </c>
     </row>
     <row r="169">
@@ -4549,13 +4549,13 @@
         <v>-9.429499</v>
       </c>
       <c r="D169" t="n">
-        <v>1089.31947483589</v>
+        <v>1150.32510288066</v>
       </c>
       <c r="E169" t="n">
-        <v>1089.31947483589</v>
+        <v>1150.32510288066</v>
       </c>
       <c r="F169" t="n">
-        <v>497819</v>
+        <v>559058</v>
       </c>
     </row>
     <row r="170">
@@ -4569,13 +4569,13 @@
         <v>17.228331</v>
       </c>
       <c r="D170" t="n">
-        <v>49868.0371991247</v>
+        <v>57584.5164609053</v>
       </c>
       <c r="E170" t="n">
-        <v>49868.0371991247</v>
+        <v>57584.5164609053</v>
       </c>
       <c r="F170" t="n">
-        <v>22789693</v>
+        <v>27986075</v>
       </c>
     </row>
     <row r="171">
@@ -4589,13 +4589,13 @@
         <v>9.55</v>
       </c>
       <c r="D171" t="n">
-        <v>855.768052516411</v>
+        <v>980.748971193416</v>
       </c>
       <c r="E171" t="n">
-        <v>855.768052516411</v>
+        <v>980.748971193416</v>
       </c>
       <c r="F171" t="n">
-        <v>391086</v>
+        <v>476644</v>
       </c>
     </row>
     <row r="172">
@@ -4609,13 +4609,13 @@
         <v>23.8813</v>
       </c>
       <c r="D172" t="n">
-        <v>58574.7943107221</v>
+        <v>70295.6111111111</v>
       </c>
       <c r="E172" t="n">
-        <v>58574.7943107221</v>
+        <v>70295.6111111111</v>
       </c>
       <c r="F172" t="n">
-        <v>26768681</v>
+        <v>34163667</v>
       </c>
     </row>
     <row r="173">
@@ -4629,13 +4629,13 @@
         <v>6.1296</v>
       </c>
       <c r="D173" t="n">
-        <v>21065.4442013129</v>
+        <v>23861.9979423868</v>
       </c>
       <c r="E173" t="n">
-        <v>21065.4442013129</v>
+        <v>23861.9979423868</v>
       </c>
       <c r="F173" t="n">
-        <v>9626908</v>
+        <v>11596931</v>
       </c>
     </row>
     <row r="174">
@@ -4649,13 +4649,13 @@
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>7.63894967177243</v>
+        <v>7.7201646090535</v>
       </c>
       <c r="E174" t="n">
-        <v>7.63894967177243</v>
+        <v>7.7201646090535</v>
       </c>
       <c r="F174" t="n">
-        <v>3491</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="175">
@@ -4669,13 +4669,13 @@
         <v>46.869107</v>
       </c>
       <c r="D175" t="n">
-        <v>11245.7330415755</v>
+        <v>12862.3991769547</v>
       </c>
       <c r="E175" t="n">
-        <v>11245.7330415755</v>
+        <v>12862.3991769547</v>
       </c>
       <c r="F175" t="n">
-        <v>5139300</v>
+        <v>6251126</v>
       </c>
     </row>
     <row r="176">
@@ -4689,13 +4689,13 @@
         <v>34.3015</v>
       </c>
       <c r="D176" t="n">
-        <v>8688.71991247265</v>
+        <v>10207.353909465</v>
       </c>
       <c r="E176" t="n">
-        <v>8688.71991247265</v>
+        <v>10207.353909465</v>
       </c>
       <c r="F176" t="n">
-        <v>3970745</v>
+        <v>4960774</v>
       </c>
     </row>
     <row r="177">
@@ -4709,13 +4709,13 @@
         <v>101.975766</v>
       </c>
       <c r="D177" t="n">
-        <v>80222.9978118162</v>
+        <v>101445.633744856</v>
       </c>
       <c r="E177" t="n">
-        <v>80222.9978118162</v>
+        <v>101445.633744856</v>
       </c>
       <c r="F177" t="n">
-        <v>36661910</v>
+        <v>49302578</v>
       </c>
     </row>
     <row r="178">
@@ -4729,13 +4729,13 @@
         <v>73.2207</v>
       </c>
       <c r="D178" t="n">
-        <v>8697.78118161926</v>
+        <v>10351.8333333333</v>
       </c>
       <c r="E178" t="n">
-        <v>8697.78118161926</v>
+        <v>10351.8333333333</v>
       </c>
       <c r="F178" t="n">
-        <v>3974886</v>
+        <v>5030991</v>
       </c>
     </row>
     <row r="179">
@@ -4749,13 +4749,13 @@
         <v>-3.996166</v>
       </c>
       <c r="D179" t="n">
-        <v>3837.75711159737</v>
+        <v>4443.47942386831</v>
       </c>
       <c r="E179" t="n">
-        <v>3837.75711159737</v>
+        <v>4443.47942386831</v>
       </c>
       <c r="F179" t="n">
-        <v>1753855</v>
+        <v>2159531</v>
       </c>
     </row>
     <row r="180">
@@ -4769,13 +4769,13 @@
         <v>14.3754</v>
       </c>
       <c r="D180" t="n">
-        <v>7508.00218818381</v>
+        <v>8872.63580246914</v>
       </c>
       <c r="E180" t="n">
-        <v>7508.00218818381</v>
+        <v>8872.63580246914</v>
       </c>
       <c r="F180" t="n">
-        <v>3431157</v>
+        <v>4312101</v>
       </c>
     </row>
     <row r="181">
@@ -4789,13 +4789,13 @@
         <v>171.1845</v>
       </c>
       <c r="D181" t="n">
-        <v>1.43544857768053</v>
+        <v>1.58847736625514</v>
       </c>
       <c r="E181" t="n">
-        <v>1.43544857768053</v>
+        <v>1.58847736625514</v>
       </c>
       <c r="F181" t="n">
-        <v>656</v>
+        <v>772</v>
       </c>
     </row>
     <row r="182">
@@ -4809,13 +4809,13 @@
         <v>-10.9408</v>
       </c>
       <c r="D182" t="n">
-        <v>7464.44857768052</v>
+        <v>8128.92386831276</v>
       </c>
       <c r="E182" t="n">
-        <v>7464.44857768052</v>
+        <v>8128.92386831276</v>
       </c>
       <c r="F182" t="n">
-        <v>3411253</v>
+        <v>3950657</v>
       </c>
     </row>
     <row r="183">
@@ -4829,13 +4829,13 @@
         <v>57.552152</v>
       </c>
       <c r="D183" t="n">
-        <v>413.01750547046</v>
+        <v>462.40329218107</v>
       </c>
       <c r="E183" t="n">
-        <v>413.01750547046</v>
+        <v>462.40329218107</v>
       </c>
       <c r="F183" t="n">
-        <v>188749</v>
+        <v>224728</v>
       </c>
     </row>
     <row r="184">
@@ -4849,13 +4849,13 @@
         <v>-102.5528</v>
       </c>
       <c r="D184" t="n">
-        <v>815810.207877462</v>
+        <v>907934.987654321</v>
       </c>
       <c r="E184" t="n">
-        <v>815810.207877462</v>
+        <v>907934.987654321</v>
       </c>
       <c r="F184" t="n">
-        <v>372825265</v>
+        <v>441256404</v>
       </c>
     </row>
     <row r="185">
@@ -4869,13 +4869,13 @@
         <v>150.5508</v>
       </c>
       <c r="D185" t="n">
-        <v>0.201312910284464</v>
+        <v>0.248971193415638</v>
       </c>
       <c r="E185" t="n">
-        <v>0.201312910284464</v>
+        <v>0.248971193415638</v>
       </c>
       <c r="F185" t="n">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="186">
@@ -4889,13 +4889,13 @@
         <v>28.3699</v>
       </c>
       <c r="D186" t="n">
-        <v>73435.636761488</v>
+        <v>84092.4135802469</v>
       </c>
       <c r="E186" t="n">
-        <v>73435.636761488</v>
+        <v>84092.4135802469</v>
       </c>
       <c r="F186" t="n">
-        <v>33560086</v>
+        <v>40868913</v>
       </c>
     </row>
     <row r="187">
@@ -4909,13 +4909,13 @@
         <v>7.4167</v>
       </c>
       <c r="D187" t="n">
-        <v>596.921225382932</v>
+        <v>708.738683127572</v>
       </c>
       <c r="E187" t="n">
-        <v>596.921225382932</v>
+        <v>708.738683127572</v>
       </c>
       <c r="F187" t="n">
-        <v>272793</v>
+        <v>344447</v>
       </c>
     </row>
     <row r="188">
@@ -4929,13 +4929,13 @@
         <v>103.8467</v>
       </c>
       <c r="D188" t="n">
-        <v>1587.50547045952</v>
+        <v>4014.58230452675</v>
       </c>
       <c r="E188" t="n">
-        <v>1587.50547045952</v>
+        <v>4014.58230452675</v>
       </c>
       <c r="F188" t="n">
-        <v>725490</v>
+        <v>1951087</v>
       </c>
     </row>
     <row r="189">
@@ -4949,13 +4949,13 @@
         <v>19.37439</v>
       </c>
       <c r="D189" t="n">
-        <v>24843.0590809628</v>
+        <v>29207.8271604938</v>
       </c>
       <c r="E189" t="n">
-        <v>24843.0590809628</v>
+        <v>29207.8271604938</v>
       </c>
       <c r="F189" t="n">
-        <v>11353278</v>
+        <v>14195004</v>
       </c>
     </row>
     <row r="190">
@@ -4969,13 +4969,13 @@
         <v>-7.0926</v>
       </c>
       <c r="D190" t="n">
-        <v>187181.735229759</v>
+        <v>206616.271604938</v>
       </c>
       <c r="E190" t="n">
-        <v>187181.735229759</v>
+        <v>206616.271604938</v>
       </c>
       <c r="F190" t="n">
-        <v>85542053</v>
+        <v>100415508</v>
       </c>
     </row>
     <row r="191">
@@ -4989,13 +4989,13 @@
         <v>35.529562</v>
       </c>
       <c r="D191" t="n">
-        <v>16149.52297593</v>
+        <v>19370.0720164609</v>
       </c>
       <c r="E191" t="n">
-        <v>16149.52297593</v>
+        <v>19370.0720164609</v>
       </c>
       <c r="F191" t="n">
-        <v>7380332</v>
+        <v>9413855</v>
       </c>
     </row>
     <row r="192">
@@ -5009,13 +5009,13 @@
         <v>18.4904</v>
       </c>
       <c r="D192" t="n">
-        <v>13224.7921225383</v>
+        <v>15398.975308642</v>
       </c>
       <c r="E192" t="n">
-        <v>13224.7921225383</v>
+        <v>15398.975308642</v>
       </c>
       <c r="F192" t="n">
-        <v>6043730</v>
+        <v>7483902</v>
       </c>
     </row>
     <row r="193">
@@ -5029,13 +5029,13 @@
         <v>84.25</v>
       </c>
       <c r="D193" t="n">
-        <v>113535.702407002</v>
+        <v>129637.314814815</v>
       </c>
       <c r="E193" t="n">
-        <v>113535.702407002</v>
+        <v>129637.314814815</v>
       </c>
       <c r="F193" t="n">
-        <v>51885816</v>
+        <v>63003735</v>
       </c>
     </row>
     <row r="194">
@@ -5049,13 +5049,13 @@
         <v>-69.9683</v>
       </c>
       <c r="D194" t="n">
-        <v>3200.56455142232</v>
+        <v>3649.63580246914</v>
       </c>
       <c r="E194" t="n">
-        <v>3200.56455142232</v>
+        <v>3649.63580246914</v>
       </c>
       <c r="F194" t="n">
-        <v>1462658</v>
+        <v>1773723</v>
       </c>
     </row>
     <row r="195">
@@ -5069,13 +5069,13 @@
         <v>-68.2385</v>
       </c>
       <c r="D195" t="n">
-        <v>85.4048140043764</v>
+        <v>157.565843621399</v>
       </c>
       <c r="E195" t="n">
-        <v>85.4048140043764</v>
+        <v>157.565843621399</v>
       </c>
       <c r="F195" t="n">
-        <v>39030</v>
+        <v>76577</v>
       </c>
     </row>
     <row r="196">
@@ -5089,13 +5089,13 @@
         <v>-68.99</v>
       </c>
       <c r="D196" t="n">
-        <v>1918.71334792123</v>
+        <v>2532.7304526749</v>
       </c>
       <c r="E196" t="n">
-        <v>1918.71334792123</v>
+        <v>2532.7304526749</v>
       </c>
       <c r="F196" t="n">
-        <v>876852</v>
+        <v>1230907</v>
       </c>
     </row>
     <row r="197">
@@ -5109,13 +5109,13 @@
         <v>-63.0548</v>
       </c>
       <c r="D197" t="n">
-        <v>756.809628008753</v>
+        <v>846.442386831276</v>
       </c>
       <c r="E197" t="n">
-        <v>756.809628008753</v>
+        <v>846.442386831276</v>
       </c>
       <c r="F197" t="n">
-        <v>345862</v>
+        <v>411371</v>
       </c>
     </row>
     <row r="198">
@@ -5129,13 +5129,13 @@
         <v>5.2913</v>
       </c>
       <c r="D198" t="n">
-        <v>379652.884026258</v>
+        <v>448932.664609054</v>
       </c>
       <c r="E198" t="n">
-        <v>379652.884026258</v>
+        <v>448932.664609054</v>
       </c>
       <c r="F198" t="n">
-        <v>173501368</v>
+        <v>218181275</v>
       </c>
     </row>
     <row r="199">
@@ -5149,13 +5149,13 @@
         <v>174.886</v>
       </c>
       <c r="D199" t="n">
-        <v>1616.13566739606</v>
+        <v>1676.79835390947</v>
       </c>
       <c r="E199" t="n">
-        <v>1616.13566739606</v>
+        <v>1676.79835390947</v>
       </c>
       <c r="F199" t="n">
-        <v>738574</v>
+        <v>814924</v>
       </c>
     </row>
     <row r="200">
@@ -5169,13 +5169,13 @@
         <v>-85.207229</v>
       </c>
       <c r="D200" t="n">
-        <v>3651.11597374179</v>
+        <v>3850.78806584362</v>
       </c>
       <c r="E200" t="n">
-        <v>3651.11597374179</v>
+        <v>3850.78806584362</v>
       </c>
       <c r="F200" t="n">
-        <v>1668560</v>
+        <v>1871483</v>
       </c>
     </row>
     <row r="201">
@@ -5189,13 +5189,13 @@
         <v>8.081666</v>
       </c>
       <c r="D201" t="n">
-        <v>1861.50547045952</v>
+        <v>2065.6316872428</v>
       </c>
       <c r="E201" t="n">
-        <v>1861.50547045952</v>
+        <v>2065.6316872428</v>
       </c>
       <c r="F201" t="n">
-        <v>850708</v>
+        <v>1003897</v>
       </c>
     </row>
     <row r="202">
@@ -5209,13 +5209,13 @@
         <v>8.6753</v>
       </c>
       <c r="D202" t="n">
-        <v>59702.829321663</v>
+        <v>66005.9958847737</v>
       </c>
       <c r="E202" t="n">
-        <v>59702.829321663</v>
+        <v>66005.9958847737</v>
       </c>
       <c r="F202" t="n">
-        <v>27284193</v>
+        <v>32078914</v>
       </c>
     </row>
     <row r="203">
@@ -5229,13 +5229,13 @@
         <v>21.7453</v>
       </c>
       <c r="D203" t="n">
-        <v>39313.7571115974</v>
+        <v>46109.183127572</v>
       </c>
       <c r="E203" t="n">
-        <v>39313.7571115974</v>
+        <v>46109.183127572</v>
       </c>
       <c r="F203" t="n">
-        <v>17966387</v>
+        <v>22409063</v>
       </c>
     </row>
     <row r="204">
@@ -5249,13 +5249,13 @@
         <v>8.4689</v>
       </c>
       <c r="D204" t="n">
-        <v>28318.0525164114</v>
+        <v>33531.9115226337</v>
       </c>
       <c r="E204" t="n">
-        <v>28318.0525164114</v>
+        <v>33531.9115226337</v>
       </c>
       <c r="F204" t="n">
-        <v>12941350</v>
+        <v>16296509</v>
       </c>
     </row>
     <row r="205">
@@ -5269,13 +5269,13 @@
         <v>55.923255</v>
       </c>
       <c r="D205" t="n">
-        <v>77403.4070021882</v>
+        <v>84639.0596707819</v>
       </c>
       <c r="E205" t="n">
-        <v>77403.4070021882</v>
+        <v>84639.0596707819</v>
       </c>
       <c r="F205" t="n">
-        <v>35373357</v>
+        <v>41134583</v>
       </c>
     </row>
     <row r="206">
@@ -5289,13 +5289,13 @@
         <v>69.3451</v>
       </c>
       <c r="D206" t="n">
-        <v>292725.964989059</v>
+        <v>325930.674897119</v>
       </c>
       <c r="E206" t="n">
-        <v>292725.964989059</v>
+        <v>325930.674897119</v>
       </c>
       <c r="F206" t="n">
-        <v>133775766</v>
+        <v>158402308</v>
       </c>
     </row>
     <row r="207">
@@ -5309,13 +5309,13 @@
         <v>-80.7821</v>
       </c>
       <c r="D207" t="n">
-        <v>130836.827133479</v>
+        <v>144942.393004115</v>
       </c>
       <c r="E207" t="n">
-        <v>130836.827133479</v>
+        <v>144942.393004115</v>
       </c>
       <c r="F207" t="n">
-        <v>59792430</v>
+        <v>70442003</v>
       </c>
     </row>
     <row r="208">
@@ -5329,13 +5329,13 @@
         <v>143.95555</v>
       </c>
       <c r="D208" t="n">
-        <v>899.006564551422</v>
+        <v>1572.01440329218</v>
       </c>
       <c r="E208" t="n">
-        <v>899.006564551422</v>
+        <v>1572.01440329218</v>
       </c>
       <c r="F208" t="n">
-        <v>410846</v>
+        <v>763999</v>
       </c>
     </row>
     <row r="209">
@@ -5349,13 +5349,13 @@
         <v>-58.4438</v>
       </c>
       <c r="D209" t="n">
-        <v>59028.398249453</v>
+        <v>73048.1913580247</v>
       </c>
       <c r="E209" t="n">
-        <v>59028.398249453</v>
+        <v>73048.1913580247</v>
       </c>
       <c r="F209" t="n">
-        <v>26975978</v>
+        <v>35501421</v>
       </c>
     </row>
     <row r="210">
@@ -5369,13 +5369,13 @@
         <v>-75.0152</v>
       </c>
       <c r="D210" t="n">
-        <v>640112.008752735</v>
+        <v>711282.582304527</v>
       </c>
       <c r="E210" t="n">
-        <v>640112.008752735</v>
+        <v>711282.582304527</v>
       </c>
       <c r="F210" t="n">
-        <v>292531188</v>
+        <v>345683335</v>
       </c>
     </row>
     <row r="211">
@@ -5389,13 +5389,13 @@
         <v>121.774017</v>
       </c>
       <c r="D211" t="n">
-        <v>270123.234135667</v>
+        <v>318660.327160494</v>
       </c>
       <c r="E211" t="n">
-        <v>270123.234135667</v>
+        <v>318660.327160494</v>
       </c>
       <c r="F211" t="n">
-        <v>123446318</v>
+        <v>154868919</v>
       </c>
     </row>
     <row r="212">
@@ -5409,13 +5409,13 @@
         <v>19.1451</v>
       </c>
       <c r="D212" t="n">
-        <v>604059.207877462</v>
+        <v>736084.839506173</v>
       </c>
       <c r="E212" t="n">
-        <v>604059.207877462</v>
+        <v>736084.839506173</v>
       </c>
       <c r="F212" t="n">
-        <v>276055058</v>
+        <v>357737232</v>
       </c>
     </row>
     <row r="213">
@@ -5429,13 +5429,13 @@
         <v>-8.2245</v>
       </c>
       <c r="D213" t="n">
-        <v>242594.807439825</v>
+        <v>278172.911522634</v>
       </c>
       <c r="E213" t="n">
-        <v>242594.807439825</v>
+        <v>278172.911522634</v>
       </c>
       <c r="F213" t="n">
-        <v>110865827</v>
+        <v>135192035</v>
       </c>
     </row>
     <row r="214">
@@ -5449,13 +5449,13 @@
         <v>51.1839</v>
       </c>
       <c r="D214" t="n">
-        <v>98468.1356673961</v>
+        <v>105066.146090535</v>
       </c>
       <c r="E214" t="n">
-        <v>98468.1356673961</v>
+        <v>105066.146090535</v>
       </c>
       <c r="F214" t="n">
-        <v>44999938</v>
+        <v>51062147</v>
       </c>
     </row>
     <row r="215">
@@ -5469,13 +5469,13 @@
         <v>24.9668</v>
       </c>
       <c r="D215" t="n">
-        <v>292505.905908096</v>
+        <v>338420.024691358</v>
       </c>
       <c r="E215" t="n">
-        <v>292505.905908096</v>
+        <v>338420.024691358</v>
       </c>
       <c r="F215" t="n">
-        <v>133675199</v>
+        <v>164472132</v>
       </c>
     </row>
     <row r="216">
@@ -5489,13 +5489,13 @@
         <v>105.318756</v>
       </c>
       <c r="D216" t="n">
-        <v>1644149.52297593</v>
+        <v>1832981.51851852</v>
       </c>
       <c r="E216" t="n">
-        <v>1644149.52297593</v>
+        <v>1832981.51851852</v>
       </c>
       <c r="F216" t="n">
-        <v>751376332</v>
+        <v>890829018</v>
       </c>
     </row>
     <row r="217">
@@ -5509,13 +5509,13 @@
         <v>29.8739</v>
       </c>
       <c r="D217" t="n">
-        <v>6160.26258205689</v>
+        <v>7316.44855967078</v>
       </c>
       <c r="E217" t="n">
-        <v>6160.26258205689</v>
+        <v>7316.44855967078</v>
       </c>
       <c r="F217" t="n">
-        <v>2815240</v>
+        <v>3555794</v>
       </c>
     </row>
     <row r="218">
@@ -5529,13 +5529,13 @@
         <v>-62.782998</v>
       </c>
       <c r="D218" t="n">
-        <v>20.6477024070022</v>
+        <v>22.0884773662551</v>
       </c>
       <c r="E218" t="n">
-        <v>20.6477024070022</v>
+        <v>22.0884773662551</v>
       </c>
       <c r="F218" t="n">
-        <v>9436</v>
+        <v>10735</v>
       </c>
     </row>
     <row r="219">
@@ -5549,13 +5549,13 @@
         <v>-60.9789</v>
       </c>
       <c r="D219" t="n">
-        <v>717.862144420131</v>
+        <v>952.979423868313</v>
       </c>
       <c r="E219" t="n">
-        <v>717.862144420131</v>
+        <v>952.979423868313</v>
       </c>
       <c r="F219" t="n">
-        <v>328063</v>
+        <v>463148</v>
       </c>
     </row>
     <row r="220">
@@ -5569,13 +5569,13 @@
         <v>-61.2872</v>
       </c>
       <c r="D220" t="n">
-        <v>346.98249452954</v>
+        <v>439.405349794239</v>
       </c>
       <c r="E220" t="n">
-        <v>346.98249452954</v>
+        <v>439.405349794239</v>
       </c>
       <c r="F220" t="n">
-        <v>158571</v>
+        <v>213551</v>
       </c>
     </row>
     <row r="221">
@@ -5589,13 +5589,13 @@
         <v>-172.1046</v>
       </c>
       <c r="D221" t="n">
-        <v>0.809628008752735</v>
+        <v>0.940329218106996</v>
       </c>
       <c r="E221" t="n">
-        <v>0.809628008752735</v>
+        <v>0.940329218106996</v>
       </c>
       <c r="F221" t="n">
-        <v>370</v>
+        <v>457</v>
       </c>
     </row>
     <row r="222">
@@ -5609,13 +5609,13 @@
         <v>12.4578</v>
       </c>
       <c r="D222" t="n">
-        <v>1453.2647702407</v>
+        <v>1669.1316872428</v>
       </c>
       <c r="E222" t="n">
-        <v>1453.2647702407</v>
+        <v>1669.1316872428</v>
       </c>
       <c r="F222" t="n">
-        <v>664142</v>
+        <v>811198</v>
       </c>
     </row>
     <row r="223">
@@ -5629,13 +5629,13 @@
         <v>6.6131</v>
       </c>
       <c r="D223" t="n">
-        <v>842.606126914661</v>
+        <v>930.446502057613</v>
       </c>
       <c r="E223" t="n">
-        <v>842.606126914661</v>
+        <v>930.446502057613</v>
       </c>
       <c r="F223" t="n">
-        <v>385071</v>
+        <v>452197</v>
       </c>
     </row>
     <row r="224">
@@ -5649,13 +5649,13 @@
         <v>45.079162</v>
       </c>
       <c r="D224" t="n">
-        <v>234690.056892779</v>
+        <v>246005.495884774</v>
       </c>
       <c r="E224" t="n">
-        <v>234690.056892779</v>
+        <v>246005.495884774</v>
       </c>
       <c r="F224" t="n">
-        <v>107253356</v>
+        <v>119558671</v>
       </c>
     </row>
     <row r="225">
@@ -5669,13 +5669,13 @@
         <v>-14.4524</v>
       </c>
       <c r="D225" t="n">
-        <v>13976.9803063457</v>
+        <v>15563.7839506173</v>
       </c>
       <c r="E225" t="n">
-        <v>13976.9803063457</v>
+        <v>15563.7839506173</v>
       </c>
       <c r="F225" t="n">
-        <v>6387480</v>
+        <v>7563999</v>
       </c>
     </row>
     <row r="226">
@@ -5689,13 +5689,13 @@
         <v>21.0059</v>
       </c>
       <c r="D226" t="n">
-        <v>152636.343544858</v>
+        <v>185077.833333333</v>
       </c>
       <c r="E226" t="n">
-        <v>152636.343544858</v>
+        <v>185077.833333333</v>
       </c>
       <c r="F226" t="n">
-        <v>69754809</v>
+        <v>89947827</v>
       </c>
     </row>
     <row r="227">
@@ -5709,13 +5709,13 @@
         <v>55.492</v>
       </c>
       <c r="D227" t="n">
-        <v>685.540481400438</v>
+        <v>1076.15843621399</v>
       </c>
       <c r="E227" t="n">
-        <v>685.540481400438</v>
+        <v>1076.15843621399</v>
       </c>
       <c r="F227" t="n">
-        <v>313292</v>
+        <v>523013</v>
       </c>
     </row>
     <row r="228">
@@ -5729,13 +5729,13 @@
         <v>-11.779889</v>
       </c>
       <c r="D228" t="n">
-        <v>1875.56892778993</v>
+        <v>2006.85390946502</v>
       </c>
       <c r="E228" t="n">
-        <v>1875.56892778993</v>
+        <v>2006.85390946502</v>
       </c>
       <c r="F228" t="n">
-        <v>857135</v>
+        <v>975331</v>
       </c>
     </row>
     <row r="229">
@@ -5749,13 +5749,13 @@
         <v>103.8333</v>
       </c>
       <c r="D229" t="n">
-        <v>42019.2669584245</v>
+        <v>43171.5164609053</v>
       </c>
       <c r="E229" t="n">
-        <v>42019.2669584245</v>
+        <v>43171.5164609053</v>
       </c>
       <c r="F229" t="n">
-        <v>19202805</v>
+        <v>20981357</v>
       </c>
     </row>
     <row r="230">
@@ -5769,13 +5769,13 @@
         <v>19.699</v>
       </c>
       <c r="D230" t="n">
-        <v>90870.5557986871</v>
+        <v>108389.047325103</v>
       </c>
       <c r="E230" t="n">
-        <v>90870.5557986871</v>
+        <v>108389.047325103</v>
       </c>
       <c r="F230" t="n">
-        <v>41527844</v>
+        <v>52677077</v>
       </c>
     </row>
     <row r="231">
@@ -5789,13 +5789,13 @@
         <v>14.9955</v>
       </c>
       <c r="D231" t="n">
-        <v>57848.9190371991</v>
+        <v>68970.378600823</v>
       </c>
       <c r="E231" t="n">
-        <v>57848.9190371991</v>
+        <v>68970.378600823</v>
       </c>
       <c r="F231" t="n">
-        <v>26436956</v>
+        <v>33519604</v>
       </c>
     </row>
     <row r="232">
@@ -5809,13 +5809,13 @@
         <v>160.1562</v>
       </c>
       <c r="D232" t="n">
-        <v>6.73522975929978</v>
+        <v>7.52674897119342</v>
       </c>
       <c r="E232" t="n">
-        <v>6.73522975929978</v>
+        <v>7.52674897119342</v>
       </c>
       <c r="F232" t="n">
-        <v>3078</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="233">
@@ -5829,13 +5829,13 @@
         <v>46.199616</v>
       </c>
       <c r="D233" t="n">
-        <v>3682.54704595186</v>
+        <v>4310.0658436214</v>
       </c>
       <c r="E233" t="n">
-        <v>3682.54704595186</v>
+        <v>4310.0658436214</v>
       </c>
       <c r="F233" t="n">
-        <v>1682924</v>
+        <v>2094692</v>
       </c>
     </row>
     <row r="234">
@@ -5849,13 +5849,13 @@
         <v>22.9375</v>
       </c>
       <c r="D234" t="n">
-        <v>626975.035010941</v>
+        <v>684747.230452675</v>
       </c>
       <c r="E234" t="n">
-        <v>626975.035010941</v>
+        <v>684747.230452675</v>
       </c>
       <c r="F234" t="n">
-        <v>286527591</v>
+        <v>332787154</v>
       </c>
     </row>
     <row r="235">
@@ -5869,13 +5869,13 @@
         <v>31.307</v>
       </c>
       <c r="D235" t="n">
-        <v>2966.22757111597</v>
+        <v>3422.27572016461</v>
       </c>
       <c r="E235" t="n">
-        <v>2966.22757111597</v>
+        <v>3422.27572016461</v>
       </c>
       <c r="F235" t="n">
-        <v>1355566</v>
+        <v>1663226</v>
       </c>
     </row>
     <row r="236">
@@ -5889,13 +5889,13 @@
         <v>-3.74922</v>
       </c>
       <c r="D236" t="n">
-        <v>1130370.95185996</v>
+        <v>1275232.7345679</v>
       </c>
       <c r="E236" t="n">
-        <v>1130370.95185996</v>
+        <v>1275232.7345679</v>
       </c>
       <c r="F236" t="n">
-        <v>516579525</v>
+        <v>619763109</v>
       </c>
     </row>
     <row r="237">
@@ -5909,13 +5909,13 @@
         <v>80.771797</v>
       </c>
       <c r="D237" t="n">
-        <v>23446.7658643326</v>
+        <v>29440.4320987654</v>
       </c>
       <c r="E237" t="n">
-        <v>23446.7658643326</v>
+        <v>29440.4320987654</v>
       </c>
       <c r="F237" t="n">
-        <v>10715172</v>
+        <v>14308050</v>
       </c>
     </row>
     <row r="238">
@@ -5929,13 +5929,13 @@
         <v>30.2176</v>
       </c>
       <c r="D238" t="n">
-        <v>13907.5667396061</v>
+        <v>15128.6893004115</v>
       </c>
       <c r="E238" t="n">
-        <v>13907.5667396061</v>
+        <v>15128.6893004115</v>
       </c>
       <c r="F238" t="n">
-        <v>6355758</v>
+        <v>7352543</v>
       </c>
     </row>
     <row r="239">
@@ -5949,13 +5949,13 @@
         <v>-56.0278</v>
       </c>
       <c r="D239" t="n">
-        <v>3760.80306345733</v>
+        <v>4196.51851851852</v>
       </c>
       <c r="E239" t="n">
-        <v>3760.80306345733</v>
+        <v>4196.51851851852</v>
       </c>
       <c r="F239" t="n">
-        <v>1718687</v>
+        <v>2039508</v>
       </c>
     </row>
     <row r="240">
@@ -5969,13 +5969,13 @@
         <v>18.643501</v>
       </c>
       <c r="D240" t="n">
-        <v>229037.242888403</v>
+        <v>275010.479423868</v>
       </c>
       <c r="E240" t="n">
-        <v>229037.242888403</v>
+        <v>275010.479423868</v>
       </c>
       <c r="F240" t="n">
-        <v>104670020</v>
+        <v>133655093</v>
       </c>
     </row>
     <row r="241">
@@ -5989,13 +5989,13 @@
         <v>8.2275</v>
       </c>
       <c r="D241" t="n">
-        <v>199121.085339168</v>
+        <v>227122.102880658</v>
       </c>
       <c r="E241" t="n">
-        <v>199121.085339168</v>
+        <v>227122.102880658</v>
       </c>
       <c r="F241" t="n">
-        <v>90998336</v>
+        <v>110381342</v>
       </c>
     </row>
     <row r="242">
@@ -6009,13 +6009,13 @@
         <v>38.996815</v>
       </c>
       <c r="D242" t="n">
-        <v>5753.90153172866</v>
+        <v>6791.46502057613</v>
       </c>
       <c r="E242" t="n">
-        <v>5753.90153172866</v>
+        <v>6791.46502057613</v>
       </c>
       <c r="F242" t="n">
-        <v>2629533</v>
+        <v>3300652</v>
       </c>
     </row>
     <row r="243">
@@ -6029,13 +6029,13 @@
         <v>121</v>
       </c>
       <c r="D243" t="n">
-        <v>551.336980306346</v>
+        <v>603.681069958848</v>
       </c>
       <c r="E243" t="n">
-        <v>551.336980306346</v>
+        <v>603.681069958848</v>
       </c>
       <c r="F243" t="n">
-        <v>251961</v>
+        <v>293389</v>
       </c>
     </row>
     <row r="244">
@@ -6049,13 +6049,13 @@
         <v>71.2761</v>
       </c>
       <c r="D244" t="n">
-        <v>7649.55361050328</v>
+        <v>7987.1975308642</v>
       </c>
       <c r="E244" t="n">
-        <v>7649.55361050328</v>
+        <v>7987.1975308642</v>
       </c>
       <c r="F244" t="n">
-        <v>3495846</v>
+        <v>3881778</v>
       </c>
     </row>
     <row r="245">
@@ -6069,13 +6069,13 @@
         <v>34.888822</v>
       </c>
       <c r="D245" t="n">
-        <v>407.544857768053</v>
+        <v>413.598765432099</v>
       </c>
       <c r="E245" t="n">
-        <v>407.544857768053</v>
+        <v>413.598765432099</v>
       </c>
       <c r="F245" t="n">
-        <v>186248</v>
+        <v>201009</v>
       </c>
     </row>
     <row r="246">
@@ -6089,13 +6089,13 @@
         <v>100.992541</v>
       </c>
       <c r="D246" t="n">
-        <v>8006.79868708972</v>
+        <v>12419.6604938272</v>
       </c>
       <c r="E246" t="n">
-        <v>8006.79868708972</v>
+        <v>12419.6604938272</v>
       </c>
       <c r="F246" t="n">
-        <v>3659107</v>
+        <v>6035955</v>
       </c>
     </row>
     <row r="247">
@@ -6109,13 +6109,13 @@
         <v>125.727539</v>
       </c>
       <c r="D247" t="n">
-        <v>92.5929978118162</v>
+        <v>277.711934156379</v>
       </c>
       <c r="E247" t="n">
-        <v>92.5929978118162</v>
+        <v>277.711934156379</v>
       </c>
       <c r="F247" t="n">
-        <v>42315</v>
+        <v>134968</v>
       </c>
     </row>
     <row r="248">
@@ -6129,13 +6129,13 @@
         <v>0.8248</v>
       </c>
       <c r="D248" t="n">
-        <v>2636.12910284464</v>
+        <v>3259.68518518519</v>
       </c>
       <c r="E248" t="n">
-        <v>2636.12910284464</v>
+        <v>3259.68518518519</v>
       </c>
       <c r="F248" t="n">
-        <v>1204711</v>
+        <v>1584207</v>
       </c>
     </row>
     <row r="249">
@@ -6149,13 +6149,13 @@
         <v>-61.2225</v>
       </c>
       <c r="D249" t="n">
-        <v>3432.39387308534</v>
+        <v>4012.74691358025</v>
       </c>
       <c r="E249" t="n">
-        <v>3432.39387308534</v>
+        <v>4012.74691358025</v>
       </c>
       <c r="F249" t="n">
-        <v>1568604</v>
+        <v>1950195</v>
       </c>
     </row>
     <row r="250">
@@ -6169,13 +6169,13 @@
         <v>9.537499</v>
       </c>
       <c r="D250" t="n">
-        <v>71962.6126914661</v>
+        <v>86566.7777777778</v>
       </c>
       <c r="E250" t="n">
-        <v>71962.6126914661</v>
+        <v>86566.7777777778</v>
       </c>
       <c r="F250" t="n">
-        <v>32886914</v>
+        <v>42071454</v>
       </c>
     </row>
     <row r="251">
@@ -6189,13 +6189,13 @@
         <v>35.2433</v>
       </c>
       <c r="D251" t="n">
-        <v>949472.643326039</v>
+        <v>1187821.9218107</v>
       </c>
       <c r="E251" t="n">
-        <v>949472.643326039</v>
+        <v>1187821.9218107</v>
       </c>
       <c r="F251" t="n">
-        <v>433908998</v>
+        <v>577281454</v>
       </c>
     </row>
     <row r="252">
@@ -6209,13 +6209,13 @@
         <v>-100</v>
       </c>
       <c r="D252" t="n">
-        <v>10584080.0525164</v>
+        <v>11897742.6666667</v>
       </c>
       <c r="E252" t="n">
-        <v>10584080.0525164</v>
+        <v>11897742.6666667</v>
       </c>
       <c r="F252" t="n">
-        <v>4836924584</v>
+        <v>5782302936</v>
       </c>
     </row>
     <row r="253">
@@ -6229,13 +6229,13 @@
         <v>32.290275</v>
       </c>
       <c r="D253" t="n">
-        <v>14080.9956236324</v>
+        <v>15763.6543209877</v>
       </c>
       <c r="E253" t="n">
-        <v>14080.9956236324</v>
+        <v>15763.6543209877</v>
       </c>
       <c r="F253" t="n">
-        <v>6435015</v>
+        <v>7661136</v>
       </c>
     </row>
     <row r="254">
@@ -6249,13 +6249,13 @@
         <v>31.1656</v>
       </c>
       <c r="D254" t="n">
-        <v>504130.824945295</v>
+        <v>602749.283950617</v>
       </c>
       <c r="E254" t="n">
-        <v>504130.824945295</v>
+        <v>602749.283950617</v>
       </c>
       <c r="F254" t="n">
-        <v>230387787</v>
+        <v>292936152</v>
       </c>
     </row>
     <row r="255">
@@ -6269,13 +6269,13 @@
         <v>53.847818</v>
       </c>
       <c r="D255" t="n">
-        <v>139693.168490153</v>
+        <v>163075.606995885</v>
       </c>
       <c r="E255" t="n">
-        <v>139693.168490153</v>
+        <v>163075.606995885</v>
       </c>
       <c r="F255" t="n">
-        <v>63839778</v>
+        <v>79254745</v>
       </c>
     </row>
     <row r="256">
@@ -6289,13 +6289,13 @@
         <v>-63.0686</v>
       </c>
       <c r="D256" t="n">
-        <v>7.06345733041575</v>
+        <v>12.2777777777778</v>
       </c>
       <c r="E256" t="n">
-        <v>7.06345733041575</v>
+        <v>12.2777777777778</v>
       </c>
       <c r="F256" t="n">
-        <v>3228</v>
+        <v>5967</v>
       </c>
     </row>
     <row r="257">
@@ -6309,13 +6309,13 @@
         <v>-64.7505</v>
       </c>
       <c r="D257" t="n">
-        <v>342.754923413567</v>
+        <v>466.718106995885</v>
       </c>
       <c r="E257" t="n">
-        <v>342.754923413567</v>
+        <v>466.718106995885</v>
       </c>
       <c r="F257" t="n">
-        <v>156639</v>
+        <v>226825</v>
       </c>
     </row>
     <row r="258">
@@ -6329,13 +6329,13 @@
         <v>-64.64</v>
       </c>
       <c r="D258" t="n">
-        <v>55.6695842450766</v>
+        <v>65.2757201646091</v>
       </c>
       <c r="E258" t="n">
-        <v>55.6695842450766</v>
+        <v>65.2757201646091</v>
       </c>
       <c r="F258" t="n">
-        <v>25441</v>
+        <v>31724</v>
       </c>
     </row>
     <row r="259">
@@ -6349,13 +6349,13 @@
         <v>-81.2546</v>
       </c>
       <c r="D259" t="n">
-        <v>224.494529540481</v>
+        <v>243.960905349794</v>
       </c>
       <c r="E259" t="n">
-        <v>224.494529540481</v>
+        <v>243.960905349794</v>
       </c>
       <c r="F259" t="n">
-        <v>102594</v>
+        <v>118565</v>
       </c>
     </row>
     <row r="260">
@@ -6369,13 +6369,13 @@
         <v>-2.3644</v>
       </c>
       <c r="D260" t="n">
-        <v>1439.2932166302</v>
+        <v>1596.0329218107</v>
       </c>
       <c r="E260" t="n">
-        <v>1439.2932166302</v>
+        <v>1596.0329218107</v>
       </c>
       <c r="F260" t="n">
-        <v>657757</v>
+        <v>775672</v>
       </c>
     </row>
     <row r="261">
@@ -6389,13 +6389,13 @@
         <v>-59.5236</v>
       </c>
       <c r="D261" t="n">
-        <v>20.1006564551422</v>
+        <v>22.6604938271605</v>
       </c>
       <c r="E261" t="n">
-        <v>20.1006564551422</v>
+        <v>22.6604938271605</v>
       </c>
       <c r="F261" t="n">
-        <v>9186</v>
+        <v>11013</v>
       </c>
     </row>
     <row r="262">
@@ -6409,13 +6409,13 @@
         <v>-5.3536</v>
       </c>
       <c r="D262" t="n">
-        <v>1249.70897155361</v>
+        <v>1430.81893004115</v>
       </c>
       <c r="E262" t="n">
-        <v>1249.70897155361</v>
+        <v>1430.81893004115</v>
       </c>
       <c r="F262" t="n">
-        <v>571117</v>
+        <v>695378</v>
       </c>
     </row>
     <row r="263">
@@ -6429,13 +6429,13 @@
         <v>-4.5481</v>
       </c>
       <c r="D263" t="n">
-        <v>413.35010940919</v>
+        <v>483.510288065844</v>
       </c>
       <c r="E263" t="n">
-        <v>413.35010940919</v>
+        <v>483.510288065844</v>
       </c>
       <c r="F263" t="n">
-        <v>188901</v>
+        <v>234986</v>
       </c>
     </row>
     <row r="264">
@@ -6449,13 +6449,13 @@
         <v>-62.187366</v>
       </c>
       <c r="D264" t="n">
-        <v>11.6323851203501</v>
+        <v>12.1316872427984</v>
       </c>
       <c r="E264" t="n">
-        <v>11.6323851203501</v>
+        <v>12.1316872427984</v>
       </c>
       <c r="F264" t="n">
-        <v>5316</v>
+        <v>5896</v>
       </c>
     </row>
     <row r="265">
@@ -6469,13 +6469,13 @@
         <v>-14.3559</v>
       </c>
       <c r="D265" t="n">
-        <v>1.61487964989059</v>
+        <v>1.75720164609054</v>
       </c>
       <c r="E265" t="n">
-        <v>1.61487964989059</v>
+        <v>1.75720164609054</v>
       </c>
       <c r="F265" t="n">
-        <v>738</v>
+        <v>854</v>
       </c>
     </row>
     <row r="266">
@@ -6489,13 +6489,13 @@
         <v>-71.7979</v>
       </c>
       <c r="D266" t="n">
-        <v>672.586433260394</v>
+        <v>775.399176954733</v>
       </c>
       <c r="E266" t="n">
-        <v>672.586433260394</v>
+        <v>775.399176954733</v>
       </c>
       <c r="F266" t="n">
-        <v>307372</v>
+        <v>376844</v>
       </c>
     </row>
     <row r="267">
@@ -6509,13 +6509,13 @@
         <v>-3.436</v>
       </c>
       <c r="D267" t="n">
-        <v>1348587.92560175</v>
+        <v>1532489.1563786</v>
       </c>
       <c r="E267" t="n">
-        <v>1348587.92560175</v>
+        <v>1532489.1563786</v>
       </c>
       <c r="F267" t="n">
-        <v>616304682</v>
+        <v>744789730</v>
       </c>
     </row>
     <row r="268">
@@ -6529,13 +6529,13 @@
         <v>-55.7658</v>
       </c>
       <c r="D268" t="n">
-        <v>18906.8380743982</v>
+        <v>30696.487654321</v>
       </c>
       <c r="E268" t="n">
-        <v>18906.8380743982</v>
+        <v>30696.487654321</v>
       </c>
       <c r="F268" t="n">
-        <v>8640425</v>
+        <v>14918493</v>
       </c>
     </row>
     <row r="269">
@@ -6549,13 +6549,13 @@
         <v>64.585262</v>
       </c>
       <c r="D269" t="n">
-        <v>40935.2625820569</v>
+        <v>44065.0576131687</v>
       </c>
       <c r="E269" t="n">
-        <v>40935.2625820569</v>
+        <v>44065.0576131687</v>
       </c>
       <c r="F269" t="n">
-        <v>18707415</v>
+        <v>21415618</v>
       </c>
     </row>
     <row r="270">
@@ -6569,13 +6569,13 @@
         <v>166.9592</v>
       </c>
       <c r="D270" t="n">
-        <v>0.564551422319475</v>
+        <v>0.769547325102881</v>
       </c>
       <c r="E270" t="n">
-        <v>0.564551422319475</v>
+        <v>0.769547325102881</v>
       </c>
       <c r="F270" t="n">
-        <v>258</v>
+        <v>374</v>
       </c>
     </row>
     <row r="271">
@@ -6589,13 +6589,13 @@
         <v>-66.5897</v>
       </c>
       <c r="D271" t="n">
-        <v>61689.7592997812</v>
+        <v>70254.9238683128</v>
       </c>
       <c r="E271" t="n">
-        <v>61689.7592997812</v>
+        <v>70254.9238683128</v>
       </c>
       <c r="F271" t="n">
-        <v>28192220</v>
+        <v>34143893</v>
       </c>
     </row>
     <row r="272">
@@ -6609,13 +6609,13 @@
         <v>108.277199</v>
       </c>
       <c r="D272" t="n">
-        <v>1023.75054704595</v>
+        <v>1169.77160493827</v>
       </c>
       <c r="E272" t="n">
-        <v>1023.75054704595</v>
+        <v>1169.77160493827</v>
       </c>
       <c r="F272" t="n">
-        <v>467854</v>
+        <v>568509</v>
       </c>
     </row>
     <row r="273">
@@ -6629,13 +6629,13 @@
         <v>35.2332</v>
       </c>
       <c r="D273" t="n">
-        <v>67144.3435448578</v>
+        <v>81002.9403292181</v>
       </c>
       <c r="E273" t="n">
-        <v>67144.3435448578</v>
+        <v>81002.9403292181</v>
       </c>
       <c r="F273" t="n">
-        <v>30684965</v>
+        <v>39367429</v>
       </c>
     </row>
     <row r="274">
@@ -6649,13 +6649,13 @@
         <v>48.516388</v>
       </c>
       <c r="D274" t="n">
-        <v>1581.59080962801</v>
+        <v>1869.52469135802</v>
       </c>
       <c r="E274" t="n">
-        <v>1581.59080962801</v>
+        <v>1869.52469135802</v>
       </c>
       <c r="F274" t="n">
-        <v>722787</v>
+        <v>908589</v>
       </c>
     </row>
     <row r="275">
@@ -6669,13 +6669,13 @@
         <v>27.849332</v>
       </c>
       <c r="D275" t="n">
-        <v>22049.8905908096</v>
+        <v>26222.6008230453</v>
       </c>
       <c r="E275" t="n">
-        <v>22049.8905908096</v>
+        <v>26222.6008230453</v>
       </c>
       <c r="F275" t="n">
-        <v>10076800</v>
+        <v>12744184</v>
       </c>
     </row>
     <row r="276">
@@ -6689,13 +6689,13 @@
         <v>29.154857</v>
       </c>
       <c r="D276" t="n">
-        <v>11075.3457330416</v>
+        <v>12704.3086419753</v>
       </c>
       <c r="E276" t="n">
-        <v>11075.3457330416</v>
+        <v>12704.3086419753</v>
       </c>
       <c r="F276" t="n">
-        <v>5061433</v>
+        <v>6174294</v>
       </c>
     </row>
   </sheetData>
